--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337B438D-F769-425A-A6BF-E2317F8E348F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
   <si>
     <t>X</t>
   </si>
@@ -245,13 +245,35 @@
   </si>
   <si>
     <t>WeibullK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案1</t>
+  </si>
+  <si>
+    <t>方案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西XX风电项目</t>
+  </si>
+  <si>
+    <t>广西XX风电项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id_input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -392,74 +414,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -479,7 +433,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -733,2548 +687,2693 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="21.75" thickBot="1">
+    <row r="1" spans="1:36" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:36">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>37482557</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>2539699</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>714.6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>90</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>110.82991677839</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>22.956217136714699</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <v>7.55</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>2.1179999999999999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>301.8</v>
       </c>
-      <c r="N2" s="2">
+      <c r="P2" s="2">
         <v>10822</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Q2" s="2">
         <v>10819.09</v>
       </c>
-      <c r="P2" s="2">
+      <c r="R2" s="2">
         <v>0.49</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2">
         <v>6.7</v>
       </c>
-      <c r="R2" s="2">
+      <c r="T2" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="S2" s="2">
+      <c r="U2" s="2">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
         <v>6.69</v>
       </c>
-      <c r="U2" s="2">
+      <c r="W2" s="2">
         <v>0</v>
       </c>
-      <c r="V2" s="2">
+      <c r="X2" s="2">
         <v>1.1080000000000001</v>
       </c>
-      <c r="W2" s="2">
+      <c r="Y2" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Z2" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AA2" s="2">
         <v>337</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AB2" s="2">
         <v>3</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AC2" s="2">
         <v>4.2</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AD2" s="2">
         <v>157</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AF2" s="2">
         <v>682</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AG2" s="2">
         <v>140</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AH2" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AI2" s="2">
         <v>277</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AJ2" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:36">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>37481880</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>2539780</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <v>658.2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="4">
         <v>90</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <v>110.82331455991999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>22.9569413385146</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4">
+      <c r="M3" s="4">
         <v>6.69</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>2.0880000000000001</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>217.6</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>9019.67</v>
       </c>
-      <c r="O3" s="4">
+      <c r="Q3" s="4">
         <v>8925.01</v>
       </c>
-      <c r="P3" s="4">
+      <c r="R3" s="4">
         <v>0.41</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="S3" s="4">
         <v>5.94</v>
       </c>
-      <c r="R3" s="4">
+      <c r="T3" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="S3" s="4">
+      <c r="U3" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="T3" s="4">
+      <c r="V3" s="4">
         <v>5.9</v>
       </c>
-      <c r="U3" s="4">
+      <c r="W3" s="4">
         <v>-1</v>
       </c>
-      <c r="V3" s="4">
+      <c r="X3" s="4">
         <v>1.115</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Y3" s="4">
         <v>0.1</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <v>0.27</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AA3" s="4">
         <v>90</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AB3" s="4">
         <v>2.6</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AC3" s="4">
         <v>4.2</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AD3" s="4">
         <v>180</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AF3" s="4">
         <v>667</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AG3" s="4">
         <v>140</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AH3" s="4">
         <v>4.8</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AI3" s="4">
         <v>262</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AJ3" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:36">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="4">
         <v>37481220</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <v>2539686</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <v>699.8</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>90</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>110.816880165011</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>22.956085235061899</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="4">
+      <c r="M4" s="4">
         <v>7.15</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>2.1379999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>257.3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>10042.540000000001</v>
       </c>
-      <c r="O4" s="4">
+      <c r="Q4" s="4">
         <v>9795.93</v>
       </c>
-      <c r="P4" s="4">
+      <c r="R4" s="4">
         <v>0.46</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="S4" s="4">
         <v>6.34</v>
       </c>
-      <c r="R4" s="4">
+      <c r="T4" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="S4" s="4">
+      <c r="U4" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="T4" s="4">
+      <c r="V4" s="4">
         <v>6.26</v>
       </c>
-      <c r="U4" s="4">
+      <c r="W4" s="4">
         <v>-2.5</v>
       </c>
-      <c r="V4" s="4">
+      <c r="X4" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="W4" s="4">
+      <c r="Y4" s="4">
         <v>0.06</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <v>0.13</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AA4" s="4">
         <v>90</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AB4" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AC4" s="4">
         <v>3.4</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AD4" s="4">
         <v>135</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AF4" s="4">
         <v>667</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AG4" s="4">
         <v>140</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AH4" s="4">
         <v>4.8</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AI4" s="4">
         <v>82</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AJ4" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:36">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4">
+      <c r="F5" s="4">
         <v>37480324</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>2539675</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>747.9</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>90</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>110.808143634229</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>22.9559755808646</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="4">
         <v>7.28</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>2.161</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>266.89999999999998</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>10333.91</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Q5" s="4">
         <v>10196.83</v>
       </c>
-      <c r="P5" s="4">
+      <c r="R5" s="4">
         <v>0.47</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="S5" s="4">
         <v>6.46</v>
       </c>
-      <c r="R5" s="4">
+      <c r="T5" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="T5" s="4">
+      <c r="V5" s="4">
         <v>6.41</v>
       </c>
-      <c r="U5" s="4">
+      <c r="W5" s="4">
         <v>-1.3</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <v>1.1040000000000001</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Y5" s="4">
         <v>0.05</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <v>0.1</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="AA5" s="4">
         <v>247</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <v>2.6</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AC5" s="4">
         <v>3.5</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AD5" s="4">
         <v>0</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AE5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AF5" s="4">
         <v>896</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AG5" s="4">
         <v>140</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AH5" s="4">
         <v>6.4</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AI5" s="4">
         <v>89</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AJ5" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:36">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4">
+      <c r="F6" s="4">
         <v>37479382</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>2539876</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>702.8</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
         <v>90</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>110.79895575887601</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>22.957779201139299</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>6.45</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>202.6</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>8513.5400000000009</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <v>8414.2999999999993</v>
       </c>
-      <c r="P6" s="4">
+      <c r="R6" s="4">
         <v>0.39</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <v>5.73</v>
       </c>
-      <c r="R6" s="4">
+      <c r="T6" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="S6" s="4">
+      <c r="U6" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="T6" s="4">
+      <c r="V6" s="4">
         <v>5.69</v>
       </c>
-      <c r="U6" s="4">
+      <c r="W6" s="4">
         <v>-1.2</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <v>1.109</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Y6" s="4">
         <v>0.1</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Z6" s="4">
         <v>0.23</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="AA6" s="4">
         <v>315</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AB6" s="4">
         <v>3.4</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AC6" s="4">
         <v>6.5</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AD6" s="4">
         <v>45</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AF6" s="4">
         <v>452</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AG6" s="4">
         <v>140</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AH6" s="4">
         <v>3.2</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AI6" s="4">
         <v>295</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AJ6" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:36">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4">
+      <c r="F7" s="4">
         <v>37478973</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="4">
         <v>2540069</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
         <v>686.8</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="4">
         <v>90</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <v>110.794965029696</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>22.9595168520949</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="4">
+      <c r="M7" s="4">
         <v>6.09</v>
       </c>
-      <c r="L7" s="4">
+      <c r="N7" s="4">
         <v>1.944</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>176.2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>7742.12</v>
       </c>
-      <c r="O7" s="4">
+      <c r="Q7" s="4">
         <v>7617.35</v>
       </c>
-      <c r="P7" s="4">
+      <c r="R7" s="4">
         <v>0.35</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="S7" s="4">
         <v>5.41</v>
       </c>
-      <c r="R7" s="4">
+      <c r="T7" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="S7" s="4">
+      <c r="U7" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="T7" s="4">
+      <c r="V7" s="4">
         <v>5.33</v>
       </c>
-      <c r="U7" s="4">
+      <c r="W7" s="4">
         <v>-1.6</v>
       </c>
-      <c r="V7" s="4">
+      <c r="X7" s="4">
         <v>1.111</v>
       </c>
-      <c r="W7" s="4">
+      <c r="Y7" s="4">
         <v>0.15</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Z7" s="4">
         <v>0.37</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="AA7" s="4">
         <v>112</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>2.7</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AC7" s="4">
         <v>3.8</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AD7" s="4">
         <v>45</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AE7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AF7" s="4">
         <v>452</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AG7" s="4">
         <v>140</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AH7" s="4">
         <v>3.2</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AI7" s="4">
         <v>115</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AJ7" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:36">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4">
+      <c r="F8" s="4">
         <v>37478629</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G8" s="4">
         <v>2540431</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="4">
         <v>738.4</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="4">
         <v>90</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <v>110.79160568285199</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>22.962781274667101</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <v>6.41</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <v>2.0590000000000002</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>194</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>8400.5300000000007</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Q8" s="4">
         <v>8205.19</v>
       </c>
-      <c r="P8" s="4">
+      <c r="R8" s="4">
         <v>0.38</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="S8" s="4">
         <v>5.69</v>
       </c>
-      <c r="R8" s="4">
+      <c r="T8" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S8" s="4">
+      <c r="U8" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="T8" s="4">
+      <c r="V8" s="4">
         <v>5.6</v>
       </c>
-      <c r="U8" s="4">
+      <c r="W8" s="4">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <v>1.105</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Y8" s="4">
         <v>0.1</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Z8" s="4">
         <v>0.2</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AA8" s="4">
         <v>315</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AB8" s="4">
         <v>2.9</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AC8" s="4">
         <v>5.8</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AD8" s="4">
         <v>67</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AF8" s="4">
         <v>400</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AG8" s="4">
         <v>140</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AH8" s="4">
         <v>2.9</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AI8" s="4">
         <v>272</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AJ8" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:36">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4">
+      <c r="F9" s="4">
         <v>37478229</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <v>2540443</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
         <v>758.7</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="4">
         <v>90</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="4">
         <v>110.787705027551</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <v>22.962884459198399</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="4">
+      <c r="M9" s="4">
         <v>6.27</v>
       </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>2.0859999999999999</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>179</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>8056.28</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="4">
         <v>6881.86</v>
       </c>
-      <c r="P9" s="4">
+      <c r="R9" s="4">
         <v>0.37</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="S9" s="4">
         <v>5.56</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="S9" s="4">
+      <c r="U9" s="4">
         <v>0.108</v>
       </c>
-      <c r="T9" s="4">
+      <c r="V9" s="4">
         <v>5.17</v>
       </c>
-      <c r="U9" s="4">
+      <c r="W9" s="4">
         <v>-14.6</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <v>1.103</v>
       </c>
-      <c r="W9" s="4">
+      <c r="Y9" s="4">
         <v>0.12</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Z9" s="4">
         <v>0.22</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="AA9" s="4">
         <v>292</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AB9" s="4">
         <v>2.9</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AC9" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AD9" s="4">
         <v>90</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AE9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AF9" s="4">
         <v>400</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AG9" s="4">
         <v>140</v>
       </c>
-      <c r="AF9" s="4">
+      <c r="AH9" s="4">
         <v>2.9</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AI9" s="4">
         <v>92</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AJ9" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:36">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="4">
+      <c r="F10" s="4">
         <v>37477789</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>2540690</v>
       </c>
-      <c r="F10" s="4">
+      <c r="H10" s="4">
         <v>827.4</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10" s="4">
         <v>90</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J10" s="4">
         <v>110.78341093840901</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <v>22.9651090208861</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="4">
+      <c r="M10" s="4">
         <v>6.91</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>2.1579999999999999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>228.4</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>9422.49</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="4">
         <v>9068.09</v>
       </c>
-      <c r="P10" s="4">
+      <c r="R10" s="4">
         <v>0.43</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="S10" s="4">
         <v>6.13</v>
       </c>
-      <c r="R10" s="4">
+      <c r="T10" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="S10" s="4">
+      <c r="U10" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="T10" s="4">
+      <c r="V10" s="4">
         <v>6.01</v>
       </c>
-      <c r="U10" s="4">
+      <c r="W10" s="4">
         <v>-3.8</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <v>1.0940000000000001</v>
       </c>
-      <c r="W10" s="4">
+      <c r="Y10" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Z10" s="4">
         <v>0.11</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="AA10" s="4">
         <v>292</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AB10" s="4">
         <v>4.2</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AC10" s="4">
         <v>6.4</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AD10" s="4">
         <v>90</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AF10" s="4">
         <v>439</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AG10" s="4">
         <v>140</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AH10" s="4">
         <v>3.1</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AI10" s="4">
         <v>283</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AJ10" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:36">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4">
+      <c r="F11" s="4">
         <v>37477361</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <v>2540788</v>
       </c>
-      <c r="F11" s="4">
+      <c r="H11" s="4">
         <v>798.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I11" s="4">
         <v>90</v>
       </c>
-      <c r="H11" s="4">
+      <c r="J11" s="4">
         <v>110.77923591239301</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <v>22.9659881866924</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="4">
+      <c r="M11" s="4">
         <v>6.39</v>
       </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>2.1930000000000001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>180.8</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>8246.0300000000007</v>
       </c>
-      <c r="O11" s="4">
+      <c r="Q11" s="4">
         <v>7806.64</v>
       </c>
-      <c r="P11" s="4">
+      <c r="R11" s="4">
         <v>0.38</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="S11" s="4">
         <v>5.67</v>
       </c>
-      <c r="R11" s="4">
+      <c r="T11" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="S11" s="4">
+      <c r="U11" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="T11" s="4">
+      <c r="V11" s="4">
         <v>5.51</v>
       </c>
-      <c r="U11" s="4">
+      <c r="W11" s="4">
         <v>-5.3</v>
       </c>
-      <c r="V11" s="4">
+      <c r="X11" s="4">
         <v>1.0980000000000001</v>
       </c>
-      <c r="W11" s="4">
+      <c r="Y11" s="4">
         <v>0.12</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Z11" s="4">
         <v>0.18</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="AA11" s="4">
         <v>90</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AB11" s="4">
         <v>1.6</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AC11" s="4">
         <v>5.7</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AD11" s="4">
         <v>315</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AF11" s="4">
         <v>439</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AG11" s="4">
         <v>140</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AH11" s="4">
         <v>3.1</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AI11" s="4">
         <v>103</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AJ11" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:36">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="4">
+      <c r="F12" s="4">
         <v>37476779</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G12" s="4">
         <v>2540221</v>
       </c>
-      <c r="F12" s="4">
+      <c r="H12" s="4">
         <v>848.9</v>
       </c>
-      <c r="G12" s="4">
+      <c r="I12" s="4">
         <v>90</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <v>110.773569101199</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <v>22.960860284954698</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M12" s="4">
         <v>6.66</v>
       </c>
-      <c r="L12" s="4">
+      <c r="N12" s="4">
         <v>2.262</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>198.4</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>8907.8799999999992</v>
       </c>
-      <c r="O12" s="4">
+      <c r="Q12" s="4">
         <v>8558.39</v>
       </c>
-      <c r="P12" s="4">
+      <c r="R12" s="4">
         <v>0.41</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="S12" s="4">
         <v>5.91</v>
       </c>
-      <c r="R12" s="4">
+      <c r="T12" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <v>0.1</v>
       </c>
-      <c r="T12" s="4">
+      <c r="V12" s="4">
         <v>5.79</v>
       </c>
-      <c r="U12" s="4">
+      <c r="W12" s="4">
         <v>-3.9</v>
       </c>
-      <c r="V12" s="4">
+      <c r="X12" s="4">
         <v>1.0920000000000001</v>
       </c>
-      <c r="W12" s="4">
+      <c r="Y12" s="4">
         <v>0.1</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Z12" s="4">
         <v>0.17</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="AA12" s="4">
         <v>225</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AB12" s="4">
         <v>3</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AC12" s="4">
         <v>5.9</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AD12" s="4">
         <v>315</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AE12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AF12" s="4">
         <v>511</v>
       </c>
-      <c r="AE12" s="4">
+      <c r="AG12" s="4">
         <v>140</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AH12" s="4">
         <v>3.6</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AI12" s="4">
         <v>239</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AJ12" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:36">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4">
+      <c r="F13" s="4">
         <v>37476340</v>
       </c>
-      <c r="E13" s="4">
+      <c r="G13" s="4">
         <v>2539960</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H13" s="4">
         <v>919.1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>90</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <v>110.769292380896</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <v>22.958497336425499</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M13" s="4">
         <v>7.49</v>
       </c>
-      <c r="L13" s="4">
+      <c r="N13" s="4">
         <v>2.238</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>278.10000000000002</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>10678.28</v>
       </c>
-      <c r="O13" s="4">
+      <c r="Q13" s="4">
         <v>10482.530000000001</v>
       </c>
-      <c r="P13" s="4">
+      <c r="R13" s="4">
         <v>0.49</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="S13" s="4">
         <v>6.64</v>
       </c>
-      <c r="R13" s="4">
+      <c r="T13" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="S13" s="4">
+      <c r="U13" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="T13" s="4">
+      <c r="V13" s="4">
         <v>6.57</v>
       </c>
-      <c r="U13" s="4">
+      <c r="W13" s="4">
         <v>-1.8</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <v>1.083</v>
       </c>
-      <c r="W13" s="4">
+      <c r="Y13" s="4">
         <v>0.03</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Z13" s="4">
         <v>0.06</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="AA13" s="4">
         <v>112</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AB13" s="4">
         <v>2.8</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AC13" s="4">
         <v>4.3</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AD13" s="4">
         <v>157</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AE13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AF13" s="4">
         <v>495</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AG13" s="4">
         <v>140</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AH13" s="4">
         <v>3.5</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AI13" s="4">
         <v>270</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AJ13" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:36">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4">
+      <c r="F14" s="4">
         <v>37475845</v>
       </c>
-      <c r="E14" s="4">
+      <c r="G14" s="4">
         <v>2539963</v>
       </c>
-      <c r="F14" s="4">
+      <c r="H14" s="4">
         <v>827.6</v>
       </c>
-      <c r="G14" s="4">
+      <c r="I14" s="4">
         <v>90</v>
       </c>
-      <c r="H14" s="4">
+      <c r="J14" s="4">
         <v>110.764465641901</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <v>22.958517332007801</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="4">
+      <c r="M14" s="4">
         <v>6.59</v>
       </c>
-      <c r="L14" s="4">
+      <c r="N14" s="4">
         <v>2.1829999999999998</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>198.5</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8674.36</v>
       </c>
-      <c r="O14" s="4">
+      <c r="Q14" s="4">
         <v>8308.2900000000009</v>
       </c>
-      <c r="P14" s="4">
+      <c r="R14" s="4">
         <v>0.4</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="S14" s="4">
         <v>5.84</v>
       </c>
-      <c r="R14" s="4">
+      <c r="T14" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="S14" s="4">
+      <c r="U14" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="T14" s="4">
+      <c r="V14" s="4">
         <v>5.72</v>
       </c>
-      <c r="U14" s="4">
+      <c r="W14" s="4">
         <v>-4.2</v>
       </c>
-      <c r="V14" s="4">
+      <c r="X14" s="4">
         <v>1.0940000000000001</v>
       </c>
-      <c r="W14" s="4">
+      <c r="Y14" s="4">
         <v>0.1</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Z14" s="4">
         <v>0.18</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="AA14" s="4">
         <v>90</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <v>2.8</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AC14" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AD14" s="4">
         <v>157</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AE14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AF14" s="4">
         <v>458</v>
       </c>
-      <c r="AE14" s="4">
+      <c r="AG14" s="4">
         <v>140</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AH14" s="4">
         <v>3.3</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AI14" s="4">
         <v>231</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AJ14" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:36">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4">
+      <c r="F15" s="4">
         <v>37475491</v>
       </c>
-      <c r="E15" s="4">
+      <c r="G15" s="4">
         <v>2539673</v>
       </c>
-      <c r="F15" s="4">
+      <c r="H15" s="4">
         <v>789.7</v>
       </c>
-      <c r="G15" s="4">
+      <c r="I15" s="4">
         <v>90</v>
       </c>
-      <c r="H15" s="4">
+      <c r="J15" s="4">
         <v>110.76101842668</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <v>22.9558935257052</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="4">
+      <c r="M15" s="4">
         <v>6.26</v>
       </c>
-      <c r="L15" s="4">
+      <c r="N15" s="4">
         <v>2.1629999999999998</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>172.7</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>7929.29</v>
       </c>
-      <c r="O15" s="4">
+      <c r="Q15" s="4">
         <v>7066.47</v>
       </c>
-      <c r="P15" s="4">
+      <c r="R15" s="4">
         <v>0.36</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="S15" s="4">
         <v>5.55</v>
       </c>
-      <c r="R15" s="4">
+      <c r="T15" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="S15" s="4">
+      <c r="U15" s="4">
         <v>0.107</v>
       </c>
-      <c r="T15" s="4">
+      <c r="V15" s="4">
         <v>5.24</v>
       </c>
-      <c r="U15" s="4">
+      <c r="W15" s="4">
         <v>-10.9</v>
       </c>
-      <c r="V15" s="4">
+      <c r="X15" s="4">
         <v>1.099</v>
       </c>
-      <c r="W15" s="4">
+      <c r="Y15" s="4">
         <v>0.12</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Z15" s="4">
         <v>0.2</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="AA15" s="4">
         <v>90</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AB15" s="4">
         <v>2.7</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AC15" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AD15" s="4">
         <v>202</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AF15" s="4">
         <v>458</v>
       </c>
-      <c r="AE15" s="4">
+      <c r="AG15" s="4">
         <v>140</v>
       </c>
-      <c r="AF15" s="4">
+      <c r="AH15" s="4">
         <v>3.3</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AI15" s="4">
         <v>51</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AJ15" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:36">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4">
+      <c r="F16" s="4">
         <v>37475055</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G16" s="4">
         <v>2539861</v>
       </c>
-      <c r="F16" s="4">
+      <c r="H16" s="4">
         <v>791.2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="I16" s="4">
         <v>90</v>
       </c>
-      <c r="H16" s="4">
+      <c r="J16" s="4">
         <v>110.756764085784</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <v>22.957584666691002</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="4">
+      <c r="M16" s="4">
         <v>6.62</v>
       </c>
-      <c r="L16" s="4">
+      <c r="N16" s="4">
         <v>2.1619999999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>203.4</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>8804.8700000000008</v>
       </c>
-      <c r="O16" s="4">
+      <c r="Q16" s="4">
         <v>8238.61</v>
       </c>
-      <c r="P16" s="4">
+      <c r="R16" s="4">
         <v>0.4</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="S16" s="4">
         <v>5.87</v>
       </c>
-      <c r="R16" s="4">
+      <c r="T16" s="4">
         <v>0.09</v>
       </c>
-      <c r="S16" s="4">
+      <c r="U16" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="T16" s="4">
+      <c r="V16" s="4">
         <v>5.66</v>
       </c>
-      <c r="U16" s="4">
+      <c r="W16" s="4">
         <v>-6.4</v>
       </c>
-      <c r="V16" s="4">
+      <c r="X16" s="4">
         <v>1.099</v>
       </c>
-      <c r="W16" s="4">
+      <c r="Y16" s="4">
         <v>0.1</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Z16" s="4">
         <v>0.19</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="AA16" s="4">
         <v>112</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AB16" s="4">
         <v>1.8</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AC16" s="4">
         <v>2.8</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AD16" s="4">
         <v>270</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AF16" s="4">
         <v>475</v>
       </c>
-      <c r="AE16" s="4">
+      <c r="AG16" s="4">
         <v>140</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AH16" s="4">
         <v>3.4</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AI16" s="4">
         <v>113</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AJ16" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:34">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:36">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="4">
+      <c r="F17" s="4">
         <v>37475533</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G17" s="4">
         <v>2538879</v>
       </c>
-      <c r="F17" s="4">
+      <c r="H17" s="4">
         <v>732.5</v>
       </c>
-      <c r="G17" s="4">
+      <c r="I17" s="4">
         <v>90</v>
       </c>
-      <c r="H17" s="4">
+      <c r="J17" s="4">
         <v>110.761440526866</v>
       </c>
-      <c r="I17" s="4">
+      <c r="K17" s="4">
         <v>22.948724473413101</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="4">
+      <c r="M17" s="4">
         <v>5.72</v>
       </c>
-      <c r="L17" s="4">
+      <c r="N17" s="4">
         <v>2.1680000000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>133.1</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>6682.89</v>
       </c>
-      <c r="O17" s="4">
+      <c r="Q17" s="4">
         <v>6515.3</v>
       </c>
-      <c r="P17" s="4">
+      <c r="R17" s="4">
         <v>0.3</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="S17" s="4">
         <v>5.07</v>
       </c>
-      <c r="R17" s="4">
+      <c r="T17" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="S17" s="4">
+      <c r="U17" s="4">
         <v>0.1</v>
       </c>
-      <c r="T17" s="4">
+      <c r="V17" s="4">
         <v>5</v>
       </c>
-      <c r="U17" s="4">
+      <c r="W17" s="4">
         <v>-2.5</v>
       </c>
-      <c r="V17" s="4">
+      <c r="X17" s="4">
         <v>1.1060000000000001</v>
       </c>
-      <c r="W17" s="4">
+      <c r="Y17" s="4">
         <v>0.11</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Z17" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="AA17" s="4">
         <v>0</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AB17" s="4">
         <v>1.7</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AC17" s="4">
         <v>2.9</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AD17" s="4">
         <v>225</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AE17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AF17" s="4">
         <v>795</v>
       </c>
-      <c r="AE17" s="4">
+      <c r="AG17" s="4">
         <v>140</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AH17" s="4">
         <v>5.7</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AI17" s="4">
         <v>357</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AJ17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:34">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:36">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="4">
+      <c r="F18" s="4">
         <v>37478048</v>
       </c>
-      <c r="E18" s="4">
+      <c r="G18" s="4">
         <v>2541208</v>
       </c>
-      <c r="F18" s="4">
+      <c r="H18" s="4">
         <v>738.5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="I18" s="4">
         <v>90</v>
       </c>
-      <c r="H18" s="4">
+      <c r="J18" s="4">
         <v>110.785929181424</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <v>22.969789890540699</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="4">
+      <c r="M18" s="4">
         <v>5.59</v>
       </c>
-      <c r="L18" s="4">
+      <c r="N18" s="4">
         <v>2.1419999999999999</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>129.5</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>6176.28</v>
       </c>
-      <c r="O18" s="4">
+      <c r="Q18" s="4">
         <v>5721.68</v>
       </c>
-      <c r="P18" s="4">
+      <c r="R18" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="S18" s="4">
         <v>4.96</v>
       </c>
-      <c r="R18" s="4">
+      <c r="T18" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="S18" s="4">
+      <c r="U18" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="T18" s="4">
+      <c r="V18" s="4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="U18" s="4">
+      <c r="W18" s="4">
         <v>-7.4</v>
       </c>
-      <c r="V18" s="4">
+      <c r="X18" s="4">
         <v>1.105</v>
       </c>
-      <c r="W18" s="4">
+      <c r="Y18" s="4">
         <v>0.19</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Z18" s="4">
         <v>0.33</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="AA18" s="4">
         <v>180</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AB18" s="4">
         <v>3.5</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AC18" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AD18" s="4">
         <v>0</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AE18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AD18" s="4">
+      <c r="AF18" s="4">
         <v>579</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AG18" s="4">
         <v>140</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AH18" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AI18" s="4">
         <v>207</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AJ18" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:34">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:36">
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="4">
+      <c r="F19" s="4">
         <v>37478150</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <v>2539677</v>
       </c>
-      <c r="F19" s="4">
+      <c r="H19" s="4">
         <v>728.2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="I19" s="4">
         <v>90</v>
       </c>
-      <c r="H19" s="4">
+      <c r="J19" s="4">
         <v>110.786945515599</v>
       </c>
-      <c r="I19" s="4">
+      <c r="K19" s="4">
         <v>22.955966586078802</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="4">
+      <c r="M19" s="4">
         <v>6.04</v>
       </c>
-      <c r="L19" s="4">
+      <c r="N19" s="4">
         <v>2.1360000000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>157.1</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>7545.83</v>
       </c>
-      <c r="O19" s="4">
+      <c r="Q19" s="4">
         <v>7140.94</v>
       </c>
-      <c r="P19" s="4">
+      <c r="R19" s="4">
         <v>0.34</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="S19" s="4">
         <v>5.35</v>
       </c>
-      <c r="R19" s="4">
+      <c r="T19" s="4">
         <v>0.09</v>
       </c>
-      <c r="S19" s="4">
+      <c r="U19" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="T19" s="4">
+      <c r="V19" s="4">
         <v>5.21</v>
       </c>
-      <c r="U19" s="4">
+      <c r="W19" s="4">
         <v>-5.4</v>
       </c>
-      <c r="V19" s="4">
+      <c r="X19" s="4">
         <v>1.1060000000000001</v>
       </c>
-      <c r="W19" s="4">
+      <c r="Y19" s="4">
         <v>0.11</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Z19" s="4">
         <v>0.18</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="AA19" s="4">
         <v>67</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AB19" s="4">
         <v>2.8</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AC19" s="4">
         <v>4.5</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AD19" s="4">
         <v>180</v>
       </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AE19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AF19" s="4">
         <v>770</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AG19" s="4">
         <v>140</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AH19" s="4">
         <v>5.5</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AI19" s="4">
         <v>6</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AJ19" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:34">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:36">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="4">
+      <c r="F20" s="4">
         <v>37478682</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <v>2542030</v>
       </c>
-      <c r="F20" s="4">
+      <c r="H20" s="4">
         <v>698.1</v>
       </c>
-      <c r="G20" s="4">
+      <c r="I20" s="4">
         <v>90</v>
       </c>
-      <c r="H20" s="4">
+      <c r="J20" s="4">
         <v>110.792100418212</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <v>22.977220616357801</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="4">
+      <c r="M20" s="4">
         <v>6.28</v>
       </c>
-      <c r="L20" s="4">
+      <c r="N20" s="4">
         <v>2.0670000000000002</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>186.8</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>7826.7</v>
       </c>
-      <c r="O20" s="4">
+      <c r="Q20" s="4">
         <v>7447.65</v>
       </c>
-      <c r="P20" s="4">
+      <c r="R20" s="4">
         <v>0.36</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="S20" s="4">
         <v>5.57</v>
       </c>
-      <c r="R20" s="4">
+      <c r="T20" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="S20" s="4">
+      <c r="U20" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="T20" s="4">
+      <c r="V20" s="4">
         <v>5.45</v>
       </c>
-      <c r="U20" s="4">
+      <c r="W20" s="4">
         <v>-4.8</v>
       </c>
-      <c r="V20" s="4">
+      <c r="X20" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="W20" s="4">
+      <c r="Y20" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Z20" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="AA20" s="4">
         <v>202</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AB20" s="4">
         <v>1.8</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AC20" s="4">
         <v>6.2</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AD20" s="4">
         <v>337</v>
       </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AE20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AF20" s="4">
         <v>1038</v>
       </c>
-      <c r="AE20" s="4">
+      <c r="AG20" s="4">
         <v>140</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AH20" s="4">
         <v>7.4</v>
       </c>
-      <c r="AG20" s="4">
+      <c r="AI20" s="4">
         <v>218</v>
       </c>
-      <c r="AH20" s="4">
+      <c r="AJ20" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:34">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:36">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="4">
+      <c r="F21" s="4">
         <v>37473394</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G21" s="4">
         <v>2532384</v>
       </c>
-      <c r="F21" s="4">
+      <c r="H21" s="4">
         <v>848.3</v>
       </c>
-      <c r="G21" s="4">
+      <c r="I21" s="4">
         <v>90</v>
       </c>
-      <c r="H21" s="4">
+      <c r="J21" s="4">
         <v>110.740696504231</v>
       </c>
-      <c r="I21" s="4">
+      <c r="K21" s="4">
         <v>22.890042983404001</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="4">
+      <c r="M21" s="4">
         <v>7.97</v>
       </c>
-      <c r="L21" s="4">
+      <c r="N21" s="4">
         <v>2.298</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>328.4</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>11806.58</v>
       </c>
-      <c r="O21" s="4">
+      <c r="Q21" s="4">
         <v>11780.21</v>
       </c>
-      <c r="P21" s="4">
+      <c r="R21" s="4">
         <v>0.54</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="S21" s="4">
         <v>7.07</v>
       </c>
-      <c r="R21" s="4">
+      <c r="T21" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="S21" s="4">
+      <c r="U21" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="T21" s="4">
+      <c r="V21" s="4">
         <v>7.06</v>
       </c>
-      <c r="U21" s="4">
+      <c r="W21" s="4">
         <v>-0.2</v>
       </c>
-      <c r="V21" s="4">
+      <c r="X21" s="4">
         <v>1.0920000000000001</v>
       </c>
-      <c r="W21" s="4">
+      <c r="Y21" s="4">
         <v>0.02</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Z21" s="4">
         <v>0.06</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="AA21" s="4">
         <v>225</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AB21" s="4">
         <v>2.4</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AC21" s="4">
         <v>3.1</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AD21" s="4">
         <v>90</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AE21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AF21" s="4">
         <v>847</v>
       </c>
-      <c r="AE21" s="4">
+      <c r="AG21" s="4">
         <v>140</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AH21" s="4">
         <v>6</v>
       </c>
-      <c r="AG21" s="4">
+      <c r="AI21" s="4">
         <v>260</v>
       </c>
-      <c r="AH21" s="4">
+      <c r="AJ21" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:34">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:36">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="4">
+      <c r="F22" s="4">
         <v>37472560</v>
       </c>
-      <c r="E22" s="4">
+      <c r="G22" s="4">
         <v>2532238</v>
       </c>
-      <c r="F22" s="4">
+      <c r="H22" s="4">
         <v>817.8</v>
       </c>
-      <c r="G22" s="4">
+      <c r="I22" s="4">
         <v>90</v>
       </c>
-      <c r="H22" s="4">
+      <c r="J22" s="4">
         <v>110.73257094617099</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <v>22.8887111589478</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="4">
+      <c r="M22" s="4">
         <v>6.89</v>
       </c>
-      <c r="L22" s="4">
+      <c r="N22" s="4">
         <v>2.3359999999999999</v>
       </c>
-      <c r="M22" s="4">
+      <c r="O22" s="4">
         <v>213.3</v>
       </c>
-      <c r="N22" s="4">
+      <c r="P22" s="4">
         <v>9539.8700000000008</v>
       </c>
-      <c r="O22" s="4">
+      <c r="Q22" s="4">
         <v>9250.83</v>
       </c>
-      <c r="P22" s="4">
+      <c r="R22" s="4">
         <v>0.44</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="S22" s="4">
         <v>6.11</v>
       </c>
-      <c r="R22" s="4">
+      <c r="T22" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="S22" s="4">
+      <c r="U22" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="T22" s="4">
+      <c r="V22" s="4">
         <v>6.02</v>
       </c>
-      <c r="U22" s="4">
+      <c r="W22" s="4">
         <v>-3</v>
       </c>
-      <c r="V22" s="4">
+      <c r="X22" s="4">
         <v>1.095</v>
       </c>
-      <c r="W22" s="4">
+      <c r="Y22" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Z22" s="4">
         <v>0.17</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="AA22" s="4">
         <v>270</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AB22" s="4">
         <v>3.6</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AC22" s="4">
         <v>5.2</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AD22" s="4">
         <v>135</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AE22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AF22" s="4">
         <v>475</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AG22" s="4">
         <v>140</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AH22" s="4">
         <v>3.4</v>
       </c>
-      <c r="AG22" s="4">
+      <c r="AI22" s="4">
         <v>267</v>
       </c>
-      <c r="AH22" s="4">
+      <c r="AJ22" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:34">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:36">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="4">
+      <c r="F23" s="4">
         <v>37472086</v>
       </c>
-      <c r="E23" s="4">
+      <c r="G23" s="4">
         <v>2532216</v>
       </c>
-      <c r="F23" s="4">
+      <c r="H23" s="4">
         <v>826.8</v>
       </c>
-      <c r="G23" s="4">
+      <c r="I23" s="4">
         <v>90</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" s="4">
         <v>110.727951798418</v>
       </c>
-      <c r="I23" s="4">
+      <c r="K23" s="4">
         <v>22.8885046647259</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="4">
+      <c r="M23" s="4">
         <v>6.91</v>
       </c>
-      <c r="L23" s="4">
+      <c r="N23" s="4">
         <v>2.3460000000000001</v>
       </c>
-      <c r="M23" s="4">
+      <c r="O23" s="4">
         <v>214.8</v>
       </c>
-      <c r="N23" s="4">
+      <c r="P23" s="4">
         <v>9560.6200000000008</v>
       </c>
-      <c r="O23" s="4">
+      <c r="Q23" s="4">
         <v>9031</v>
       </c>
-      <c r="P23" s="4">
+      <c r="R23" s="4">
         <v>0.44</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="S23" s="4">
         <v>6.13</v>
       </c>
-      <c r="R23" s="4">
+      <c r="T23" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="S23" s="4">
+      <c r="U23" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="T23" s="4">
+      <c r="V23" s="4">
         <v>5.95</v>
       </c>
-      <c r="U23" s="4">
+      <c r="W23" s="4">
         <v>-5.5</v>
       </c>
-      <c r="V23" s="4">
+      <c r="X23" s="4">
         <v>1.0940000000000001</v>
       </c>
-      <c r="W23" s="4">
+      <c r="Y23" s="4">
         <v>0.16</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Z23" s="4">
         <v>0.27</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="AA23" s="4">
         <v>270</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AB23" s="4">
         <v>3.4</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AC23" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AD23" s="4">
         <v>157</v>
       </c>
-      <c r="AC23" s="4" t="s">
+      <c r="AE23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AF23" s="4">
         <v>448</v>
       </c>
-      <c r="AE23" s="4">
+      <c r="AG23" s="4">
         <v>140</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AH23" s="4">
         <v>3.2</v>
       </c>
-      <c r="AG23" s="4">
+      <c r="AI23" s="4">
         <v>280</v>
       </c>
-      <c r="AH23" s="4">
+      <c r="AJ23" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:34">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:36">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="4">
+      <c r="F24" s="4">
         <v>37471645</v>
       </c>
-      <c r="E24" s="4">
+      <c r="G24" s="4">
         <v>2532294</v>
       </c>
-      <c r="F24" s="4">
+      <c r="H24" s="4">
         <v>853</v>
       </c>
-      <c r="G24" s="4">
+      <c r="I24" s="4">
         <v>90</v>
       </c>
-      <c r="H24" s="4">
+      <c r="J24" s="4">
         <v>110.723652450534</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <v>22.889201581235401</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="4">
+      <c r="M24" s="4">
         <v>7.2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="N24" s="4">
         <v>2.3540000000000001</v>
       </c>
-      <c r="M24" s="4">
+      <c r="O24" s="4">
         <v>241.2</v>
       </c>
-      <c r="N24" s="4">
+      <c r="P24" s="4">
         <v>10241.41</v>
       </c>
-      <c r="O24" s="4">
+      <c r="Q24" s="4">
         <v>9969.85</v>
       </c>
-      <c r="P24" s="4">
+      <c r="R24" s="4">
         <v>0.47</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="S24" s="4">
         <v>6.39</v>
       </c>
-      <c r="R24" s="4">
+      <c r="T24" s="4">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="S24" s="4">
+      <c r="U24" s="4">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="T24" s="4">
+      <c r="V24" s="4">
         <v>6.3</v>
       </c>
-      <c r="U24" s="4">
+      <c r="W24" s="4">
         <v>-2.7</v>
       </c>
-      <c r="V24" s="4">
+      <c r="X24" s="4">
         <v>1.091</v>
       </c>
-      <c r="W24" s="4">
+      <c r="Y24" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Z24" s="4">
         <v>0.15</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="AA24" s="4">
         <v>135</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB24" s="4">
         <v>2.5</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AC24" s="4">
         <v>5.6</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AD24" s="4">
         <v>202</v>
       </c>
-      <c r="AC24" s="4" t="s">
+      <c r="AE24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AF24" s="4">
         <v>448</v>
       </c>
-      <c r="AE24" s="4">
+      <c r="AG24" s="4">
         <v>140</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AH24" s="4">
         <v>3.2</v>
       </c>
-      <c r="AG24" s="4">
+      <c r="AI24" s="4">
         <v>100</v>
       </c>
-      <c r="AH24" s="4">
+      <c r="AJ24" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:34">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:36">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="4">
+      <c r="F25" s="4">
         <v>37471453</v>
       </c>
-      <c r="E25" s="4">
+      <c r="G25" s="4">
         <v>2532375</v>
       </c>
-      <c r="F25" s="4">
+      <c r="H25" s="4">
         <v>828.5</v>
       </c>
-      <c r="G25" s="4">
+      <c r="I25" s="4">
         <v>90</v>
       </c>
-      <c r="H25" s="4">
+      <c r="J25" s="4">
         <v>110.721779746382</v>
       </c>
-      <c r="I25" s="4">
+      <c r="K25" s="4">
         <v>22.889929735810298</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="4">
+      <c r="M25" s="4">
         <v>6.93</v>
       </c>
-      <c r="L25" s="4">
+      <c r="N25" s="4">
         <v>2.367</v>
       </c>
-      <c r="M25" s="4">
+      <c r="O25" s="4">
         <v>215.4</v>
       </c>
-      <c r="N25" s="4">
+      <c r="P25" s="4">
         <v>9614.36</v>
       </c>
-      <c r="O25" s="4">
+      <c r="Q25" s="4">
         <v>9249.32</v>
       </c>
-      <c r="P25" s="4">
+      <c r="R25" s="4">
         <v>0.44</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="S25" s="4">
         <v>6.15</v>
       </c>
-      <c r="R25" s="4">
+      <c r="T25" s="4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="S25" s="4">
+      <c r="U25" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="T25" s="4">
+      <c r="V25" s="4">
         <v>6</v>
       </c>
-      <c r="U25" s="4">
+      <c r="W25" s="4">
         <v>-3.8</v>
       </c>
-      <c r="V25" s="4">
+      <c r="X25" s="4">
         <v>1.0940000000000001</v>
       </c>
-      <c r="W25" s="4">
+      <c r="Y25" s="4">
         <v>0.1</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Z25" s="4">
         <v>0.18</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="AA25" s="4">
         <v>90</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="AB25" s="4">
         <v>2.7</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AC25" s="4">
         <v>5.6</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AD25" s="4">
         <v>270</v>
-      </c>
-      <c r="AC25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD25" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="AE25" s="4" t="s">
         <v>57</v>
@@ -3285,97 +3384,103 @@
       <c r="AG25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AH25" s="4">
+      <c r="AH25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ25" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="15" thickBot="1">
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="2:36" ht="15" thickBot="1">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="6">
+      <c r="F26" s="6">
         <v>37476782</v>
       </c>
-      <c r="E26" s="6">
+      <c r="G26" s="6">
         <v>2540171</v>
       </c>
-      <c r="F26" s="6">
+      <c r="H26" s="6">
         <v>847.1</v>
       </c>
-      <c r="G26" s="6">
+      <c r="I26" s="6">
         <v>90</v>
       </c>
-      <c r="H26" s="6">
+      <c r="J26" s="6">
         <v>110.773599105945</v>
       </c>
-      <c r="I26" s="6">
+      <c r="K26" s="6">
         <v>22.960408836323801</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="6">
+      <c r="M26" s="6">
         <v>6.64</v>
       </c>
-      <c r="L26" s="6">
+      <c r="N26" s="6">
         <v>2.2509999999999999</v>
       </c>
-      <c r="M26" s="6">
+      <c r="O26" s="6">
         <v>198</v>
       </c>
-      <c r="N26" s="6">
+      <c r="P26" s="6">
         <v>8878.98</v>
       </c>
-      <c r="O26" s="6">
+      <c r="Q26" s="6">
         <v>6950.48</v>
       </c>
-      <c r="P26" s="6">
+      <c r="R26" s="6">
         <v>0.41</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="S26" s="6">
         <v>5.89</v>
       </c>
-      <c r="R26" s="6">
+      <c r="T26" s="6">
         <v>0.1</v>
       </c>
-      <c r="S26" s="6">
+      <c r="U26" s="6">
         <v>0.13400000000000001</v>
       </c>
-      <c r="T26" s="6">
+      <c r="V26" s="6">
         <v>5.05</v>
       </c>
-      <c r="U26" s="6">
+      <c r="W26" s="6">
         <v>-21.7</v>
       </c>
-      <c r="V26" s="6">
+      <c r="X26" s="6">
         <v>1.0920000000000001</v>
       </c>
-      <c r="W26" s="6">
+      <c r="Y26" s="6">
         <v>0.11</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Z26" s="6">
         <v>0.21</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="AA26" s="6">
         <v>315</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AB26" s="6">
         <v>3.7</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AC26" s="6">
         <v>5</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AD26" s="6">
         <v>135</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="AE26" s="6" t="s">
         <v>57</v>
@@ -3386,7 +3491,13 @@
       <c r="AG26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AH26" s="6">
+      <c r="AH26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ26" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3395,4 +3506,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BC4FB-3E03-435D-B022-A6809F744711}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="代码" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="127">
   <si>
     <t>X</t>
   </si>
@@ -267,14 +273,317 @@
   </si>
   <si>
     <t>project_id_input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id_input_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbine_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tur_id_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latitude_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longitude_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrustCoefficient_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeibullA_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeibullK_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyDensity_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerGeneration_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerGeneration_Weak_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapacityCoe_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AverageWindSpeed_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurbulenceEnv_StrongWind_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbulence_StrongWind_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AverageWindSpeed_Weak_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirDensity_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindShear_Avg_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindShear_Max_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindShear_Max_Deg_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InflowAngle_Avg_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InflowAngle_Max_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InflowAngle_Max_Deg_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextTur_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextLength_M_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diameter_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextLength_D_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextDeg_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sectors_dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风机</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>机型</t>
+  </si>
+  <si>
+    <r>
+      <t>发电量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(MWh/y)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>上网电量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(MWh/y)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年发电小时数（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>考虑尾流效应的平均风速（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>能量密度(W/m2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均风速（m/s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>包含尾流效应的发电量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(MWh/y)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"风机"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"X"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Y"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Z"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"能量密度"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"发电量"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"包含尾流效应的发电量"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"上网电量"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"年发电小时数"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"平均风速"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"考虑尾流效应的平均风速"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +604,35 @@
       <color rgb="FF008080"/>
       <name val="Fira Code Retina"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Fira Code"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -385,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -408,12 +746,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,7 +887,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -687,11 +1141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3501,6 +3955,9 @@
         <v>16</v>
       </c>
     </row>
+    <row r="32" spans="2:36" ht="18.75">
+      <c r="AI32" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3509,15 +3966,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="55.5" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE(B1,".append(re.",A1,")")</f>
+        <v>project_id_input_dict.append(re.project_id_input)</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="Q1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(B2,".append(re.",A2,")")</f>
+        <v>case_name_dict.append(re.case_name)</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="16"/>
+    </row>
+    <row r="3" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE(B3,".append(re.",A3,")")</f>
+        <v>Turbine_dict.append(re.Turbine)</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="17"/>
+    </row>
+    <row r="4" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(B4,".append(re.",A4,")")</f>
+        <v>tur_id_dict.append(re.tur_id)</v>
+      </c>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE(B5,".append(re.",A5,")")</f>
+        <v>X_dict.append(re.X)</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE(B6,".append(re.",A6,")")</f>
+        <v>Y_dict.append(re.Y)</v>
+      </c>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE(B7,".append(re.",A7,")")</f>
+        <v>Z_dict.append(re.Z)</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="R7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" t="str">
+        <f>CONCATENATE(R7,":re.",S7,",")</f>
+        <v>"风机":re.tur_id_dict,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE(B8,".append(re.",A8,")")</f>
+        <v>H_dict.append(re.H)</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="R8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" ref="X8:X13" si="0">CONCATENATE(R8,":re.",S8,",")</f>
+        <v>"X":re.X_dict,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE(B9,".append(re.",A9,")")</f>
+        <v>Latitude_dict.append(re.Latitude)</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="R9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Y":re.Y_dict,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE(B10,".append(re.",A10,")")</f>
+        <v>Longitude_dict.append(re.Longitude)</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="R10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Z":re.Z_dict,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="27.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE(B11,".append(re.",A11,")")</f>
+        <v>TrustCoefficient_dict.append(re.TrustCoefficient)</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="R11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="0"/>
+        <v>"能量密度":re.EnergyDensity_dict,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="27.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE(B12,".append(re.",A12,")")</f>
+        <v>WeibullA_dict.append(re.WeibullA)</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="R12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="0"/>
+        <v>"发电量":re.PowerGeneration_dict,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="41.25" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE(B13,".append(re.",A13,")")</f>
+        <v>WeibullK_dict.append(re.WeibullK)</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="0"/>
+        <v>"包含尾流效应的发电量":re.PowerGeneration_Weak_dict,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="27.75" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE(B14,".append(re.",A14,")")</f>
+        <v>EnergyDensity_dict.append(re.EnergyDensity)</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="27.75" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE(B15,".append(re.",A15,")")</f>
+        <v>PowerGeneration_dict.append(re.PowerGeneration)</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="27.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="str">
+        <f>CONCATENATE(B16,".append(re.",A16,")")</f>
+        <v>PowerGeneration_Weak_dict.append(re.PowerGeneration_Weak)</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="54.75" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="str">
+        <f>CONCATENATE(B17,".append(re.",A17,")")</f>
+        <v>CapacityCoe_dict.append(re.CapacityCoe)</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="21">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="str">
+        <f>CONCATENATE(B18,".append(re.",A18,")")</f>
+        <v>AverageWindSpeed_dict.append(re.AverageWindSpeed)</v>
+      </c>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" ht="21">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="str">
+        <f>CONCATENATE(B19,".append(re.",A19,")")</f>
+        <v>TurbulenceEnv_StrongWind_dict.append(re.TurbulenceEnv_StrongWind)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="21">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="str">
+        <f>CONCATENATE(B20,".append(re.",A20,")")</f>
+        <v>Turbulence_StrongWind_dict.append(re.Turbulence_StrongWind)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="21">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="str">
+        <f>CONCATENATE(B21,".append(re.",A21,")")</f>
+        <v>AverageWindSpeed_Weak_dict.append(re.AverageWindSpeed_Weak)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="21">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="str">
+        <f>CONCATENATE(B22,".append(re.",A22,")")</f>
+        <v>Weak_dict.append(re.Weak)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="21">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="str">
+        <f>CONCATENATE(B23,".append(re.",A23,")")</f>
+        <v>AirDensity_dict.append(re.AirDensity)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="21">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="str">
+        <f>CONCATENATE(B24,".append(re.",A24,")")</f>
+        <v>WindShear_Avg_dict.append(re.WindShear_Avg)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="21">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="str">
+        <f>CONCATENATE(B25,".append(re.",A25,")")</f>
+        <v>WindShear_Max_dict.append(re.WindShear_Max)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="21">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE(B26,".append(re.",A26,")")</f>
+        <v>WindShear_Max_Deg_dict.append(re.WindShear_Max_Deg)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="21">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="str">
+        <f>CONCATENATE(B27,".append(re.",A27,")")</f>
+        <v>InflowAngle_Avg_dict.append(re.InflowAngle_Avg)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="21">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="str">
+        <f>CONCATENATE(B28,".append(re.",A28,")")</f>
+        <v>InflowAngle_Max_dict.append(re.InflowAngle_Max)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="21">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="str">
+        <f>CONCATENATE(B29,".append(re.",A29,")")</f>
+        <v>InflowAngle_Max_Deg_dict.append(re.InflowAngle_Max_Deg)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="21">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="str">
+        <f>CONCATENATE(B30,".append(re.",A30,")")</f>
+        <v>NextTur_dict.append(re.NextTur)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="21">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="str">
+        <f>CONCATENATE(B31,".append(re.",A31,")")</f>
+        <v>NextLength_M_dict.append(re.NextLength_M)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="21">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="str">
+        <f>CONCATENATE(B32,".append(re.",A32,")")</f>
+        <v>Diameter_dict.append(re.Diameter)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="str">
+        <f>CONCATENATE(B33,".append(re.",A33,")")</f>
+        <v>NextLength_D_dict.append(re.NextLength_D)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="str">
+        <f>CONCATENATE(B34,".append(re.",A34,")")</f>
+        <v>NextDeg_dict.append(re.NextDeg)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="str">
+        <f>CONCATENATE(B35,".append(re.",A35,")")</f>
+        <v>Sectors_dict.append(re.Sectors)</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3BC4FB-3E03-435D-B022-A6809F744711}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF72915-020B-40B1-9B9F-1BFAF847743E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
   <si>
     <t>X</t>
   </si>
@@ -576,6 +576,10 @@
   </si>
   <si>
     <t>"考虑尾流效应的平均风速"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turbine_capacity_each</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -793,6 +797,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ32"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI32" sqref="AI32"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1170,7 +1177,7 @@
     <col min="33" max="33" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="21.75" thickBot="1">
+    <row r="1" spans="1:37" ht="21.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1279,8 +1286,11 @@
       <c r="AJ1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="B2" t="s">
         <v>67</v>
       </c>
@@ -1386,8 +1396,11 @@
       <c r="AJ2" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -1493,8 +1506,11 @@
       <c r="AJ3" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3" s="24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="B4" t="s">
         <v>67</v>
       </c>
@@ -1600,8 +1616,11 @@
       <c r="AJ4" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -1707,8 +1726,11 @@
       <c r="AJ5" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -1814,8 +1836,11 @@
       <c r="AJ6" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="B7" t="s">
         <v>68</v>
       </c>
@@ -1921,8 +1946,11 @@
       <c r="AJ7" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -2028,8 +2056,11 @@
       <c r="AJ8" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -2135,8 +2166,11 @@
       <c r="AJ9" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -2242,8 +2276,11 @@
       <c r="AJ10" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="B11" t="s">
         <v>68</v>
       </c>
@@ -2349,8 +2386,11 @@
       <c r="AJ11" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AK11" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="B12" t="s">
         <v>67</v>
       </c>
@@ -2456,8 +2496,11 @@
       <c r="AJ12" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="AK12" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -2563,8 +2606,11 @@
       <c r="AJ13" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
       <c r="B14" t="s">
         <v>67</v>
       </c>
@@ -2670,8 +2716,11 @@
       <c r="AJ14" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AK14" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
       <c r="B15" t="s">
         <v>68</v>
       </c>
@@ -2777,8 +2826,11 @@
       <c r="AJ15" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AK15" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="B16" t="s">
         <v>67</v>
       </c>
@@ -2884,8 +2936,11 @@
       <c r="AJ16" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:36">
+      <c r="AK16" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37">
       <c r="B17" t="s">
         <v>68</v>
       </c>
@@ -2991,8 +3046,11 @@
       <c r="AJ17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:36">
+      <c r="AK17" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -3098,8 +3156,11 @@
       <c r="AJ18" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:36">
+      <c r="AK18" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37">
       <c r="B19" t="s">
         <v>68</v>
       </c>
@@ -3205,8 +3266,11 @@
       <c r="AJ19" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:36">
+      <c r="AK19" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37">
       <c r="B20" t="s">
         <v>67</v>
       </c>
@@ -3312,8 +3376,11 @@
       <c r="AJ20" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:36">
+      <c r="AK20" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37">
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -3419,8 +3486,11 @@
       <c r="AJ21" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:36">
+      <c r="AK21" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37">
       <c r="B22" t="s">
         <v>67</v>
       </c>
@@ -3526,8 +3596,11 @@
       <c r="AJ22" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:36">
+      <c r="AK22" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37">
       <c r="B23" t="s">
         <v>68</v>
       </c>
@@ -3633,8 +3706,11 @@
       <c r="AJ23" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:36">
+      <c r="AK23" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37">
       <c r="B24" t="s">
         <v>67</v>
       </c>
@@ -3740,8 +3816,11 @@
       <c r="AJ24" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:36">
+      <c r="AK24" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37">
       <c r="B25" t="s">
         <v>68</v>
       </c>
@@ -3847,8 +3926,11 @@
       <c r="AJ25" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:36" ht="15" thickBot="1">
+      <c r="AK25" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" ht="15" thickBot="1">
       <c r="B26" t="s">
         <v>67</v>
       </c>
@@ -3954,8 +4036,11 @@
       <c r="AJ26" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="2:36" ht="18.75">
+      <c r="AK26" s="24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" ht="18.75">
       <c r="AI32" s="8"/>
     </row>
   </sheetData>
@@ -3969,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:R17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3986,7 +4071,7 @@
         <v>70</v>
       </c>
       <c r="E1" t="str">
-        <f>CONCATENATE(B1,".append(re.",A1,")")</f>
+        <f t="shared" ref="E1:E35" si="0">CONCATENATE(B1,".append(re.",A1,")")</f>
         <v>project_id_input_dict.append(re.project_id_input)</v>
       </c>
       <c r="N1" s="12"/>
@@ -4035,7 +4120,7 @@
         <v>71</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE(B2,".append(re.",A2,")")</f>
+        <f t="shared" si="0"/>
         <v>case_name_dict.append(re.case_name)</v>
       </c>
       <c r="N2" s="13"/>
@@ -4060,7 +4145,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE(B3,".append(re.",A3,")")</f>
+        <f t="shared" si="0"/>
         <v>Turbine_dict.append(re.Turbine)</v>
       </c>
       <c r="N3" s="13"/>
@@ -4085,7 +4170,7 @@
         <v>73</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE(B4,".append(re.",A4,")")</f>
+        <f t="shared" si="0"/>
         <v>tur_id_dict.append(re.tur_id)</v>
       </c>
       <c r="N4" s="13"/>
@@ -4098,7 +4183,7 @@
         <v>74</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE(B5,".append(re.",A5,")")</f>
+        <f t="shared" si="0"/>
         <v>X_dict.append(re.X)</v>
       </c>
       <c r="N5" s="14"/>
@@ -4111,7 +4196,7 @@
         <v>75</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE(B6,".append(re.",A6,")")</f>
+        <f t="shared" si="0"/>
         <v>Y_dict.append(re.Y)</v>
       </c>
       <c r="N6" s="9"/>
@@ -4124,7 +4209,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE(B7,".append(re.",A7,")")</f>
+        <f t="shared" si="0"/>
         <v>Z_dict.append(re.Z)</v>
       </c>
       <c r="N7" s="14"/>
@@ -4135,8 +4220,8 @@
         <v>73</v>
       </c>
       <c r="X7" t="str">
-        <f>CONCATENATE(R7,":re.",S7,",")</f>
-        <v>"风机":re.tur_id_dict,</v>
+        <f>CONCATENATE(R7,":",S7,",")</f>
+        <v>"风机":tur_id_dict,</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="21.75" thickBot="1">
@@ -4147,7 +4232,7 @@
         <v>77</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE(B8,".append(re.",A8,")")</f>
+        <f t="shared" si="0"/>
         <v>H_dict.append(re.H)</v>
       </c>
       <c r="N8" s="14"/>
@@ -4158,8 +4243,8 @@
         <v>74</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" ref="X8:X13" si="0">CONCATENATE(R8,":re.",S8,",")</f>
-        <v>"X":re.X_dict,</v>
+        <f t="shared" ref="X8:X13" si="1">CONCATENATE(R8,":",S8,",")</f>
+        <v>"X":X_dict,</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="21.75" thickBot="1">
@@ -4170,7 +4255,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE(B9,".append(re.",A9,")")</f>
+        <f t="shared" si="0"/>
         <v>Latitude_dict.append(re.Latitude)</v>
       </c>
       <c r="N9" s="14"/>
@@ -4181,8 +4266,8 @@
         <v>75</v>
       </c>
       <c r="X9" t="str">
-        <f t="shared" si="0"/>
-        <v>"Y":re.Y_dict,</v>
+        <f t="shared" si="1"/>
+        <v>"Y":Y_dict,</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="21.75" thickBot="1">
@@ -4193,7 +4278,7 @@
         <v>79</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE(B10,".append(re.",A10,")")</f>
+        <f t="shared" si="0"/>
         <v>Longitude_dict.append(re.Longitude)</v>
       </c>
       <c r="N10" s="14"/>
@@ -4204,8 +4289,8 @@
         <v>76</v>
       </c>
       <c r="X10" t="str">
-        <f t="shared" si="0"/>
-        <v>"Z":re.Z_dict,</v>
+        <f t="shared" si="1"/>
+        <v>"Z":Z_dict,</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="27.75" thickBot="1">
@@ -4216,7 +4301,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE(B11,".append(re.",A11,")")</f>
+        <f t="shared" si="0"/>
         <v>TrustCoefficient_dict.append(re.TrustCoefficient)</v>
       </c>
       <c r="N11" s="9"/>
@@ -4227,8 +4312,8 @@
         <v>83</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="0"/>
-        <v>"能量密度":re.EnergyDensity_dict,</v>
+        <f t="shared" si="1"/>
+        <v>"能量密度":EnergyDensity_dict,</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="27.75" thickBot="1">
@@ -4239,7 +4324,7 @@
         <v>81</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE(B12,".append(re.",A12,")")</f>
+        <f t="shared" si="0"/>
         <v>WeibullA_dict.append(re.WeibullA)</v>
       </c>
       <c r="N12" s="14"/>
@@ -4250,8 +4335,8 @@
         <v>84</v>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="0"/>
-        <v>"发电量":re.PowerGeneration_dict,</v>
+        <f t="shared" si="1"/>
+        <v>"发电量":PowerGeneration_dict,</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="41.25" thickBot="1">
@@ -4262,7 +4347,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE(B13,".append(re.",A13,")")</f>
+        <f t="shared" si="0"/>
         <v>WeibullK_dict.append(re.WeibullK)</v>
       </c>
       <c r="R13" s="14" t="s">
@@ -4272,8 +4357,8 @@
         <v>85</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="0"/>
-        <v>"包含尾流效应的发电量":re.PowerGeneration_Weak_dict,</v>
+        <f t="shared" si="1"/>
+        <v>"包含尾流效应的发电量":PowerGeneration_Weak_dict,</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="27.75" thickBot="1">
@@ -4284,7 +4369,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE(B14,".append(re.",A14,")")</f>
+        <f t="shared" si="0"/>
         <v>EnergyDensity_dict.append(re.EnergyDensity)</v>
       </c>
       <c r="R14" s="14" t="s">
@@ -4299,7 +4384,7 @@
         <v>84</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE(B15,".append(re.",A15,")")</f>
+        <f t="shared" si="0"/>
         <v>PowerGeneration_dict.append(re.PowerGeneration)</v>
       </c>
       <c r="R15" s="14" t="s">
@@ -4314,7 +4399,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE(B16,".append(re.",A16,")")</f>
+        <f t="shared" si="0"/>
         <v>PowerGeneration_Weak_dict.append(re.PowerGeneration_Weak)</v>
       </c>
       <c r="R16" s="9" t="s">
@@ -4329,7 +4414,7 @@
         <v>86</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE(B17,".append(re.",A17,")")</f>
+        <f t="shared" si="0"/>
         <v>CapacityCoe_dict.append(re.CapacityCoe)</v>
       </c>
       <c r="R17" s="14" t="s">
@@ -4344,7 +4429,7 @@
         <v>87</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE(B18,".append(re.",A18,")")</f>
+        <f t="shared" si="0"/>
         <v>AverageWindSpeed_dict.append(re.AverageWindSpeed)</v>
       </c>
       <c r="R18" s="14"/>
@@ -4357,7 +4442,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE(B19,".append(re.",A19,")")</f>
+        <f t="shared" si="0"/>
         <v>TurbulenceEnv_StrongWind_dict.append(re.TurbulenceEnv_StrongWind)</v>
       </c>
     </row>
@@ -4369,7 +4454,7 @@
         <v>89</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE(B20,".append(re.",A20,")")</f>
+        <f t="shared" si="0"/>
         <v>Turbulence_StrongWind_dict.append(re.Turbulence_StrongWind)</v>
       </c>
     </row>
@@ -4381,7 +4466,7 @@
         <v>90</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE(B21,".append(re.",A21,")")</f>
+        <f t="shared" si="0"/>
         <v>AverageWindSpeed_Weak_dict.append(re.AverageWindSpeed_Weak)</v>
       </c>
     </row>
@@ -4393,7 +4478,7 @@
         <v>91</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE(B22,".append(re.",A22,")")</f>
+        <f t="shared" si="0"/>
         <v>Weak_dict.append(re.Weak)</v>
       </c>
     </row>
@@ -4405,7 +4490,7 @@
         <v>92</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE(B23,".append(re.",A23,")")</f>
+        <f t="shared" si="0"/>
         <v>AirDensity_dict.append(re.AirDensity)</v>
       </c>
     </row>
@@ -4417,7 +4502,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE(B24,".append(re.",A24,")")</f>
+        <f t="shared" si="0"/>
         <v>WindShear_Avg_dict.append(re.WindShear_Avg)</v>
       </c>
     </row>
@@ -4429,7 +4514,7 @@
         <v>94</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE(B25,".append(re.",A25,")")</f>
+        <f t="shared" si="0"/>
         <v>WindShear_Max_dict.append(re.WindShear_Max)</v>
       </c>
     </row>
@@ -4441,7 +4526,7 @@
         <v>95</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE(B26,".append(re.",A26,")")</f>
+        <f t="shared" si="0"/>
         <v>WindShear_Max_Deg_dict.append(re.WindShear_Max_Deg)</v>
       </c>
     </row>
@@ -4453,7 +4538,7 @@
         <v>96</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE(B27,".append(re.",A27,")")</f>
+        <f t="shared" si="0"/>
         <v>InflowAngle_Avg_dict.append(re.InflowAngle_Avg)</v>
       </c>
     </row>
@@ -4465,7 +4550,7 @@
         <v>97</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE(B28,".append(re.",A28,")")</f>
+        <f t="shared" si="0"/>
         <v>InflowAngle_Max_dict.append(re.InflowAngle_Max)</v>
       </c>
     </row>
@@ -4477,7 +4562,7 @@
         <v>98</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE(B29,".append(re.",A29,")")</f>
+        <f t="shared" si="0"/>
         <v>InflowAngle_Max_Deg_dict.append(re.InflowAngle_Max_Deg)</v>
       </c>
     </row>
@@ -4489,7 +4574,7 @@
         <v>99</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE(B30,".append(re.",A30,")")</f>
+        <f t="shared" si="0"/>
         <v>NextTur_dict.append(re.NextTur)</v>
       </c>
     </row>
@@ -4501,7 +4586,7 @@
         <v>100</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE(B31,".append(re.",A31,")")</f>
+        <f t="shared" si="0"/>
         <v>NextLength_M_dict.append(re.NextLength_M)</v>
       </c>
     </row>
@@ -4513,7 +4598,7 @@
         <v>101</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE(B32,".append(re.",A32,")")</f>
+        <f t="shared" si="0"/>
         <v>Diameter_dict.append(re.Diameter)</v>
       </c>
     </row>
@@ -4525,7 +4610,7 @@
         <v>102</v>
       </c>
       <c r="E33" t="str">
-        <f>CONCATENATE(B33,".append(re.",A33,")")</f>
+        <f t="shared" si="0"/>
         <v>NextLength_D_dict.append(re.NextLength_D)</v>
       </c>
     </row>
@@ -4537,7 +4622,7 @@
         <v>103</v>
       </c>
       <c r="E34" t="str">
-        <f>CONCATENATE(B34,".append(re.",A34,")")</f>
+        <f t="shared" si="0"/>
         <v>NextDeg_dict.append(re.NextDeg)</v>
       </c>
     </row>
@@ -4549,7 +4634,7 @@
         <v>104</v>
       </c>
       <c r="E35" t="str">
-        <f>CONCATENATE(B35,".append(re.",A35,")")</f>
+        <f t="shared" si="0"/>
         <v>Sectors_dict.append(re.Sectors)</v>
       </c>
     </row>

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF72915-020B-40B1-9B9F-1BFAF847743E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826E494-11AE-4408-974F-EB2B8F83951D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
   <si>
     <t>X</t>
   </si>
@@ -582,12 +582,21 @@
     <t>turbine_capacity_each</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ongrid_power</t>
+  </si>
+  <si>
+    <t>hours_year</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +646,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Fira Code"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -727,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -799,6 +814,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1175,9 +1193,11 @@
     <col min="30" max="30" width="20.5" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="11.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="21.75" thickBot="1">
+    <row r="1" spans="1:40" ht="24" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1289,8 +1309,17 @@
       <c r="AK1" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="B2" t="s">
         <v>67</v>
       </c>
@@ -1399,8 +1428,11 @@
       <c r="AK2" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -1509,8 +1541,11 @@
       <c r="AK3" s="24">
         <v>3000</v>
       </c>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
       <c r="B4" t="s">
         <v>67</v>
       </c>
@@ -1619,8 +1654,11 @@
       <c r="AK4" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -1729,8 +1767,11 @@
       <c r="AK5" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -1839,8 +1880,11 @@
       <c r="AK6" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="B7" t="s">
         <v>68</v>
       </c>
@@ -1949,8 +1993,11 @@
       <c r="AK7" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AL7" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -2059,8 +2106,11 @@
       <c r="AK8" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -2169,8 +2219,11 @@
       <c r="AK9" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -2279,8 +2332,11 @@
       <c r="AK10" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
       <c r="B11" t="s">
         <v>68</v>
       </c>
@@ -2389,8 +2445,11 @@
       <c r="AK11" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
       <c r="B12" t="s">
         <v>67</v>
       </c>
@@ -2499,8 +2558,11 @@
       <c r="AK12" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="13" spans="1:37">
+      <c r="AL12" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -2609,8 +2671,11 @@
       <c r="AK13" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AL13" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
       <c r="B14" t="s">
         <v>67</v>
       </c>
@@ -2719,8 +2784,11 @@
       <c r="AK14" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AL14" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
       <c r="B15" t="s">
         <v>68</v>
       </c>
@@ -2829,8 +2897,11 @@
       <c r="AK15" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AL15" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
       <c r="B16" t="s">
         <v>67</v>
       </c>
@@ -2939,8 +3010,11 @@
       <c r="AK16" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="17" spans="2:37">
+      <c r="AL16" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38">
       <c r="B17" t="s">
         <v>68</v>
       </c>
@@ -3049,8 +3123,11 @@
       <c r="AK17" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="18" spans="2:37">
+      <c r="AL17" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -3159,8 +3236,11 @@
       <c r="AK18" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="19" spans="2:37">
+      <c r="AL18" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38">
       <c r="B19" t="s">
         <v>68</v>
       </c>
@@ -3269,8 +3349,11 @@
       <c r="AK19" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="20" spans="2:37">
+      <c r="AL19" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38">
       <c r="B20" t="s">
         <v>67</v>
       </c>
@@ -3379,8 +3462,11 @@
       <c r="AK20" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="21" spans="2:37">
+      <c r="AL20" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38">
       <c r="B21" t="s">
         <v>68</v>
       </c>
@@ -3489,8 +3575,11 @@
       <c r="AK21" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="22" spans="2:37">
+      <c r="AL21" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38">
       <c r="B22" t="s">
         <v>67</v>
       </c>
@@ -3599,8 +3688,11 @@
       <c r="AK22" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="23" spans="2:37">
+      <c r="AL22" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38">
       <c r="B23" t="s">
         <v>68</v>
       </c>
@@ -3709,8 +3801,11 @@
       <c r="AK23" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="24" spans="2:37">
+      <c r="AL23" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38">
       <c r="B24" t="s">
         <v>67</v>
       </c>
@@ -3819,8 +3914,11 @@
       <c r="AK24" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="25" spans="2:37">
+      <c r="AL24" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38">
       <c r="B25" t="s">
         <v>68</v>
       </c>
@@ -3929,8 +4027,11 @@
       <c r="AK25" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="26" spans="2:37" ht="15" thickBot="1">
+      <c r="AL25" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" ht="15" thickBot="1">
       <c r="B26" t="s">
         <v>67</v>
       </c>
@@ -4039,8 +4140,11 @@
       <c r="AK26" s="24">
         <v>2500</v>
       </c>
-    </row>
-    <row r="32" spans="2:37" ht="18.75">
+      <c r="AL26" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" ht="18.75">
       <c r="AI32" s="8"/>
     </row>
   </sheetData>

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826E494-11AE-4408-974F-EB2B8F83951D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ECFFBA-3B4B-4FD5-94B2-9F1F8AA6061A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="5730" windowWidth="28170" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z25" workbookViewId="0">
       <selection activeCell="AL2" sqref="AL2:AL26"/>
     </sheetView>
   </sheetViews>
@@ -4158,13 +4158,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:X13"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" thickBot="1">
@@ -4175,8 +4176,8 @@
         <v>70</v>
       </c>
       <c r="E1" t="str">
-        <f t="shared" ref="E1:E35" si="0">CONCATENATE(B1,".append(re.",A1,")")</f>
-        <v>project_id_input_dict.append(re.project_id_input)</v>
+        <f>CONCATENATE(B1,".append(round_up(float(re.",A1,")))")</f>
+        <v>project_id_input_dict.append(round_up(float(re.project_id_input)))</v>
       </c>
       <c r="N1" s="12"/>
       <c r="Q1" s="18" t="s">
@@ -4224,8 +4225,8 @@
         <v>71</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>case_name_dict.append(re.case_name)</v>
+        <f t="shared" ref="E2:E35" si="0">CONCATENATE(B2,".append(round_up(float(re.",A2,")))")</f>
+        <v>case_name_dict.append(round_up(float(re.case_name)))</v>
       </c>
       <c r="N2" s="13"/>
       <c r="Q2" s="19"/>
@@ -4250,7 +4251,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>Turbine_dict.append(re.Turbine)</v>
+        <v>Turbine_dict.append(round_up(float(re.Turbine)))</v>
       </c>
       <c r="N3" s="13"/>
       <c r="Q3" s="20"/>
@@ -4275,7 +4276,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>tur_id_dict.append(re.tur_id)</v>
+        <v>tur_id_dict.append(round_up(float(re.tur_id)))</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -4288,7 +4289,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>X_dict.append(re.X)</v>
+        <v>X_dict.append(round_up(float(re.X)))</v>
       </c>
       <c r="N5" s="14"/>
     </row>
@@ -4301,7 +4302,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>Y_dict.append(re.Y)</v>
+        <v>Y_dict.append(round_up(float(re.Y)))</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -4314,7 +4315,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Z_dict.append(re.Z)</v>
+        <v>Z_dict.append(round_up(float(re.Z)))</v>
       </c>
       <c r="N7" s="14"/>
       <c r="R7" s="12" t="s">
@@ -4337,7 +4338,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>H_dict.append(re.H)</v>
+        <v>H_dict.append(round_up(float(re.H)))</v>
       </c>
       <c r="N8" s="14"/>
       <c r="R8" s="13" t="s">
@@ -4360,7 +4361,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>Latitude_dict.append(re.Latitude)</v>
+        <v>Latitude_dict.append(round_up(float(re.Latitude)))</v>
       </c>
       <c r="N9" s="14"/>
       <c r="R9" s="13" t="s">
@@ -4383,7 +4384,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>Longitude_dict.append(re.Longitude)</v>
+        <v>Longitude_dict.append(round_up(float(re.Longitude)))</v>
       </c>
       <c r="N10" s="14"/>
       <c r="R10" s="13" t="s">
@@ -4406,7 +4407,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>TrustCoefficient_dict.append(re.TrustCoefficient)</v>
+        <v>TrustCoefficient_dict.append(round_up(float(re.TrustCoefficient)))</v>
       </c>
       <c r="N11" s="9"/>
       <c r="R11" s="9" t="s">
@@ -4429,7 +4430,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>WeibullA_dict.append(re.WeibullA)</v>
+        <v>WeibullA_dict.append(round_up(float(re.WeibullA)))</v>
       </c>
       <c r="N12" s="14"/>
       <c r="R12" s="14" t="s">
@@ -4452,7 +4453,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>WeibullK_dict.append(re.WeibullK)</v>
+        <v>WeibullK_dict.append(round_up(float(re.WeibullK)))</v>
       </c>
       <c r="R13" s="14" t="s">
         <v>122</v>
@@ -4474,7 +4475,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>EnergyDensity_dict.append(re.EnergyDensity)</v>
+        <v>EnergyDensity_dict.append(round_up(float(re.EnergyDensity)))</v>
       </c>
       <c r="R14" s="14" t="s">
         <v>123</v>
@@ -4489,7 +4490,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>PowerGeneration_dict.append(re.PowerGeneration)</v>
+        <v>PowerGeneration_dict.append(round_up(float(re.PowerGeneration)))</v>
       </c>
       <c r="R15" s="14" t="s">
         <v>124</v>
@@ -4504,7 +4505,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>PowerGeneration_Weak_dict.append(re.PowerGeneration_Weak)</v>
+        <v>PowerGeneration_Weak_dict.append(round_up(float(re.PowerGeneration_Weak)))</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>125</v>
@@ -4519,7 +4520,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityCoe_dict.append(re.CapacityCoe)</v>
+        <v>CapacityCoe_dict.append(round_up(float(re.CapacityCoe)))</v>
       </c>
       <c r="R17" s="14" t="s">
         <v>126</v>
@@ -4534,7 +4535,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>AverageWindSpeed_dict.append(re.AverageWindSpeed)</v>
+        <v>AverageWindSpeed_dict.append(round_up(float(re.AverageWindSpeed)))</v>
       </c>
       <c r="R18" s="14"/>
     </row>
@@ -4547,7 +4548,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>TurbulenceEnv_StrongWind_dict.append(re.TurbulenceEnv_StrongWind)</v>
+        <v>TurbulenceEnv_StrongWind_dict.append(round_up(float(re.TurbulenceEnv_StrongWind)))</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="21">
@@ -4559,7 +4560,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>Turbulence_StrongWind_dict.append(re.Turbulence_StrongWind)</v>
+        <v>Turbulence_StrongWind_dict.append(round_up(float(re.Turbulence_StrongWind)))</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21">
@@ -4571,7 +4572,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>AverageWindSpeed_Weak_dict.append(re.AverageWindSpeed_Weak)</v>
+        <v>AverageWindSpeed_Weak_dict.append(round_up(float(re.AverageWindSpeed_Weak)))</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="21">
@@ -4583,7 +4584,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>Weak_dict.append(re.Weak)</v>
+        <v>Weak_dict.append(round_up(float(re.Weak)))</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="21">
@@ -4595,7 +4596,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>AirDensity_dict.append(re.AirDensity)</v>
+        <v>AirDensity_dict.append(round_up(float(re.AirDensity)))</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="21">
@@ -4607,7 +4608,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>WindShear_Avg_dict.append(re.WindShear_Avg)</v>
+        <v>WindShear_Avg_dict.append(round_up(float(re.WindShear_Avg)))</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="21">
@@ -4619,7 +4620,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>WindShear_Max_dict.append(re.WindShear_Max)</v>
+        <v>WindShear_Max_dict.append(round_up(float(re.WindShear_Max)))</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="21">
@@ -4631,7 +4632,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>WindShear_Max_Deg_dict.append(re.WindShear_Max_Deg)</v>
+        <v>WindShear_Max_Deg_dict.append(round_up(float(re.WindShear_Max_Deg)))</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="21">
@@ -4643,7 +4644,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>InflowAngle_Avg_dict.append(re.InflowAngle_Avg)</v>
+        <v>InflowAngle_Avg_dict.append(round_up(float(re.InflowAngle_Avg)))</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="21">
@@ -4655,7 +4656,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>InflowAngle_Max_dict.append(re.InflowAngle_Max)</v>
+        <v>InflowAngle_Max_dict.append(round_up(float(re.InflowAngle_Max)))</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="21">
@@ -4667,7 +4668,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>InflowAngle_Max_Deg_dict.append(re.InflowAngle_Max_Deg)</v>
+        <v>InflowAngle_Max_Deg_dict.append(round_up(float(re.InflowAngle_Max_Deg)))</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="21">
@@ -4679,7 +4680,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>NextTur_dict.append(re.NextTur)</v>
+        <v>NextTur_dict.append(round_up(float(re.NextTur)))</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="21">
@@ -4691,7 +4692,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>NextLength_M_dict.append(re.NextLength_M)</v>
+        <v>NextLength_M_dict.append(round_up(float(re.NextLength_M)))</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -4703,7 +4704,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>Diameter_dict.append(re.Diameter)</v>
+        <v>Diameter_dict.append(round_up(float(re.Diameter)))</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21">
@@ -4715,7 +4716,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>NextLength_D_dict.append(re.NextLength_D)</v>
+        <v>NextLength_D_dict.append(round_up(float(re.NextLength_D)))</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21">
@@ -4727,7 +4728,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>NextDeg_dict.append(re.NextDeg)</v>
+        <v>NextDeg_dict.append(round_up(float(re.NextDeg)))</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21">
@@ -4739,7 +4740,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>Sectors_dict.append(re.Sectors)</v>
+        <v>Sectors_dict.append(round_up(float(re.Sectors)))</v>
       </c>
     </row>
   </sheetData>

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ECFFBA-3B4B-4FD5-94B2-9F1F8AA6061A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="5730" windowWidth="28170" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="5730" windowWidth="28170" windowHeight="11370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="代码" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -595,7 +594,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1166,7 +1165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView topLeftCell="Z25" workbookViewId="0">
@@ -4155,10 +4154,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E35"/>
     </sheetView>
   </sheetViews>
@@ -4176,8 +4175,8 @@
         <v>70</v>
       </c>
       <c r="E1" t="str">
-        <f>CONCATENATE(B1,".append(round_up(float(re.",A1,")))")</f>
-        <v>project_id_input_dict.append(round_up(float(re.project_id_input)))</v>
+        <f>CONCATENATE(B1,".append(re.",A1,")")</f>
+        <v>project_id_input_dict.append(re.project_id_input)</v>
       </c>
       <c r="N1" s="12"/>
       <c r="Q1" s="18" t="s">
@@ -4225,8 +4224,8 @@
         <v>71</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E35" si="0">CONCATENATE(B2,".append(round_up(float(re.",A2,")))")</f>
-        <v>case_name_dict.append(round_up(float(re.case_name)))</v>
+        <f t="shared" ref="E2:E35" si="0">CONCATENATE(B2,".append(re.",A2,")")</f>
+        <v>case_name_dict.append(re.case_name)</v>
       </c>
       <c r="N2" s="13"/>
       <c r="Q2" s="19"/>
@@ -4251,7 +4250,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>Turbine_dict.append(round_up(float(re.Turbine)))</v>
+        <v>Turbine_dict.append(re.Turbine)</v>
       </c>
       <c r="N3" s="13"/>
       <c r="Q3" s="20"/>
@@ -4276,7 +4275,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>tur_id_dict.append(round_up(float(re.tur_id)))</v>
+        <v>tur_id_dict.append(re.tur_id)</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -4289,7 +4288,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>X_dict.append(round_up(float(re.X)))</v>
+        <v>X_dict.append(re.X)</v>
       </c>
       <c r="N5" s="14"/>
     </row>
@@ -4302,7 +4301,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>Y_dict.append(round_up(float(re.Y)))</v>
+        <v>Y_dict.append(re.Y)</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -4315,7 +4314,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>Z_dict.append(round_up(float(re.Z)))</v>
+        <v>Z_dict.append(re.Z)</v>
       </c>
       <c r="N7" s="14"/>
       <c r="R7" s="12" t="s">
@@ -4338,7 +4337,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>H_dict.append(round_up(float(re.H)))</v>
+        <v>H_dict.append(re.H)</v>
       </c>
       <c r="N8" s="14"/>
       <c r="R8" s="13" t="s">
@@ -4361,7 +4360,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>Latitude_dict.append(round_up(float(re.Latitude)))</v>
+        <v>Latitude_dict.append(re.Latitude)</v>
       </c>
       <c r="N9" s="14"/>
       <c r="R9" s="13" t="s">
@@ -4384,7 +4383,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>Longitude_dict.append(round_up(float(re.Longitude)))</v>
+        <v>Longitude_dict.append(re.Longitude)</v>
       </c>
       <c r="N10" s="14"/>
       <c r="R10" s="13" t="s">
@@ -4407,7 +4406,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>TrustCoefficient_dict.append(round_up(float(re.TrustCoefficient)))</v>
+        <v>TrustCoefficient_dict.append(re.TrustCoefficient)</v>
       </c>
       <c r="N11" s="9"/>
       <c r="R11" s="9" t="s">
@@ -4430,7 +4429,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>WeibullA_dict.append(round_up(float(re.WeibullA)))</v>
+        <v>WeibullA_dict.append(re.WeibullA)</v>
       </c>
       <c r="N12" s="14"/>
       <c r="R12" s="14" t="s">
@@ -4453,7 +4452,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>WeibullK_dict.append(round_up(float(re.WeibullK)))</v>
+        <v>WeibullK_dict.append(re.WeibullK)</v>
       </c>
       <c r="R13" s="14" t="s">
         <v>122</v>
@@ -4475,7 +4474,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>EnergyDensity_dict.append(round_up(float(re.EnergyDensity)))</v>
+        <v>EnergyDensity_dict.append(re.EnergyDensity)</v>
       </c>
       <c r="R14" s="14" t="s">
         <v>123</v>
@@ -4490,7 +4489,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>PowerGeneration_dict.append(round_up(float(re.PowerGeneration)))</v>
+        <v>PowerGeneration_dict.append(re.PowerGeneration)</v>
       </c>
       <c r="R15" s="14" t="s">
         <v>124</v>
@@ -4505,7 +4504,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>PowerGeneration_Weak_dict.append(round_up(float(re.PowerGeneration_Weak)))</v>
+        <v>PowerGeneration_Weak_dict.append(re.PowerGeneration_Weak)</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>125</v>
@@ -4520,7 +4519,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityCoe_dict.append(round_up(float(re.CapacityCoe)))</v>
+        <v>CapacityCoe_dict.append(re.CapacityCoe)</v>
       </c>
       <c r="R17" s="14" t="s">
         <v>126</v>
@@ -4535,7 +4534,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>AverageWindSpeed_dict.append(round_up(float(re.AverageWindSpeed)))</v>
+        <v>AverageWindSpeed_dict.append(re.AverageWindSpeed)</v>
       </c>
       <c r="R18" s="14"/>
     </row>
@@ -4548,7 +4547,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>TurbulenceEnv_StrongWind_dict.append(round_up(float(re.TurbulenceEnv_StrongWind)))</v>
+        <v>TurbulenceEnv_StrongWind_dict.append(re.TurbulenceEnv_StrongWind)</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="21">
@@ -4560,7 +4559,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>Turbulence_StrongWind_dict.append(round_up(float(re.Turbulence_StrongWind)))</v>
+        <v>Turbulence_StrongWind_dict.append(re.Turbulence_StrongWind)</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="21">
@@ -4572,7 +4571,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>AverageWindSpeed_Weak_dict.append(round_up(float(re.AverageWindSpeed_Weak)))</v>
+        <v>AverageWindSpeed_Weak_dict.append(re.AverageWindSpeed_Weak)</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="21">
@@ -4584,7 +4583,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>Weak_dict.append(round_up(float(re.Weak)))</v>
+        <v>Weak_dict.append(re.Weak)</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="21">
@@ -4596,7 +4595,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>AirDensity_dict.append(round_up(float(re.AirDensity)))</v>
+        <v>AirDensity_dict.append(re.AirDensity)</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="21">
@@ -4608,7 +4607,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>WindShear_Avg_dict.append(round_up(float(re.WindShear_Avg)))</v>
+        <v>WindShear_Avg_dict.append(re.WindShear_Avg)</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="21">
@@ -4620,7 +4619,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>WindShear_Max_dict.append(round_up(float(re.WindShear_Max)))</v>
+        <v>WindShear_Max_dict.append(re.WindShear_Max)</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="21">
@@ -4632,7 +4631,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>WindShear_Max_Deg_dict.append(round_up(float(re.WindShear_Max_Deg)))</v>
+        <v>WindShear_Max_Deg_dict.append(re.WindShear_Max_Deg)</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="21">
@@ -4644,7 +4643,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>InflowAngle_Avg_dict.append(round_up(float(re.InflowAngle_Avg)))</v>
+        <v>InflowAngle_Avg_dict.append(re.InflowAngle_Avg)</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="21">
@@ -4656,7 +4655,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>InflowAngle_Max_dict.append(round_up(float(re.InflowAngle_Max)))</v>
+        <v>InflowAngle_Max_dict.append(re.InflowAngle_Max)</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="21">
@@ -4668,7 +4667,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>InflowAngle_Max_Deg_dict.append(round_up(float(re.InflowAngle_Max_Deg)))</v>
+        <v>InflowAngle_Max_Deg_dict.append(re.InflowAngle_Max_Deg)</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="21">
@@ -4680,7 +4679,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>NextTur_dict.append(round_up(float(re.NextTur)))</v>
+        <v>NextTur_dict.append(re.NextTur)</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="21">
@@ -4692,7 +4691,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>NextLength_M_dict.append(round_up(float(re.NextLength_M)))</v>
+        <v>NextLength_M_dict.append(re.NextLength_M)</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
@@ -4704,7 +4703,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>Diameter_dict.append(round_up(float(re.Diameter)))</v>
+        <v>Diameter_dict.append(re.Diameter)</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="21">
@@ -4716,7 +4715,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>NextLength_D_dict.append(round_up(float(re.NextLength_D)))</v>
+        <v>NextLength_D_dict.append(re.NextLength_D)</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21">
@@ -4728,7 +4727,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>NextDeg_dict.append(round_up(float(re.NextDeg)))</v>
+        <v>NextDeg_dict.append(re.NextDeg)</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="21">
@@ -4740,7 +4739,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>Sectors_dict.append(round_up(float(re.Sectors)))</v>
+        <v>Sectors_dict.append(re.Sectors)</v>
       </c>
     </row>
   </sheetData>

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="5730" windowWidth="28170" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="6645" yWindow="5730" windowWidth="28170" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="173">
   <si>
     <t>X</t>
   </si>
@@ -146,93 +146,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TTB-01</t>
-  </si>
-  <si>
     <t>默认信任系数</t>
   </si>
   <si>
-    <t>TTB-02</t>
-  </si>
-  <si>
-    <t>TTB-03</t>
-  </si>
-  <si>
-    <t>TTB-04</t>
-  </si>
-  <si>
-    <t>TTB-05</t>
-  </si>
-  <si>
-    <t>TTB-06</t>
-  </si>
-  <si>
-    <t>TTB-07</t>
-  </si>
-  <si>
-    <t>TTB-08</t>
-  </si>
-  <si>
-    <t>TTB-09</t>
-  </si>
-  <si>
-    <t>TTB-10</t>
-  </si>
-  <si>
-    <t>TTB-11</t>
-  </si>
-  <si>
-    <t>TTB-12</t>
-  </si>
-  <si>
-    <t>TTB-13</t>
-  </si>
-  <si>
-    <t>TTB-14</t>
-  </si>
-  <si>
-    <t>TTB-15</t>
-  </si>
-  <si>
-    <t>TTB-16</t>
-  </si>
-  <si>
-    <t>TTB-17</t>
-  </si>
-  <si>
-    <t>TTB-18</t>
-  </si>
-  <si>
-    <t>TTB-19</t>
-  </si>
-  <si>
-    <t>TTB-20</t>
-  </si>
-  <si>
-    <t>TTB-21</t>
-  </si>
-  <si>
-    <t>TTB-22</t>
-  </si>
-  <si>
-    <t>TTB-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>MM0664</t>
-  </si>
-  <si>
-    <t>使用最近的测风点</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>MM1623</t>
-  </si>
-  <si>
     <t>tur_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,20 +170,6 @@
   </si>
   <si>
     <t>case_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案1</t>
-  </si>
-  <si>
-    <t>方案1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西XX风电项目</t>
-  </si>
-  <si>
-    <t>广西XX风电项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -589,6 +491,236 @@
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>华润风电项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tTurE-2</t>
+  </si>
+  <si>
+    <t>tTurE-3</t>
+  </si>
+  <si>
+    <t>tTurE-5</t>
+  </si>
+  <si>
+    <t>tTurE-6</t>
+  </si>
+  <si>
+    <t>tTurE-9</t>
+  </si>
+  <si>
+    <t>tTurE-11</t>
+  </si>
+  <si>
+    <t>tTurE-14</t>
+  </si>
+  <si>
+    <t>tTurE-15</t>
+  </si>
+  <si>
+    <t>tTurE-16</t>
+  </si>
+  <si>
+    <t>tTurE-17</t>
+  </si>
+  <si>
+    <t>tTurE-18</t>
+  </si>
+  <si>
+    <t>tTurE-19</t>
+  </si>
+  <si>
+    <t>tTurE-20</t>
+  </si>
+  <si>
+    <t>tTurE-23</t>
+  </si>
+  <si>
+    <t>tTurE-24</t>
+  </si>
+  <si>
+    <t>tTurE-25</t>
+  </si>
+  <si>
+    <t>tTurE-S-28</t>
+  </si>
+  <si>
+    <t>tTurE-S-29</t>
+  </si>
+  <si>
+    <t>tTurE-S-31</t>
+  </si>
+  <si>
+    <t>tTurE-S-32</t>
+  </si>
+  <si>
+    <t>tTurE-S-33</t>
+  </si>
+  <si>
+    <t>tTurE-N-34</t>
+  </si>
+  <si>
+    <t>tTurE-N-35</t>
+  </si>
+  <si>
+    <t>tTurE-N-36</t>
+  </si>
+  <si>
+    <t>tTurE-N-37</t>
+  </si>
+  <si>
+    <t>方案2</t>
+  </si>
+  <si>
+    <t>方案2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认信任系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurE-1</t>
+  </si>
+  <si>
+    <t>TurE-2</t>
+  </si>
+  <si>
+    <t>TurE-3</t>
+  </si>
+  <si>
+    <t>TurE-4</t>
+  </si>
+  <si>
+    <t>TurE-5</t>
+  </si>
+  <si>
+    <t>TurE-6</t>
+  </si>
+  <si>
+    <t>TurE-7</t>
+  </si>
+  <si>
+    <t>TurE-8</t>
+  </si>
+  <si>
+    <t>TurE-9</t>
+  </si>
+  <si>
+    <t>TurE-10</t>
+  </si>
+  <si>
+    <t>TurE-11</t>
+  </si>
+  <si>
+    <t>TurE-12</t>
+  </si>
+  <si>
+    <t>TurE-13</t>
+  </si>
+  <si>
+    <t>TurE-14</t>
+  </si>
+  <si>
+    <t>TurE-15</t>
+  </si>
+  <si>
+    <t>TurE-16</t>
+  </si>
+  <si>
+    <t>TurE-17</t>
+  </si>
+  <si>
+    <t>TurE-18</t>
+  </si>
+  <si>
+    <t>TurE-19</t>
+  </si>
+  <si>
+    <t>TurE-20</t>
+  </si>
+  <si>
+    <t>TurE-21</t>
+  </si>
+  <si>
+    <t>TurE-22</t>
+  </si>
+  <si>
+    <t>TurE-23</t>
+  </si>
+  <si>
+    <t>TurE-24</t>
+  </si>
+  <si>
+    <t>TurE-25</t>
+  </si>
+  <si>
+    <t>TurE-26</t>
+  </si>
+  <si>
+    <t>TurE-S-27</t>
+  </si>
+  <si>
+    <t>TurE-S-28</t>
+  </si>
+  <si>
+    <t>TurE-S-29</t>
+  </si>
+  <si>
+    <t>TurE-S-30</t>
+  </si>
+  <si>
+    <t>TurE-S-31</t>
+  </si>
+  <si>
+    <t>TurE-S-32</t>
+  </si>
+  <si>
+    <t>TurE-S-33</t>
+  </si>
+  <si>
+    <t>TurE-N-34</t>
+  </si>
+  <si>
+    <t>TurE-N-35</t>
+  </si>
+  <si>
+    <t>TurE-N-36</t>
+  </si>
+  <si>
+    <t>TurE-N-37</t>
+  </si>
+  <si>
+    <t>TurE-N-38</t>
+  </si>
+  <si>
+    <t>TurE-N-39</t>
+  </si>
+  <si>
+    <t>TurE-N-40</t>
+  </si>
+  <si>
+    <t>tur_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -822,7 +954,18 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1166,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView topLeftCell="Z25" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL26"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1177,6 +1320,7 @@
     <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="35.25" bestFit="1" customWidth="1"/>
@@ -1201,16 +1345,16 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -1225,7 +1369,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -1234,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
@@ -1249,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -1306,120 +1450,120 @@
         <v>23</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="AL1" s="25" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AM1" s="25" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="AN1" s="25" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2">
-        <v>37482557</v>
+        <v>37567435</v>
       </c>
       <c r="G2" s="2">
-        <v>2539699</v>
+        <v>2545484</v>
       </c>
       <c r="H2" s="2">
-        <v>714.6</v>
+        <v>777.3</v>
       </c>
       <c r="I2" s="2">
         <v>90</v>
       </c>
       <c r="J2" s="2">
-        <v>110.82991677839</v>
+        <v>111.65778251389099</v>
       </c>
       <c r="K2" s="2">
-        <v>22.956217136714699</v>
+        <v>23.007179825227301</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
-        <v>7.55</v>
+        <v>6.33</v>
       </c>
       <c r="N2" s="2">
-        <v>2.1179999999999999</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="O2" s="2">
-        <v>301.8</v>
+        <v>178.3</v>
       </c>
       <c r="P2" s="2">
-        <v>10822</v>
+        <v>8629.08</v>
       </c>
       <c r="Q2" s="2">
-        <v>10819.09</v>
+        <v>8562.49</v>
       </c>
       <c r="R2" s="2">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="S2" s="2">
-        <v>6.7</v>
+        <v>5.62</v>
       </c>
       <c r="T2" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="U2" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="V2" s="2">
-        <v>6.69</v>
+        <v>5.59</v>
       </c>
       <c r="W2" s="2">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="X2" s="2">
-        <v>1.1080000000000001</v>
+        <v>1.105</v>
       </c>
       <c r="Y2" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Z2" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AA2" s="2">
         <v>337</v>
       </c>
       <c r="AB2" s="2">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AC2" s="2">
-        <v>4.2</v>
+        <v>7.7</v>
       </c>
       <c r="AD2" s="2">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AF2" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AG2" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH2" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="AI2" s="2">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="AJ2" s="2">
         <v>16</v>
@@ -1428,111 +1572,111 @@
         <v>2500</v>
       </c>
       <c r="AL2" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F3" s="4">
-        <v>37481880</v>
+        <v>37567103</v>
       </c>
       <c r="G3" s="4">
-        <v>2539780</v>
+        <v>2546079</v>
       </c>
       <c r="H3" s="4">
-        <v>658.2</v>
+        <v>762.7</v>
       </c>
       <c r="I3" s="4">
         <v>90</v>
       </c>
       <c r="J3" s="4">
-        <v>110.82331455991999</v>
+        <v>111.65457016127699</v>
       </c>
       <c r="K3" s="4">
-        <v>22.9569413385146</v>
+        <v>23.012565635857602</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4">
-        <v>6.69</v>
+        <v>6.03</v>
       </c>
       <c r="N3" s="4">
-        <v>2.0880000000000001</v>
+        <v>2.1859999999999999</v>
       </c>
       <c r="O3" s="4">
-        <v>217.6</v>
+        <v>156.6</v>
       </c>
       <c r="P3" s="4">
-        <v>9019.67</v>
+        <v>7841</v>
       </c>
       <c r="Q3" s="4">
-        <v>8925.01</v>
+        <v>7574.44</v>
       </c>
       <c r="R3" s="4">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="S3" s="4">
-        <v>5.94</v>
+        <v>5.35</v>
       </c>
       <c r="T3" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="U3" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="V3" s="4">
-        <v>5.9</v>
+        <v>5.26</v>
       </c>
       <c r="W3" s="4">
-        <v>-1</v>
+        <v>-3.4</v>
       </c>
       <c r="X3" s="4">
-        <v>1.115</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="Y3" s="4">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="Z3" s="4">
-        <v>0.27</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA3" s="4">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="AB3" s="4">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC3" s="4">
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
       <c r="AD3" s="4">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="AF3" s="4">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="AG3" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH3" s="4">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AI3" s="4">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="AJ3" s="4">
         <v>16</v>
@@ -1541,111 +1685,111 @@
         <v>3000</v>
       </c>
       <c r="AL3" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F4" s="4">
-        <v>37481220</v>
+        <v>37566634</v>
       </c>
       <c r="G4" s="4">
-        <v>2539686</v>
+        <v>2546532</v>
       </c>
       <c r="H4" s="4">
-        <v>699.8</v>
+        <v>763.5</v>
       </c>
       <c r="I4" s="4">
         <v>90</v>
       </c>
       <c r="J4" s="4">
-        <v>110.816880165011</v>
+        <v>111.65001503102199</v>
       </c>
       <c r="K4" s="4">
-        <v>22.956085235061899</v>
+        <v>23.016674726234601</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="4">
-        <v>7.15</v>
+        <v>5.95</v>
       </c>
       <c r="N4" s="4">
-        <v>2.1379999999999999</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="O4" s="4">
-        <v>257.3</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="P4" s="4">
-        <v>10042.540000000001</v>
+        <v>7631.61</v>
       </c>
       <c r="Q4" s="4">
-        <v>9795.93</v>
+        <v>7300.01</v>
       </c>
       <c r="R4" s="4">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="S4" s="4">
-        <v>6.34</v>
+        <v>5.28</v>
       </c>
       <c r="T4" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.114</v>
       </c>
       <c r="U4" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.114</v>
       </c>
       <c r="V4" s="4">
-        <v>6.26</v>
+        <v>5.18</v>
       </c>
       <c r="W4" s="4">
-        <v>-2.5</v>
+        <v>-4.3</v>
       </c>
       <c r="X4" s="4">
-        <v>1.1100000000000001</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="Y4" s="4">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="AA4" s="4">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="AB4" s="4">
-        <v>2.2000000000000002</v>
+        <v>3.8</v>
       </c>
       <c r="AC4" s="4">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="AD4" s="4">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AF4" s="4">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="AG4" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH4" s="4">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AI4" s="4">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="AJ4" s="4">
         <v>16</v>
@@ -1654,111 +1798,111 @@
         <v>2500</v>
       </c>
       <c r="AL4" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="F5" s="4">
-        <v>37480324</v>
+        <v>37566539</v>
       </c>
       <c r="G5" s="4">
-        <v>2539675</v>
+        <v>2547238</v>
       </c>
       <c r="H5" s="4">
-        <v>747.9</v>
+        <v>813.4</v>
       </c>
       <c r="I5" s="4">
         <v>90</v>
       </c>
       <c r="J5" s="4">
-        <v>110.808143634229</v>
+        <v>111.649118862953</v>
       </c>
       <c r="K5" s="4">
-        <v>22.9559755808646</v>
+        <v>23.023053164273598</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="4">
-        <v>7.28</v>
+        <v>6.04</v>
       </c>
       <c r="N5" s="4">
-        <v>2.161</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="O5" s="4">
-        <v>266.89999999999998</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="P5" s="4">
-        <v>10333.91</v>
+        <v>7850.12</v>
       </c>
       <c r="Q5" s="4">
-        <v>10196.83</v>
+        <v>7445.51</v>
       </c>
       <c r="R5" s="4">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4">
-        <v>6.46</v>
+        <v>5.36</v>
       </c>
       <c r="T5" s="4">
-        <v>7.3999999999999996E-2</v>
+        <v>0.108</v>
       </c>
       <c r="U5" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>0.11</v>
       </c>
       <c r="V5" s="4">
-        <v>6.41</v>
+        <v>5.23</v>
       </c>
       <c r="W5" s="4">
-        <v>-1.3</v>
+        <v>-5.2</v>
       </c>
       <c r="X5" s="4">
-        <v>1.1040000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y5" s="4">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="AA5" s="4">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="AB5" s="4">
-        <v>2.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AC5" s="4">
-        <v>3.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD5" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="AF5" s="4">
-        <v>896</v>
+        <v>493</v>
       </c>
       <c r="AG5" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH5" s="4">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="AI5" s="4">
-        <v>89</v>
+        <v>347</v>
       </c>
       <c r="AJ5" s="4">
         <v>16</v>
@@ -1767,111 +1911,111 @@
         <v>2500</v>
       </c>
       <c r="AL5" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="F6" s="4">
-        <v>37479382</v>
+        <v>37566428</v>
       </c>
       <c r="G6" s="4">
-        <v>2539876</v>
+        <v>2547718</v>
       </c>
       <c r="H6" s="4">
-        <v>702.8</v>
+        <v>872.9</v>
       </c>
       <c r="I6" s="4">
         <v>90</v>
       </c>
       <c r="J6" s="4">
-        <v>110.79895575887601</v>
+        <v>111.648056775846</v>
       </c>
       <c r="K6" s="4">
-        <v>22.957779201139299</v>
+        <v>23.027391629456002</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4">
-        <v>6.45</v>
+        <v>6.56</v>
       </c>
       <c r="N6" s="4">
-        <v>2</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="O6" s="4">
-        <v>202.6</v>
+        <v>196.2</v>
       </c>
       <c r="P6" s="4">
-        <v>8513.5400000000009</v>
+        <v>9130.06</v>
       </c>
       <c r="Q6" s="4">
-        <v>8414.2999999999993</v>
+        <v>8767.66</v>
       </c>
       <c r="R6" s="4">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="S6" s="4">
-        <v>5.73</v>
+        <v>5.82</v>
       </c>
       <c r="T6" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="U6" s="4">
-        <v>9.0999999999999998E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="V6" s="4">
-        <v>5.69</v>
+        <v>5.71</v>
       </c>
       <c r="W6" s="4">
-        <v>-1.2</v>
+        <v>-4</v>
       </c>
       <c r="X6" s="4">
-        <v>1.109</v>
+        <v>1.093</v>
       </c>
       <c r="Y6" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Z6" s="4">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="AA6" s="4">
         <v>315</v>
       </c>
       <c r="AB6" s="4">
-        <v>3.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AC6" s="4">
-        <v>6.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AD6" s="4">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="AF6" s="4">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="AG6" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH6" s="4">
         <v>3.2</v>
       </c>
       <c r="AI6" s="4">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="AJ6" s="4">
         <v>16</v>
@@ -1880,111 +2024,111 @@
         <v>2500</v>
       </c>
       <c r="AL6" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="F7" s="4">
-        <v>37478973</v>
+        <v>37566051</v>
       </c>
       <c r="G7" s="4">
-        <v>2540069</v>
+        <v>2547993</v>
       </c>
       <c r="H7" s="4">
-        <v>686.8</v>
+        <v>830.4</v>
       </c>
       <c r="I7" s="4">
         <v>90</v>
       </c>
       <c r="J7" s="4">
-        <v>110.794965029696</v>
+        <v>111.644390831278</v>
       </c>
       <c r="K7" s="4">
-        <v>22.9595168520949</v>
+        <v>23.0298896857269</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="4">
-        <v>6.09</v>
+        <v>6.2</v>
       </c>
       <c r="N7" s="4">
-        <v>1.944</v>
+        <v>2.113</v>
       </c>
       <c r="O7" s="4">
-        <v>176.2</v>
+        <v>175.8</v>
       </c>
       <c r="P7" s="4">
-        <v>7742.12</v>
+        <v>8097.58</v>
       </c>
       <c r="Q7" s="4">
-        <v>7617.35</v>
+        <v>7549.22</v>
       </c>
       <c r="R7" s="4">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="S7" s="4">
-        <v>5.41</v>
+        <v>5.49</v>
       </c>
       <c r="T7" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>0.106</v>
       </c>
       <c r="U7" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>0.111</v>
       </c>
       <c r="V7" s="4">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="W7" s="4">
-        <v>-1.6</v>
+        <v>-6.8</v>
       </c>
       <c r="X7" s="4">
-        <v>1.111</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="Y7" s="4">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="AA7" s="4">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="AB7" s="4">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AC7" s="4">
-        <v>3.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD7" s="4">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="AF7" s="4">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="AG7" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH7" s="4">
         <v>3.2</v>
       </c>
       <c r="AI7" s="4">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AJ7" s="4">
         <v>16</v>
@@ -1993,111 +2137,111 @@
         <v>2500</v>
       </c>
       <c r="AL7" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="F8" s="4">
-        <v>37478629</v>
+        <v>37566271</v>
       </c>
       <c r="G8" s="4">
-        <v>2540431</v>
+        <v>2548469</v>
       </c>
       <c r="H8" s="4">
-        <v>738.4</v>
+        <v>827</v>
       </c>
       <c r="I8" s="4">
         <v>90</v>
       </c>
       <c r="J8" s="4">
-        <v>110.79160568285199</v>
+        <v>111.646557539464</v>
       </c>
       <c r="K8" s="4">
-        <v>22.962781274667101</v>
+        <v>23.0341788393456</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="4">
-        <v>6.41</v>
+        <v>6.1</v>
       </c>
       <c r="N8" s="4">
-        <v>2.0590000000000002</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="O8" s="4">
-        <v>194</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="P8" s="4">
-        <v>8400.5300000000007</v>
+        <v>7930.54</v>
       </c>
       <c r="Q8" s="4">
-        <v>8205.19</v>
+        <v>7647.36</v>
       </c>
       <c r="R8" s="4">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="S8" s="4">
-        <v>5.69</v>
+        <v>5.41</v>
       </c>
       <c r="T8" s="4">
-        <v>8.6999999999999994E-2</v>
+        <v>0.112</v>
       </c>
       <c r="U8" s="4">
-        <v>8.6999999999999994E-2</v>
+        <v>0.113</v>
       </c>
       <c r="V8" s="4">
-        <v>5.6</v>
+        <v>5.31</v>
       </c>
       <c r="W8" s="4">
-        <v>-2.2999999999999998</v>
+        <v>-3.6</v>
       </c>
       <c r="X8" s="4">
-        <v>1.105</v>
+        <v>1.099</v>
       </c>
       <c r="Y8" s="4">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Z8" s="4">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AA8" s="4">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="AB8" s="4">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AC8" s="4">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" s="4">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AF8" s="4">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="AG8" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH8" s="4">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AI8" s="4">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="AJ8" s="4">
         <v>16</v>
@@ -2106,111 +2250,111 @@
         <v>2500</v>
       </c>
       <c r="AL8" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:40">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="F9" s="4">
-        <v>37478229</v>
+        <v>37564324</v>
       </c>
       <c r="G9" s="4">
-        <v>2540443</v>
+        <v>2546894</v>
       </c>
       <c r="H9" s="4">
-        <v>758.7</v>
+        <v>801.8</v>
       </c>
       <c r="I9" s="4">
         <v>90</v>
       </c>
       <c r="J9" s="4">
-        <v>110.787705027551</v>
+        <v>111.62749715293999</v>
       </c>
       <c r="K9" s="4">
-        <v>22.962884459198399</v>
+        <v>23.020034242827599</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="4">
-        <v>6.27</v>
+        <v>6.32</v>
       </c>
       <c r="N9" s="4">
-        <v>2.0859999999999999</v>
+        <v>2.012</v>
       </c>
       <c r="O9" s="4">
-        <v>179</v>
+        <v>197.7</v>
       </c>
       <c r="P9" s="4">
-        <v>8056.28</v>
+        <v>8287.81</v>
       </c>
       <c r="Q9" s="4">
-        <v>6881.86</v>
+        <v>8002.31</v>
       </c>
       <c r="R9" s="4">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="S9" s="4">
-        <v>5.56</v>
+        <v>5.61</v>
       </c>
       <c r="T9" s="4">
-        <v>8.7999999999999995E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U9" s="4">
-        <v>0.108</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V9" s="4">
-        <v>5.17</v>
+        <v>5.5</v>
       </c>
       <c r="W9" s="4">
-        <v>-14.6</v>
+        <v>-3.4</v>
       </c>
       <c r="X9" s="4">
-        <v>1.103</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="Y9" s="4">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="Z9" s="4">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="AA9" s="4">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="AB9" s="4">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AC9" s="4">
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AD9" s="4">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="AF9" s="4">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="AG9" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH9" s="4">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="4">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="AJ9" s="4">
         <v>16</v>
@@ -2219,111 +2363,111 @@
         <v>2500</v>
       </c>
       <c r="AL9" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="F10" s="4">
-        <v>37477789</v>
+        <v>37564100</v>
       </c>
       <c r="G10" s="4">
-        <v>2540690</v>
+        <v>2546520</v>
       </c>
       <c r="H10" s="4">
-        <v>827.4</v>
+        <v>809</v>
       </c>
       <c r="I10" s="4">
         <v>90</v>
       </c>
       <c r="J10" s="4">
-        <v>110.78341093840901</v>
+        <v>111.625296506407</v>
       </c>
       <c r="K10" s="4">
-        <v>22.9651090208861</v>
+        <v>23.016665942301898</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="4">
-        <v>6.91</v>
+        <v>6.3</v>
       </c>
       <c r="N10" s="4">
-        <v>2.1579999999999999</v>
+        <v>2.0680000000000001</v>
       </c>
       <c r="O10" s="4">
-        <v>228.4</v>
+        <v>189.8</v>
       </c>
       <c r="P10" s="4">
-        <v>9422.49</v>
+        <v>8289.69</v>
       </c>
       <c r="Q10" s="4">
-        <v>9068.09</v>
+        <v>7835.42</v>
       </c>
       <c r="R10" s="4">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="S10" s="4">
-        <v>6.13</v>
+        <v>5.58</v>
       </c>
       <c r="T10" s="4">
-        <v>7.9000000000000001E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="U10" s="4">
-        <v>7.9000000000000001E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="V10" s="4">
-        <v>6.01</v>
+        <v>5.44</v>
       </c>
       <c r="W10" s="4">
-        <v>-3.8</v>
+        <v>-5.5</v>
       </c>
       <c r="X10" s="4">
-        <v>1.0940000000000001</v>
+        <v>1.101</v>
       </c>
       <c r="Y10" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="AA10" s="4">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="AB10" s="4">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="AC10" s="4">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD10" s="4">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="AF10" s="4">
-        <v>439</v>
+        <v>329</v>
       </c>
       <c r="AG10" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH10" s="4">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AI10" s="4">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AJ10" s="4">
         <v>16</v>
@@ -2332,111 +2476,111 @@
         <v>2500</v>
       </c>
       <c r="AL10" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:40">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F11" s="4">
-        <v>37477361</v>
+        <v>37564004</v>
       </c>
       <c r="G11" s="4">
-        <v>2540788</v>
+        <v>2545480</v>
       </c>
       <c r="H11" s="4">
-        <v>798.5</v>
+        <v>731.8</v>
       </c>
       <c r="I11" s="4">
         <v>90</v>
       </c>
       <c r="J11" s="4">
-        <v>110.77923591239301</v>
+        <v>111.624316852989</v>
       </c>
       <c r="K11" s="4">
-        <v>22.9659881866924</v>
+        <v>23.007279185738401</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="4">
-        <v>6.39</v>
+        <v>5.63</v>
       </c>
       <c r="N11" s="4">
-        <v>2.1930000000000001</v>
+        <v>2.169</v>
       </c>
       <c r="O11" s="4">
-        <v>180.8</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="P11" s="4">
-        <v>8246.0300000000007</v>
+        <v>6704.8</v>
       </c>
       <c r="Q11" s="4">
-        <v>7806.64</v>
+        <v>6513.31</v>
       </c>
       <c r="R11" s="4">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="S11" s="4">
-        <v>5.67</v>
+        <v>4.99</v>
       </c>
       <c r="T11" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>0.114</v>
       </c>
       <c r="U11" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>0.114</v>
       </c>
       <c r="V11" s="4">
-        <v>5.51</v>
+        <v>4.93</v>
       </c>
       <c r="W11" s="4">
-        <v>-5.3</v>
+        <v>-2.9</v>
       </c>
       <c r="X11" s="4">
-        <v>1.0980000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Y11" s="4">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AA11" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="4">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="AC11" s="4">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD11" s="4">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="AF11" s="4">
-        <v>439</v>
+        <v>1044</v>
       </c>
       <c r="AG11" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH11" s="4">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI11" s="4">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="AJ11" s="4">
         <v>16</v>
@@ -2445,111 +2589,111 @@
         <v>2500</v>
       </c>
       <c r="AL11" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="F12" s="4">
-        <v>37476779</v>
+        <v>37563771</v>
       </c>
       <c r="G12" s="4">
-        <v>2540221</v>
+        <v>2546525</v>
       </c>
       <c r="H12" s="4">
-        <v>848.9</v>
+        <v>788</v>
       </c>
       <c r="I12" s="4">
         <v>90</v>
       </c>
       <c r="J12" s="4">
-        <v>110.773569101199</v>
+        <v>111.622087459683</v>
       </c>
       <c r="K12" s="4">
-        <v>22.960860284954698</v>
+        <v>23.016723732843602</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="4">
-        <v>6.66</v>
+        <v>5.91</v>
       </c>
       <c r="N12" s="4">
-        <v>2.262</v>
+        <v>2.0710000000000002</v>
       </c>
       <c r="O12" s="4">
-        <v>198.4</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="P12" s="4">
-        <v>8907.8799999999992</v>
+        <v>7351.22</v>
       </c>
       <c r="Q12" s="4">
-        <v>8558.39</v>
+        <v>6926.26</v>
       </c>
       <c r="R12" s="4">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="S12" s="4">
-        <v>5.91</v>
+        <v>5.24</v>
       </c>
       <c r="T12" s="4">
-        <v>9.8000000000000004E-2</v>
+        <v>0.107</v>
       </c>
       <c r="U12" s="4">
-        <v>0.1</v>
+        <v>0.109</v>
       </c>
       <c r="V12" s="4">
-        <v>5.79</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="W12" s="4">
-        <v>-3.9</v>
+        <v>-5.8</v>
       </c>
       <c r="X12" s="4">
-        <v>1.0920000000000001</v>
+        <v>1.103</v>
       </c>
       <c r="Y12" s="4">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="Z12" s="4">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="AA12" s="4">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="AB12" s="4">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="AC12" s="4">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD12" s="4">
         <v>315</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AF12" s="4">
-        <v>511</v>
+        <v>329</v>
       </c>
       <c r="AG12" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH12" s="4">
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AI12" s="4">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="AJ12" s="4">
         <v>16</v>
@@ -2558,111 +2702,111 @@
         <v>2500</v>
       </c>
       <c r="AL12" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="B13" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="F13" s="4">
-        <v>37476340</v>
+        <v>37563234</v>
       </c>
       <c r="G13" s="4">
-        <v>2539960</v>
+        <v>2546426</v>
       </c>
       <c r="H13" s="4">
-        <v>919.1</v>
+        <v>742.6</v>
       </c>
       <c r="I13" s="4">
         <v>90</v>
       </c>
       <c r="J13" s="4">
-        <v>110.769292380896</v>
+        <v>111.616845183368</v>
       </c>
       <c r="K13" s="4">
-        <v>22.958497336425499</v>
+        <v>23.015850331497699</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="4">
-        <v>7.49</v>
+        <v>5.55</v>
       </c>
       <c r="N13" s="4">
-        <v>2.238</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="O13" s="4">
-        <v>278.10000000000002</v>
+        <v>133.6</v>
       </c>
       <c r="P13" s="4">
-        <v>10678.28</v>
+        <v>6487.04</v>
       </c>
       <c r="Q13" s="4">
-        <v>10482.530000000001</v>
+        <v>6213.08</v>
       </c>
       <c r="R13" s="4">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="S13" s="4">
-        <v>6.64</v>
+        <v>4.92</v>
       </c>
       <c r="T13" s="4">
-        <v>7.2999999999999995E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="U13" s="4">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="V13" s="4">
-        <v>6.57</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="W13" s="4">
-        <v>-1.8</v>
+        <v>-4.2</v>
       </c>
       <c r="X13" s="4">
-        <v>1.083</v>
+        <v>1.109</v>
       </c>
       <c r="Y13" s="4">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="AA13" s="4">
         <v>112</v>
       </c>
       <c r="AB13" s="4">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="AC13" s="4">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AD13" s="4">
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="AF13" s="4">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="AG13" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH13" s="4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AI13" s="4">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AJ13" s="4">
         <v>16</v>
@@ -2671,111 +2815,111 @@
         <v>2500</v>
       </c>
       <c r="AL13" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="F14" s="4">
-        <v>37475845</v>
+        <v>37561099</v>
       </c>
       <c r="G14" s="4">
-        <v>2539963</v>
+        <v>2546748</v>
       </c>
       <c r="H14" s="4">
-        <v>827.6</v>
+        <v>708.3</v>
       </c>
       <c r="I14" s="4">
         <v>90</v>
       </c>
       <c r="J14" s="4">
-        <v>110.764465641901</v>
+        <v>111.596032003828</v>
       </c>
       <c r="K14" s="4">
-        <v>22.958517332007801</v>
+        <v>23.0188375528008</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="4">
-        <v>6.59</v>
+        <v>5.6</v>
       </c>
       <c r="N14" s="4">
-        <v>2.1829999999999998</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="O14" s="4">
-        <v>198.5</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="P14" s="4">
-        <v>8674.36</v>
+        <v>6634.67</v>
       </c>
       <c r="Q14" s="4">
-        <v>8308.2900000000009</v>
+        <v>6564.98</v>
       </c>
       <c r="R14" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S14" s="4">
-        <v>5.84</v>
+        <v>4.97</v>
       </c>
       <c r="T14" s="4">
-        <v>8.6999999999999994E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="U14" s="4">
-        <v>8.7999999999999995E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="V14" s="4">
-        <v>5.72</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="W14" s="4">
-        <v>-4.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X14" s="4">
-        <v>1.0940000000000001</v>
+        <v>1.113</v>
       </c>
       <c r="Y14" s="4">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Z14" s="4">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="AA14" s="4">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="AB14" s="4">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AC14" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AD14" s="4">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="AF14" s="4">
-        <v>458</v>
+        <v>922</v>
       </c>
       <c r="AG14" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH14" s="4">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI14" s="4">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="AJ14" s="4">
         <v>16</v>
@@ -2784,111 +2928,111 @@
         <v>2500</v>
       </c>
       <c r="AL14" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:40">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="F15" s="4">
-        <v>37475491</v>
+        <v>37560633</v>
       </c>
       <c r="G15" s="4">
-        <v>2539673</v>
+        <v>2545952</v>
       </c>
       <c r="H15" s="4">
-        <v>789.7</v>
+        <v>717.8</v>
       </c>
       <c r="I15" s="4">
         <v>90</v>
       </c>
       <c r="J15" s="4">
-        <v>110.76101842668</v>
+        <v>111.59145493586</v>
       </c>
       <c r="K15" s="4">
-        <v>22.9558935257052</v>
+        <v>23.0116672551109</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="4">
-        <v>6.26</v>
+        <v>5.88</v>
       </c>
       <c r="N15" s="4">
-        <v>2.1629999999999998</v>
+        <v>2.161</v>
       </c>
       <c r="O15" s="4">
-        <v>172.7</v>
+        <v>148</v>
       </c>
       <c r="P15" s="4">
-        <v>7929.29</v>
+        <v>7437.01</v>
       </c>
       <c r="Q15" s="4">
-        <v>7066.47</v>
+        <v>7160.49</v>
       </c>
       <c r="R15" s="4">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="S15" s="4">
-        <v>5.55</v>
+        <v>5.21</v>
       </c>
       <c r="T15" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="U15" s="4">
-        <v>0.107</v>
+        <v>9.4E-2</v>
       </c>
       <c r="V15" s="4">
-        <v>5.24</v>
+        <v>5.14</v>
       </c>
       <c r="W15" s="4">
-        <v>-10.9</v>
+        <v>-3.7</v>
       </c>
       <c r="X15" s="4">
-        <v>1.099</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="Y15" s="4">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AA15" s="4">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="AB15" s="4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC15" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AD15" s="4">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="AF15" s="4">
-        <v>458</v>
+        <v>819</v>
       </c>
       <c r="AG15" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH15" s="4">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="AI15" s="4">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="AJ15" s="4">
         <v>16</v>
@@ -2897,111 +3041,111 @@
         <v>2500</v>
       </c>
       <c r="AL15" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:40">
       <c r="B16" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="F16" s="4">
-        <v>37475055</v>
+        <v>37559832</v>
       </c>
       <c r="G16" s="4">
-        <v>2539861</v>
+        <v>2546124</v>
       </c>
       <c r="H16" s="4">
-        <v>791.2</v>
+        <v>764.6</v>
       </c>
       <c r="I16" s="4">
         <v>90</v>
       </c>
       <c r="J16" s="4">
-        <v>110.756764085784</v>
+        <v>111.58364844116799</v>
       </c>
       <c r="K16" s="4">
-        <v>22.957584666691002</v>
+        <v>23.0132492973515</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="4">
-        <v>6.62</v>
+        <v>6.16</v>
       </c>
       <c r="N16" s="4">
-        <v>2.1619999999999999</v>
+        <v>2.149</v>
       </c>
       <c r="O16" s="4">
-        <v>203.4</v>
+        <v>169.8</v>
       </c>
       <c r="P16" s="4">
-        <v>8804.8700000000008</v>
+        <v>8173.98</v>
       </c>
       <c r="Q16" s="4">
-        <v>8238.61</v>
+        <v>8079</v>
       </c>
       <c r="R16" s="4">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="S16" s="4">
-        <v>5.87</v>
+        <v>5.47</v>
       </c>
       <c r="T16" s="4">
-        <v>0.09</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="U16" s="4">
-        <v>9.1999999999999998E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="V16" s="4">
-        <v>5.66</v>
+        <v>5.43</v>
       </c>
       <c r="W16" s="4">
-        <v>-6.4</v>
+        <v>-1.2</v>
       </c>
       <c r="X16" s="4">
-        <v>1.099</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="Y16" s="4">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Z16" s="4">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="AA16" s="4">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="AB16" s="4">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="AC16" s="4">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD16" s="4">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="AF16" s="4">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="AG16" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH16" s="4">
         <v>3.4</v>
       </c>
       <c r="AI16" s="4">
-        <v>113</v>
+        <v>279</v>
       </c>
       <c r="AJ16" s="4">
         <v>16</v>
@@ -3010,111 +3154,111 @@
         <v>2500</v>
       </c>
       <c r="AL16" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="2:38">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="F17" s="4">
-        <v>37475533</v>
+        <v>37559344</v>
       </c>
       <c r="G17" s="4">
-        <v>2538879</v>
+        <v>2546203</v>
       </c>
       <c r="H17" s="4">
-        <v>732.5</v>
+        <v>756.8</v>
       </c>
       <c r="I17" s="4">
         <v>90</v>
       </c>
       <c r="J17" s="4">
-        <v>110.761440526866</v>
+        <v>111.578891337153</v>
       </c>
       <c r="K17" s="4">
-        <v>22.948724473413101</v>
+        <v>23.013980093144902</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" s="4">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="N17" s="4">
-        <v>2.1680000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="O17" s="4">
-        <v>133.1</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="P17" s="4">
-        <v>6682.89</v>
+        <v>7086.38</v>
       </c>
       <c r="Q17" s="4">
-        <v>6515.3</v>
+        <v>7010.98</v>
       </c>
       <c r="R17" s="4">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="S17" s="4">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="T17" s="4">
-        <v>9.9000000000000005E-2</v>
+        <v>0.107</v>
       </c>
       <c r="U17" s="4">
-        <v>0.1</v>
+        <v>0.107</v>
       </c>
       <c r="V17" s="4">
-        <v>5</v>
+        <v>5.04</v>
       </c>
       <c r="W17" s="4">
-        <v>-2.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X17" s="4">
-        <v>1.1060000000000001</v>
+        <v>1.107</v>
       </c>
       <c r="Y17" s="4">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="AA17" s="4">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB17" s="4">
-        <v>1.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AC17" s="4">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" s="4">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AF17" s="4">
-        <v>795</v>
+        <v>494</v>
       </c>
       <c r="AG17" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH17" s="4">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="AI17" s="4">
-        <v>357</v>
+        <v>99</v>
       </c>
       <c r="AJ17" s="4">
         <v>16</v>
@@ -3123,111 +3267,111 @@
         <v>2500</v>
       </c>
       <c r="AL17" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="2:38">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="F18" s="4">
-        <v>37478048</v>
+        <v>37558756</v>
       </c>
       <c r="G18" s="4">
-        <v>2541208</v>
+        <v>2546178</v>
       </c>
       <c r="H18" s="4">
-        <v>738.5</v>
+        <v>942.1</v>
       </c>
       <c r="I18" s="4">
         <v>90</v>
       </c>
       <c r="J18" s="4">
-        <v>110.785929181424</v>
+        <v>111.57315475897801</v>
       </c>
       <c r="K18" s="4">
-        <v>22.969789890540699</v>
+        <v>23.013775227699099</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="4">
-        <v>5.59</v>
+        <v>7.14</v>
       </c>
       <c r="N18" s="4">
-        <v>2.1419999999999999</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="O18" s="4">
-        <v>129.5</v>
+        <v>245.2</v>
       </c>
       <c r="P18" s="4">
-        <v>6176.28</v>
+        <v>10498.16</v>
       </c>
       <c r="Q18" s="4">
-        <v>5721.68</v>
+        <v>10426.530000000001</v>
       </c>
       <c r="R18" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="S18" s="4">
-        <v>4.96</v>
+        <v>6.34</v>
       </c>
       <c r="T18" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="U18" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="V18" s="4">
-        <v>4.7699999999999996</v>
+        <v>6.31</v>
       </c>
       <c r="W18" s="4">
-        <v>-7.4</v>
+        <v>-0.7</v>
       </c>
       <c r="X18" s="4">
-        <v>1.105</v>
+        <v>1.085</v>
       </c>
       <c r="Y18" s="4">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="Z18" s="4">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="AA18" s="4">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AB18" s="4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="AC18" s="4">
-        <v>9.6999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="AD18" s="4">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="AF18" s="4">
-        <v>579</v>
+        <v>361</v>
       </c>
       <c r="AG18" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH18" s="4">
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="AI18" s="4">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="AJ18" s="4">
         <v>16</v>
@@ -3236,111 +3380,111 @@
         <v>2500</v>
       </c>
       <c r="AL18" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="2:38">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="F19" s="4">
-        <v>37478150</v>
+        <v>37558409</v>
       </c>
       <c r="G19" s="4">
-        <v>2539677</v>
+        <v>2546077</v>
       </c>
       <c r="H19" s="4">
-        <v>728.2</v>
+        <v>919.2</v>
       </c>
       <c r="I19" s="4">
         <v>90</v>
       </c>
       <c r="J19" s="4">
-        <v>110.786945515599</v>
+        <v>111.569766132449</v>
       </c>
       <c r="K19" s="4">
-        <v>22.955966586078802</v>
+        <v>23.012875479055101</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19" s="4">
-        <v>6.04</v>
+        <v>6.79</v>
       </c>
       <c r="N19" s="4">
-        <v>2.1360000000000001</v>
+        <v>2.2549999999999999</v>
       </c>
       <c r="O19" s="4">
-        <v>157.1</v>
+        <v>212.6</v>
       </c>
       <c r="P19" s="4">
-        <v>7545.83</v>
+        <v>9649.18</v>
       </c>
       <c r="Q19" s="4">
-        <v>7140.94</v>
+        <v>9404.8700000000008</v>
       </c>
       <c r="R19" s="4">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="S19" s="4">
-        <v>5.35</v>
+        <v>6.02</v>
       </c>
       <c r="T19" s="4">
-        <v>0.09</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="U19" s="4">
-        <v>9.1999999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="V19" s="4">
-        <v>5.21</v>
+        <v>5.93</v>
       </c>
       <c r="W19" s="4">
-        <v>-5.4</v>
+        <v>-2.5</v>
       </c>
       <c r="X19" s="4">
-        <v>1.1060000000000001</v>
+        <v>1.0880000000000001</v>
       </c>
       <c r="Y19" s="4">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="Z19" s="4">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AA19" s="4">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="AB19" s="4">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC19" s="4">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" s="4">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="AF19" s="4">
-        <v>770</v>
+        <v>361</v>
       </c>
       <c r="AG19" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH19" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="AI19" s="4">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="AJ19" s="4">
         <v>16</v>
@@ -3349,111 +3493,111 @@
         <v>2500</v>
       </c>
       <c r="AL19" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="2:38">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="F20" s="4">
-        <v>37478682</v>
+        <v>37558014</v>
       </c>
       <c r="G20" s="4">
-        <v>2542030</v>
+        <v>2546200</v>
       </c>
       <c r="H20" s="4">
-        <v>698.1</v>
+        <v>898.1</v>
       </c>
       <c r="I20" s="4">
         <v>90</v>
       </c>
       <c r="J20" s="4">
-        <v>110.792100418212</v>
+        <v>111.56591777846199</v>
       </c>
       <c r="K20" s="4">
-        <v>22.977220616357801</v>
+        <v>23.013999911407598</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20" s="4">
-        <v>6.28</v>
+        <v>6.51</v>
       </c>
       <c r="N20" s="4">
-        <v>2.0670000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="O20" s="4">
-        <v>186.8</v>
+        <v>187.2</v>
       </c>
       <c r="P20" s="4">
-        <v>7826.7</v>
+        <v>8986.06</v>
       </c>
       <c r="Q20" s="4">
-        <v>7447.65</v>
+        <v>8672.25</v>
       </c>
       <c r="R20" s="4">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="S20" s="4">
-        <v>5.57</v>
+        <v>5.78</v>
       </c>
       <c r="T20" s="4">
-        <v>5.8000000000000003E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="U20" s="4">
-        <v>5.8999999999999997E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="V20" s="4">
-        <v>5.45</v>
+        <v>5.67</v>
       </c>
       <c r="W20" s="4">
-        <v>-4.8</v>
+        <v>-3.5</v>
       </c>
       <c r="X20" s="4">
-        <v>1.1100000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="Y20" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="Z20" s="4">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AA20" s="4">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="AB20" s="4">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AC20" s="4">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD20" s="4">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="AF20" s="4">
-        <v>1038</v>
+        <v>414</v>
       </c>
       <c r="AG20" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH20" s="4">
-        <v>7.4</v>
+        <v>2.9</v>
       </c>
       <c r="AI20" s="4">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="AJ20" s="4">
         <v>16</v>
@@ -3462,111 +3606,111 @@
         <v>2500</v>
       </c>
       <c r="AL20" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="2:38">
       <c r="B21" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="F21" s="4">
-        <v>37473394</v>
+        <v>37557858</v>
       </c>
       <c r="G21" s="4">
-        <v>2532384</v>
+        <v>2545730</v>
       </c>
       <c r="H21" s="4">
-        <v>848.3</v>
+        <v>858.7</v>
       </c>
       <c r="I21" s="4">
         <v>90</v>
       </c>
       <c r="J21" s="4">
-        <v>110.740696504231</v>
+        <v>111.564378424705</v>
       </c>
       <c r="K21" s="4">
-        <v>22.890042983404001</v>
+        <v>23.009761534906399</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="4">
-        <v>7.97</v>
+        <v>6.39</v>
       </c>
       <c r="N21" s="4">
-        <v>2.298</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="O21" s="4">
-        <v>328.4</v>
+        <v>187.6</v>
       </c>
       <c r="P21" s="4">
-        <v>11806.58</v>
+        <v>8443.2900000000009</v>
       </c>
       <c r="Q21" s="4">
-        <v>11780.21</v>
+        <v>7986.21</v>
       </c>
       <c r="R21" s="4">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
       <c r="S21" s="4">
-        <v>7.07</v>
+        <v>5.66</v>
       </c>
       <c r="T21" s="4">
-        <v>6.2E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="U21" s="4">
-        <v>6.2E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="V21" s="4">
-        <v>7.06</v>
+        <v>5.5</v>
       </c>
       <c r="W21" s="4">
-        <v>-0.2</v>
+        <v>-5.4</v>
       </c>
       <c r="X21" s="4">
-        <v>1.0920000000000001</v>
+        <v>1.095</v>
       </c>
       <c r="Y21" s="4">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="Z21" s="4">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="AA21" s="4">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="AB21" s="4">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AC21" s="4">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="AD21" s="4">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="AF21" s="4">
-        <v>847</v>
+        <v>495</v>
       </c>
       <c r="AG21" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH21" s="4">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="AI21" s="4">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="AJ21" s="4">
         <v>16</v>
@@ -3575,111 +3719,111 @@
         <v>2500</v>
       </c>
       <c r="AL21" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="2:38">
       <c r="B22" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="F22" s="4">
-        <v>37472560</v>
+        <v>37557668</v>
       </c>
       <c r="G22" s="4">
-        <v>2532238</v>
+        <v>2545265</v>
       </c>
       <c r="H22" s="4">
-        <v>817.8</v>
+        <v>780.6</v>
       </c>
       <c r="I22" s="4">
         <v>90</v>
       </c>
       <c r="J22" s="4">
-        <v>110.73257094617099</v>
+        <v>111.56250772514601</v>
       </c>
       <c r="K22" s="4">
-        <v>22.8887111589478</v>
+        <v>23.005569464539299</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" s="4">
-        <v>6.89</v>
+        <v>5.69</v>
       </c>
       <c r="N22" s="4">
-        <v>2.3359999999999999</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="O22" s="4">
-        <v>213.3</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="P22" s="4">
-        <v>9539.8700000000008</v>
+        <v>6804.94</v>
       </c>
       <c r="Q22" s="4">
-        <v>9250.83</v>
+        <v>6639.1</v>
       </c>
       <c r="R22" s="4">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="S22" s="4">
-        <v>6.11</v>
+        <v>5.04</v>
       </c>
       <c r="T22" s="4">
-        <v>9.0999999999999998E-2</v>
+        <v>0.107</v>
       </c>
       <c r="U22" s="4">
-        <v>9.1999999999999998E-2</v>
+        <v>0.107</v>
       </c>
       <c r="V22" s="4">
-        <v>6.02</v>
+        <v>4.96</v>
       </c>
       <c r="W22" s="4">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
       <c r="X22" s="4">
-        <v>1.095</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="Y22" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="Z22" s="4">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="AA22" s="4">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="AB22" s="4">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="AC22" s="4">
-        <v>5.2</v>
+        <v>8.9</v>
       </c>
       <c r="AD22" s="4">
         <v>135</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="AF22" s="4">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="AG22" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH22" s="4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AI22" s="4">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="AJ22" s="4">
         <v>16</v>
@@ -3688,463 +3832,2155 @@
         <v>2500</v>
       </c>
       <c r="AL22" s="24">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" ht="15" thickBot="1">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="4">
-        <v>37472086</v>
-      </c>
-      <c r="G23" s="4">
-        <v>2532216</v>
-      </c>
-      <c r="H23" s="4">
-        <v>826.8</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="6">
+        <v>37557362</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2544770</v>
+      </c>
+      <c r="H23" s="6">
+        <v>800</v>
+      </c>
+      <c r="I23" s="6">
         <v>90</v>
       </c>
-      <c r="J23" s="4">
-        <v>110.727951798418</v>
-      </c>
-      <c r="K23" s="4">
-        <v>22.8885046647259</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="4">
-        <v>6.91</v>
-      </c>
-      <c r="N23" s="4">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="O23" s="4">
-        <v>214.8</v>
-      </c>
-      <c r="P23" s="4">
-        <v>9560.6200000000008</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>9031</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="S23" s="4">
-        <v>6.13</v>
-      </c>
-      <c r="T23" s="4">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="V23" s="4">
-        <v>5.95</v>
-      </c>
-      <c r="W23" s="4">
-        <v>-5.5</v>
-      </c>
-      <c r="X23" s="4">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="Y23" s="4">
+      <c r="J23" s="6">
+        <v>111.559504611355</v>
+      </c>
+      <c r="K23" s="6">
+        <v>23.001110486451601</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="6">
+        <v>5.97</v>
+      </c>
+      <c r="N23" s="6">
+        <v>2.1869999999999998</v>
+      </c>
+      <c r="O23" s="6">
+        <v>152.1</v>
+      </c>
+      <c r="P23" s="6">
+        <v>7470.45</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>7210.37</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="S23" s="6">
+        <v>5.29</v>
+      </c>
+      <c r="T23" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="U23" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="V23" s="6">
+        <v>5.19</v>
+      </c>
+      <c r="W23" s="6">
+        <v>-3.5</v>
+      </c>
+      <c r="X23" s="6">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z23" s="6">
         <v>0.16</v>
       </c>
-      <c r="Z23" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>270</v>
-      </c>
-      <c r="AB23" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AD23" s="4">
-        <v>157</v>
-      </c>
-      <c r="AE23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>448</v>
-      </c>
-      <c r="AG23" s="4">
-        <v>140</v>
-      </c>
-      <c r="AH23" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>280</v>
-      </c>
-      <c r="AJ23" s="4">
+      <c r="AA23" s="6">
+        <v>247</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>135</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>455</v>
+      </c>
+      <c r="AG23" s="6">
+        <v>145</v>
+      </c>
+      <c r="AH23" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="AI23" s="6">
+        <v>262</v>
+      </c>
+      <c r="AJ23" s="6">
         <v>16</v>
       </c>
       <c r="AK23" s="24">
         <v>2500</v>
       </c>
       <c r="AL23" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="2:38">
       <c r="B24" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="4">
-        <v>37471645</v>
-      </c>
-      <c r="G24" s="4">
-        <v>2532294</v>
-      </c>
-      <c r="H24" s="4">
-        <v>853</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24">
+        <v>37556912</v>
+      </c>
+      <c r="G24">
+        <v>2544706</v>
+      </c>
+      <c r="H24">
+        <v>811.1</v>
+      </c>
+      <c r="I24">
         <v>90</v>
       </c>
-      <c r="J24" s="4">
-        <v>110.723652450534</v>
-      </c>
-      <c r="K24" s="4">
-        <v>22.889201581235401</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="N24" s="4">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="O24" s="4">
-        <v>241.2</v>
-      </c>
-      <c r="P24" s="4">
-        <v>10241.41</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>9969.85</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="S24" s="4">
-        <v>6.39</v>
-      </c>
-      <c r="T24" s="4">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="U24" s="4">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="V24" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="W24" s="4">
-        <v>-2.7</v>
-      </c>
-      <c r="X24" s="4">
-        <v>1.091</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="AA24" s="4">
+      <c r="J24">
+        <v>111.555113141729</v>
+      </c>
+      <c r="K24">
+        <v>23.0005480483272</v>
+      </c>
+      <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>6.03</v>
+      </c>
+      <c r="N24">
+        <v>2.1680000000000001</v>
+      </c>
+      <c r="O24">
+        <v>158.6</v>
+      </c>
+      <c r="P24">
+        <v>7605.19</v>
+      </c>
+      <c r="Q24">
+        <v>7335.5</v>
+      </c>
+      <c r="R24">
+        <v>0.35</v>
+      </c>
+      <c r="S24">
+        <v>5.34</v>
+      </c>
+      <c r="T24">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="U24">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="V24">
+        <v>5.23</v>
+      </c>
+      <c r="W24">
+        <v>-3.5</v>
+      </c>
+      <c r="X24">
+        <v>1.101</v>
+      </c>
+      <c r="Y24">
+        <v>0.09</v>
+      </c>
+      <c r="Z24">
+        <v>0.38</v>
+      </c>
+      <c r="AA24">
+        <v>247</v>
+      </c>
+      <c r="AB24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC24">
+        <v>7.1</v>
+      </c>
+      <c r="AD24">
         <v>135</v>
       </c>
-      <c r="AB24" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="AC24" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="AD24" s="4">
-        <v>202</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>448</v>
-      </c>
-      <c r="AG24" s="4">
-        <v>140</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>100</v>
-      </c>
-      <c r="AJ24" s="4">
+      <c r="AE24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF24">
+        <v>429</v>
+      </c>
+      <c r="AG24">
+        <v>145</v>
+      </c>
+      <c r="AH24">
+        <v>3</v>
+      </c>
+      <c r="AI24">
+        <v>227</v>
+      </c>
+      <c r="AJ24">
         <v>16</v>
       </c>
       <c r="AK24" s="24">
         <v>2500</v>
       </c>
       <c r="AL24" s="24">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="25" spans="2:38">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="4">
-        <v>37471453</v>
-      </c>
-      <c r="G25" s="4">
-        <v>2532375</v>
-      </c>
-      <c r="H25" s="4">
-        <v>828.5</v>
-      </c>
-      <c r="I25" s="4">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25">
+        <v>37556598</v>
+      </c>
+      <c r="G25">
+        <v>2544414</v>
+      </c>
+      <c r="H25">
+        <v>832</v>
+      </c>
+      <c r="I25">
         <v>90</v>
       </c>
-      <c r="J25" s="4">
-        <v>110.721779746382</v>
-      </c>
-      <c r="K25" s="4">
-        <v>22.889929735810298</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="4">
-        <v>6.93</v>
-      </c>
-      <c r="N25" s="4">
-        <v>2.367</v>
-      </c>
-      <c r="O25" s="4">
-        <v>215.4</v>
-      </c>
-      <c r="P25" s="4">
-        <v>9614.36</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>9249.32</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="S25" s="4">
+      <c r="J25">
+        <v>111.552039809756</v>
+      </c>
+      <c r="K25">
+        <v>22.9979221636647</v>
+      </c>
+      <c r="L25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25">
         <v>6.15</v>
       </c>
-      <c r="T25" s="4">
+      <c r="N25">
+        <v>2.2170000000000001</v>
+      </c>
+      <c r="O25">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="P25">
+        <v>7907.54</v>
+      </c>
+      <c r="Q25">
+        <v>7594.06</v>
+      </c>
+      <c r="R25">
+        <v>0.36</v>
+      </c>
+      <c r="S25">
+        <v>5.45</v>
+      </c>
+      <c r="T25">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="U25" s="4">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="V25" s="4">
-        <v>6</v>
-      </c>
-      <c r="W25" s="4">
-        <v>-3.8</v>
-      </c>
-      <c r="X25" s="4">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="Y25" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="AA25" s="4">
-        <v>90</v>
-      </c>
-      <c r="AB25" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="AC25" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="AD25" s="4">
-        <v>270</v>
-      </c>
-      <c r="AE25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ25" s="4">
+      <c r="U25">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V25">
+        <v>5.34</v>
+      </c>
+      <c r="W25">
+        <v>-4</v>
+      </c>
+      <c r="X25">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="Y25">
+        <v>0.09</v>
+      </c>
+      <c r="Z25">
+        <v>0.17</v>
+      </c>
+      <c r="AA25">
+        <v>22</v>
+      </c>
+      <c r="AB25">
+        <v>3.1</v>
+      </c>
+      <c r="AC25">
+        <v>5.3</v>
+      </c>
+      <c r="AD25">
+        <v>135</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF25">
+        <v>429</v>
+      </c>
+      <c r="AG25">
+        <v>145</v>
+      </c>
+      <c r="AH25">
+        <v>3</v>
+      </c>
+      <c r="AI25">
+        <v>47</v>
+      </c>
+      <c r="AJ25">
         <v>16</v>
       </c>
       <c r="AK25" s="24">
         <v>2500</v>
       </c>
       <c r="AL25" s="24">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38" ht="15" thickBot="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="6">
-        <v>37476782</v>
-      </c>
-      <c r="G26" s="6">
-        <v>2540171</v>
-      </c>
-      <c r="H26" s="6">
-        <v>847.1</v>
-      </c>
-      <c r="I26" s="6">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26">
+        <v>37556315</v>
+      </c>
+      <c r="G26">
+        <v>2544023</v>
+      </c>
+      <c r="H26">
+        <v>808.4</v>
+      </c>
+      <c r="I26">
         <v>90</v>
       </c>
-      <c r="J26" s="6">
-        <v>110.773599105945</v>
-      </c>
-      <c r="K26" s="6">
-        <v>22.960408836323801</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="6">
-        <v>6.64</v>
-      </c>
-      <c r="N26" s="6">
-        <v>2.2509999999999999</v>
-      </c>
-      <c r="O26" s="6">
-        <v>198</v>
-      </c>
-      <c r="P26" s="6">
-        <v>8878.98</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>6950.48</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="S26" s="6">
-        <v>5.89</v>
-      </c>
-      <c r="T26" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="V26" s="6">
-        <v>5.05</v>
-      </c>
-      <c r="W26" s="6">
-        <v>-21.7</v>
-      </c>
-      <c r="X26" s="6">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="Z26" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>315</v>
-      </c>
-      <c r="AB26" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="AC26" s="6">
-        <v>5</v>
-      </c>
-      <c r="AD26" s="6">
-        <v>135</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ26" s="6">
+      <c r="J26">
+        <v>111.54926532849601</v>
+      </c>
+      <c r="K26">
+        <v>22.9944012553132</v>
+      </c>
+      <c r="L26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>6.15</v>
+      </c>
+      <c r="N26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O26">
+        <v>165.3</v>
+      </c>
+      <c r="P26">
+        <v>7906.88</v>
+      </c>
+      <c r="Q26">
+        <v>7617.17</v>
+      </c>
+      <c r="R26">
+        <v>0.36</v>
+      </c>
+      <c r="S26">
+        <v>5.45</v>
+      </c>
+      <c r="T26">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U26">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V26">
+        <v>5.35</v>
+      </c>
+      <c r="W26">
+        <v>-3.7</v>
+      </c>
+      <c r="X26">
+        <v>1.101</v>
+      </c>
+      <c r="Y26">
+        <v>0.06</v>
+      </c>
+      <c r="Z26">
+        <v>0.13</v>
+      </c>
+      <c r="AA26">
+        <v>22</v>
+      </c>
+      <c r="AB26">
+        <v>3.6</v>
+      </c>
+      <c r="AC26">
+        <v>5.6</v>
+      </c>
+      <c r="AD26">
+        <v>180</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF26">
+        <v>483</v>
+      </c>
+      <c r="AG26">
+        <v>145</v>
+      </c>
+      <c r="AH26">
+        <v>3.3</v>
+      </c>
+      <c r="AI26">
+        <v>36</v>
+      </c>
+      <c r="AJ26">
         <v>16</v>
       </c>
       <c r="AK26" s="24">
         <v>2500</v>
       </c>
       <c r="AL26" s="24">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:38" ht="18.75">
-      <c r="AI32" s="8"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27">
+        <v>37555632</v>
+      </c>
+      <c r="G27">
+        <v>2544281</v>
+      </c>
+      <c r="H27">
+        <v>754.2</v>
+      </c>
+      <c r="I27">
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <v>111.54261326645</v>
+      </c>
+      <c r="K27">
+        <v>22.996753804463101</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>5.49</v>
+      </c>
+      <c r="N27">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="O27">
+        <v>119.8</v>
+      </c>
+      <c r="P27">
+        <v>6237.84</v>
+      </c>
+      <c r="Q27">
+        <v>6060.84</v>
+      </c>
+      <c r="R27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S27">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="T27">
+        <v>0.12</v>
+      </c>
+      <c r="U27">
+        <v>0.12</v>
+      </c>
+      <c r="V27">
+        <v>4.79</v>
+      </c>
+      <c r="W27">
+        <v>-2.8</v>
+      </c>
+      <c r="X27">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="Y27">
+        <v>0.09</v>
+      </c>
+      <c r="Z27">
+        <v>0.23</v>
+      </c>
+      <c r="AA27">
+        <v>112</v>
+      </c>
+      <c r="AB27">
+        <v>1.5</v>
+      </c>
+      <c r="AC27">
+        <v>5</v>
+      </c>
+      <c r="AD27">
+        <v>247</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF27">
+        <v>730</v>
+      </c>
+      <c r="AG27">
+        <v>145</v>
+      </c>
+      <c r="AH27">
+        <v>5</v>
+      </c>
+      <c r="AI27">
+        <v>111</v>
+      </c>
+      <c r="AJ27">
+        <v>16</v>
+      </c>
+      <c r="AK27" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL27" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38">
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28">
+        <v>37554642</v>
+      </c>
+      <c r="G28">
+        <v>2540358</v>
+      </c>
+      <c r="H28">
+        <v>729.1</v>
+      </c>
+      <c r="I28">
+        <v>90</v>
+      </c>
+      <c r="J28">
+        <v>111.532818596911</v>
+      </c>
+      <c r="K28">
+        <v>22.961363992861202</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>6.16</v>
+      </c>
+      <c r="N28">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="O28">
+        <v>174.7</v>
+      </c>
+      <c r="P28">
+        <v>7911.83</v>
+      </c>
+      <c r="Q28">
+        <v>7820.97</v>
+      </c>
+      <c r="R28">
+        <v>0.36</v>
+      </c>
+      <c r="S28">
+        <v>5.45</v>
+      </c>
+      <c r="T28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="U28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="V28">
+        <v>5.43</v>
+      </c>
+      <c r="W28">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="X28">
+        <v>1.111</v>
+      </c>
+      <c r="Y28">
+        <v>0.09</v>
+      </c>
+      <c r="Z28">
+        <v>0.15</v>
+      </c>
+      <c r="AA28">
+        <v>45</v>
+      </c>
+      <c r="AB28">
+        <v>1.9</v>
+      </c>
+      <c r="AC28">
+        <v>3.4</v>
+      </c>
+      <c r="AD28">
+        <v>337</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF28">
+        <v>431</v>
+      </c>
+      <c r="AG28">
+        <v>145</v>
+      </c>
+      <c r="AH28">
+        <v>3</v>
+      </c>
+      <c r="AI28">
+        <v>230</v>
+      </c>
+      <c r="AJ28">
+        <v>16</v>
+      </c>
+      <c r="AK28" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL28" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" ht="14.25" customHeight="1">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29">
+        <v>37554313</v>
+      </c>
+      <c r="G29">
+        <v>2540079</v>
+      </c>
+      <c r="H29">
+        <v>720.3</v>
+      </c>
+      <c r="I29">
+        <v>90</v>
+      </c>
+      <c r="J29">
+        <v>111.529600787635</v>
+      </c>
+      <c r="K29">
+        <v>22.958855509698299</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>6.26</v>
+      </c>
+      <c r="N29">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="O29">
+        <v>187.3</v>
+      </c>
+      <c r="P29">
+        <v>8132.02</v>
+      </c>
+      <c r="Q29">
+        <v>7947.55</v>
+      </c>
+      <c r="R29">
+        <v>0.37</v>
+      </c>
+      <c r="S29">
+        <v>5.55</v>
+      </c>
+      <c r="T29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="U29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="V29">
+        <v>5.49</v>
+      </c>
+      <c r="W29">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="X29">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="Y29">
+        <v>0.06</v>
+      </c>
+      <c r="Z29">
+        <v>0.19</v>
+      </c>
+      <c r="AA29">
+        <v>247</v>
+      </c>
+      <c r="AB29">
+        <v>3.5</v>
+      </c>
+      <c r="AC29">
+        <v>6.5</v>
+      </c>
+      <c r="AD29">
+        <v>180</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF29">
+        <v>416</v>
+      </c>
+      <c r="AG29">
+        <v>145</v>
+      </c>
+      <c r="AH29">
+        <v>2.9</v>
+      </c>
+      <c r="AI29" s="8">
+        <v>255</v>
+      </c>
+      <c r="AJ29">
+        <v>16</v>
+      </c>
+      <c r="AK29" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL29" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38">
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30">
+        <v>37553910</v>
+      </c>
+      <c r="G30">
+        <v>2539974</v>
+      </c>
+      <c r="H30">
+        <v>753.3</v>
+      </c>
+      <c r="I30">
+        <v>90</v>
+      </c>
+      <c r="J30">
+        <v>111.525667637824</v>
+      </c>
+      <c r="K30">
+        <v>22.957920484071799</v>
+      </c>
+      <c r="L30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>6.51</v>
+      </c>
+      <c r="N30">
+        <v>2.093</v>
+      </c>
+      <c r="O30">
+        <v>205</v>
+      </c>
+      <c r="P30">
+        <v>8741.0400000000009</v>
+      </c>
+      <c r="Q30">
+        <v>8500.26</v>
+      </c>
+      <c r="R30">
+        <v>0.4</v>
+      </c>
+      <c r="S30">
+        <v>5.77</v>
+      </c>
+      <c r="T30">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="U30">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="V30">
+        <v>5.69</v>
+      </c>
+      <c r="W30">
+        <v>-2.8</v>
+      </c>
+      <c r="X30">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>0.05</v>
+      </c>
+      <c r="Z30">
+        <v>0.09</v>
+      </c>
+      <c r="AA30">
+        <v>270</v>
+      </c>
+      <c r="AB30">
+        <v>3.1</v>
+      </c>
+      <c r="AC30">
+        <v>4.8</v>
+      </c>
+      <c r="AD30">
+        <v>157</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF30">
+        <v>416</v>
+      </c>
+      <c r="AG30">
+        <v>145</v>
+      </c>
+      <c r="AH30">
+        <v>2.9</v>
+      </c>
+      <c r="AI30">
+        <v>75</v>
+      </c>
+      <c r="AJ30">
+        <v>16</v>
+      </c>
+      <c r="AK30" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL30" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38">
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31">
+        <v>37552485</v>
+      </c>
+      <c r="G31">
+        <v>2540381</v>
+      </c>
+      <c r="H31">
+        <v>702.8</v>
+      </c>
+      <c r="I31">
+        <v>90</v>
+      </c>
+      <c r="J31">
+        <v>111.511786956096</v>
+      </c>
+      <c r="K31">
+        <v>22.9616409366722</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>5.86</v>
+      </c>
+      <c r="N31">
+        <v>2.125</v>
+      </c>
+      <c r="O31">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="P31">
+        <v>7244.16</v>
+      </c>
+      <c r="Q31">
+        <v>7158.41</v>
+      </c>
+      <c r="R31">
+        <v>0.33</v>
+      </c>
+      <c r="S31">
+        <v>5.19</v>
+      </c>
+      <c r="T31">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="U31">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="V31">
+        <v>5.16</v>
+      </c>
+      <c r="W31">
+        <v>-1.2</v>
+      </c>
+      <c r="X31">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="Y31">
+        <v>0.06</v>
+      </c>
+      <c r="Z31">
+        <v>0.1</v>
+      </c>
+      <c r="AA31">
+        <v>292</v>
+      </c>
+      <c r="AB31">
+        <v>1.2</v>
+      </c>
+      <c r="AC31">
+        <v>2.8</v>
+      </c>
+      <c r="AD31">
+        <v>270</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF31">
+        <v>1184</v>
+      </c>
+      <c r="AG31">
+        <v>145</v>
+      </c>
+      <c r="AH31">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AI31">
+        <v>266</v>
+      </c>
+      <c r="AJ31">
+        <v>16</v>
+      </c>
+      <c r="AK31" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL31" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32">
+        <v>37551303</v>
+      </c>
+      <c r="G32">
+        <v>2540307</v>
+      </c>
+      <c r="H32">
+        <v>684.7</v>
+      </c>
+      <c r="I32">
+        <v>90</v>
+      </c>
+      <c r="J32">
+        <v>111.500259030252</v>
+      </c>
+      <c r="K32">
+        <v>22.961009524821101</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>5.65</v>
+      </c>
+      <c r="N32">
+        <v>2.149</v>
+      </c>
+      <c r="O32">
+        <v>133</v>
+      </c>
+      <c r="P32">
+        <v>6739.28</v>
+      </c>
+      <c r="Q32">
+        <v>6678.74</v>
+      </c>
+      <c r="R32">
+        <v>0.31</v>
+      </c>
+      <c r="S32">
+        <v>5.01</v>
+      </c>
+      <c r="T32">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="U32">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="V32">
+        <v>4.99</v>
+      </c>
+      <c r="W32">
+        <v>-0.9</v>
+      </c>
+      <c r="X32">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="Y32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z32">
+        <v>0.33</v>
+      </c>
+      <c r="AA32">
+        <v>270</v>
+      </c>
+      <c r="AB32">
+        <v>2.8</v>
+      </c>
+      <c r="AC32">
+        <v>3.8</v>
+      </c>
+      <c r="AD32">
+        <v>180</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF32">
+        <v>435</v>
+      </c>
+      <c r="AG32">
+        <v>145</v>
+      </c>
+      <c r="AH32">
+        <v>3</v>
+      </c>
+      <c r="AI32">
+        <v>273</v>
+      </c>
+      <c r="AJ32">
+        <v>16</v>
+      </c>
+      <c r="AK32" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL32" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38">
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33">
+        <v>37550869</v>
+      </c>
+      <c r="G33">
+        <v>2540330</v>
+      </c>
+      <c r="H33">
+        <v>736.2</v>
+      </c>
+      <c r="I33">
+        <v>90</v>
+      </c>
+      <c r="J33">
+        <v>111.496027947122</v>
+      </c>
+      <c r="K33">
+        <v>22.961230495848401</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>5.99</v>
+      </c>
+      <c r="N33">
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="O33">
+        <v>155.1</v>
+      </c>
+      <c r="P33">
+        <v>7586.29</v>
+      </c>
+      <c r="Q33">
+        <v>7394.09</v>
+      </c>
+      <c r="R33">
+        <v>0.35</v>
+      </c>
+      <c r="S33">
+        <v>5.31</v>
+      </c>
+      <c r="T33">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="U33">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="V33">
+        <v>5.25</v>
+      </c>
+      <c r="W33">
+        <v>-2.5</v>
+      </c>
+      <c r="X33">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Y33">
+        <v>0.05</v>
+      </c>
+      <c r="Z33">
+        <v>0.16</v>
+      </c>
+      <c r="AA33">
+        <v>247</v>
+      </c>
+      <c r="AB33">
+        <v>3.6</v>
+      </c>
+      <c r="AC33">
+        <v>5</v>
+      </c>
+      <c r="AD33">
+        <v>157</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF33">
+        <v>391</v>
+      </c>
+      <c r="AG33">
+        <v>145</v>
+      </c>
+      <c r="AH33">
+        <v>2.7</v>
+      </c>
+      <c r="AI33">
+        <v>230</v>
+      </c>
+      <c r="AJ33">
+        <v>16</v>
+      </c>
+      <c r="AK33" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL33" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38">
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34">
+        <v>37550569</v>
+      </c>
+      <c r="G34">
+        <v>2540079</v>
+      </c>
+      <c r="H34">
+        <v>725.2</v>
+      </c>
+      <c r="I34">
+        <v>90</v>
+      </c>
+      <c r="J34">
+        <v>111.49309448870601</v>
+      </c>
+      <c r="K34">
+        <v>22.958973202367002</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>6.02</v>
+      </c>
+      <c r="N34">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="O34">
+        <v>159.9</v>
+      </c>
+      <c r="P34">
+        <v>7640.02</v>
+      </c>
+      <c r="Q34">
+        <v>7459.28</v>
+      </c>
+      <c r="R34">
+        <v>0.35</v>
+      </c>
+      <c r="S34">
+        <v>5.34</v>
+      </c>
+      <c r="T34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="U34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="V34">
+        <v>5.28</v>
+      </c>
+      <c r="W34">
+        <v>-2.4</v>
+      </c>
+      <c r="X34">
+        <v>1.111</v>
+      </c>
+      <c r="Y34">
+        <v>0.08</v>
+      </c>
+      <c r="Z34">
+        <v>0.16</v>
+      </c>
+      <c r="AA34">
+        <v>22</v>
+      </c>
+      <c r="AB34">
+        <v>2.4</v>
+      </c>
+      <c r="AC34">
+        <v>4.5</v>
+      </c>
+      <c r="AD34">
+        <v>247</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF34">
+        <v>391</v>
+      </c>
+      <c r="AG34">
+        <v>145</v>
+      </c>
+      <c r="AH34">
+        <v>2.7</v>
+      </c>
+      <c r="AI34">
+        <v>50</v>
+      </c>
+      <c r="AJ34">
+        <v>16</v>
+      </c>
+      <c r="AK34" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL34" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38">
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35">
+        <v>37557952</v>
+      </c>
+      <c r="G35">
+        <v>2550398</v>
+      </c>
+      <c r="H35">
+        <v>884.9</v>
+      </c>
+      <c r="I35">
+        <v>90</v>
+      </c>
+      <c r="J35">
+        <v>111.565471130772</v>
+      </c>
+      <c r="K35">
+        <v>23.0519073022421</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>6.52</v>
+      </c>
+      <c r="N35">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="O35">
+        <v>197</v>
+      </c>
+      <c r="P35">
+        <v>8886.6200000000008</v>
+      </c>
+      <c r="Q35">
+        <v>8456.58</v>
+      </c>
+      <c r="R35">
+        <v>0.41</v>
+      </c>
+      <c r="S35">
+        <v>5.79</v>
+      </c>
+      <c r="T35">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="U35">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="V35">
+        <v>5.66</v>
+      </c>
+      <c r="W35">
+        <v>-4.8</v>
+      </c>
+      <c r="X35">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="Y35">
+        <v>0.04</v>
+      </c>
+      <c r="Z35">
+        <v>0.09</v>
+      </c>
+      <c r="AA35">
+        <v>247</v>
+      </c>
+      <c r="AB35">
+        <v>2.4</v>
+      </c>
+      <c r="AC35">
+        <v>3.5</v>
+      </c>
+      <c r="AD35">
+        <v>337</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF35">
+        <v>462</v>
+      </c>
+      <c r="AG35">
+        <v>145</v>
+      </c>
+      <c r="AH35">
+        <v>3.2</v>
+      </c>
+      <c r="AI35">
+        <v>76</v>
+      </c>
+      <c r="AJ35">
+        <v>16</v>
+      </c>
+      <c r="AK35" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL35" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38">
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36">
+        <v>37558400</v>
+      </c>
+      <c r="G36">
+        <v>2550511</v>
+      </c>
+      <c r="H36">
+        <v>825</v>
+      </c>
+      <c r="I36">
+        <v>90</v>
+      </c>
+      <c r="J36">
+        <v>111.569846653241</v>
+      </c>
+      <c r="K36">
+        <v>23.052911922687301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>6.1</v>
+      </c>
+      <c r="N36">
+        <v>2.1819999999999999</v>
+      </c>
+      <c r="O36">
+        <v>164.9</v>
+      </c>
+      <c r="P36">
+        <v>7844.43</v>
+      </c>
+      <c r="Q36">
+        <v>7551.74</v>
+      </c>
+      <c r="R36">
+        <v>0.36</v>
+      </c>
+      <c r="S36">
+        <v>5.41</v>
+      </c>
+      <c r="T36">
+        <v>0.11</v>
+      </c>
+      <c r="U36">
+        <v>0.11</v>
+      </c>
+      <c r="V36">
+        <v>5.32</v>
+      </c>
+      <c r="W36">
+        <v>-3.7</v>
+      </c>
+      <c r="X36">
+        <v>1.099</v>
+      </c>
+      <c r="Y36">
+        <v>0.06</v>
+      </c>
+      <c r="Z36">
+        <v>0.22</v>
+      </c>
+      <c r="AA36">
+        <v>270</v>
+      </c>
+      <c r="AB36">
+        <v>3.3</v>
+      </c>
+      <c r="AC36">
+        <v>5.7</v>
+      </c>
+      <c r="AD36">
+        <v>67</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF36">
+        <v>462</v>
+      </c>
+      <c r="AG36">
+        <v>145</v>
+      </c>
+      <c r="AH36">
+        <v>3.2</v>
+      </c>
+      <c r="AI36">
+        <v>256</v>
+      </c>
+      <c r="AJ36">
+        <v>16</v>
+      </c>
+      <c r="AK36" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL36" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38">
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37">
+        <v>37559723</v>
+      </c>
+      <c r="G37">
+        <v>2551956</v>
+      </c>
+      <c r="H37">
+        <v>748.5</v>
+      </c>
+      <c r="I37">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <v>111.582811688212</v>
+      </c>
+      <c r="K37">
+        <v>23.0659122045261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>6.11</v>
+      </c>
+      <c r="N37">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="O37">
+        <v>164.8</v>
+      </c>
+      <c r="P37">
+        <v>7982.93</v>
+      </c>
+      <c r="Q37">
+        <v>7818.62</v>
+      </c>
+      <c r="R37">
+        <v>0.36</v>
+      </c>
+      <c r="S37">
+        <v>5.42</v>
+      </c>
+      <c r="T37">
+        <v>0.1</v>
+      </c>
+      <c r="U37">
+        <v>0.1</v>
+      </c>
+      <c r="V37">
+        <v>5.37</v>
+      </c>
+      <c r="W37">
+        <v>-2.1</v>
+      </c>
+      <c r="X37">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="Y37">
+        <v>0.06</v>
+      </c>
+      <c r="Z37">
+        <v>0.13</v>
+      </c>
+      <c r="AA37">
+        <v>315</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>5.5</v>
+      </c>
+      <c r="AD37">
+        <v>67</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF37">
+        <v>568</v>
+      </c>
+      <c r="AG37">
+        <v>145</v>
+      </c>
+      <c r="AH37">
+        <v>3.9</v>
+      </c>
+      <c r="AI37">
+        <v>334</v>
+      </c>
+      <c r="AJ37">
+        <v>16</v>
+      </c>
+      <c r="AK37" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL37" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38">
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38">
+        <v>37559474</v>
+      </c>
+      <c r="G38">
+        <v>2552467</v>
+      </c>
+      <c r="H38">
+        <v>728.4</v>
+      </c>
+      <c r="I38">
+        <v>90</v>
+      </c>
+      <c r="J38">
+        <v>111.580401690936</v>
+      </c>
+      <c r="K38">
+        <v>23.0705351136757</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>5.81</v>
+      </c>
+      <c r="N38">
+        <v>2.177</v>
+      </c>
+      <c r="O38">
+        <v>143.6</v>
+      </c>
+      <c r="P38">
+        <v>7160.45</v>
+      </c>
+      <c r="Q38">
+        <v>6673.14</v>
+      </c>
+      <c r="R38">
+        <v>0.33</v>
+      </c>
+      <c r="S38">
+        <v>5.15</v>
+      </c>
+      <c r="T38">
+        <v>0.107</v>
+      </c>
+      <c r="U38">
+        <v>0.108</v>
+      </c>
+      <c r="V38">
+        <v>4.99</v>
+      </c>
+      <c r="W38">
+        <v>-6.8</v>
+      </c>
+      <c r="X38">
+        <v>1.111</v>
+      </c>
+      <c r="Y38">
+        <v>0.09</v>
+      </c>
+      <c r="Z38">
+        <v>0.16</v>
+      </c>
+      <c r="AA38">
+        <v>180</v>
+      </c>
+      <c r="AB38">
+        <v>2.8</v>
+      </c>
+      <c r="AC38">
+        <v>5.5</v>
+      </c>
+      <c r="AD38">
+        <v>45</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF38">
+        <v>568</v>
+      </c>
+      <c r="AG38">
+        <v>145</v>
+      </c>
+      <c r="AH38">
+        <v>3.9</v>
+      </c>
+      <c r="AI38">
+        <v>154</v>
+      </c>
+      <c r="AJ38">
+        <v>16</v>
+      </c>
+      <c r="AK38" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL38" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38">
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39">
+        <v>37558707</v>
+      </c>
+      <c r="G39">
+        <v>2552362</v>
+      </c>
+      <c r="H39">
+        <v>724.7</v>
+      </c>
+      <c r="I39">
+        <v>90</v>
+      </c>
+      <c r="J39">
+        <v>111.572912879283</v>
+      </c>
+      <c r="K39">
+        <v>23.069614351841</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>5.51</v>
+      </c>
+      <c r="N39">
+        <v>2.157</v>
+      </c>
+      <c r="O39">
+        <v>126.6</v>
+      </c>
+      <c r="P39">
+        <v>6293.21</v>
+      </c>
+      <c r="Q39">
+        <v>6050.99</v>
+      </c>
+      <c r="R39">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S39">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="T39">
+        <v>0.113</v>
+      </c>
+      <c r="U39">
+        <v>0.113</v>
+      </c>
+      <c r="V39">
+        <v>4.8</v>
+      </c>
+      <c r="W39">
+        <v>-3.8</v>
+      </c>
+      <c r="X39">
+        <v>1.111</v>
+      </c>
+      <c r="Y39">
+        <v>0.12</v>
+      </c>
+      <c r="Z39">
+        <v>0.2</v>
+      </c>
+      <c r="AA39">
+        <v>45</v>
+      </c>
+      <c r="AB39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD39">
+        <v>337</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF39">
+        <v>774</v>
+      </c>
+      <c r="AG39">
+        <v>145</v>
+      </c>
+      <c r="AH39">
+        <v>5.3</v>
+      </c>
+      <c r="AI39">
+        <v>82</v>
+      </c>
+      <c r="AJ39">
+        <v>16</v>
+      </c>
+      <c r="AK39" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL39" s="24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38">
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40">
+        <v>37559315</v>
+      </c>
+      <c r="G40">
+        <v>2553645</v>
+      </c>
+      <c r="H40">
+        <v>753.4</v>
+      </c>
+      <c r="I40">
+        <v>90</v>
+      </c>
+      <c r="J40">
+        <v>111.578895610006</v>
+      </c>
+      <c r="K40">
+        <v>23.081177301957901</v>
+      </c>
+      <c r="L40" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40">
+        <v>6.31</v>
+      </c>
+      <c r="N40">
+        <v>2.069</v>
+      </c>
+      <c r="O40">
+        <v>191.8</v>
+      </c>
+      <c r="P40">
+        <v>7882.6</v>
+      </c>
+      <c r="Q40">
+        <v>7707.26</v>
+      </c>
+      <c r="R40">
+        <v>0.36</v>
+      </c>
+      <c r="S40">
+        <v>5.6</v>
+      </c>
+      <c r="T40">
+        <v>7.8E-2</v>
+      </c>
+      <c r="U40">
+        <v>7.8E-2</v>
+      </c>
+      <c r="V40">
+        <v>5.56</v>
+      </c>
+      <c r="W40">
+        <v>-1.2</v>
+      </c>
+      <c r="X40">
+        <v>1.107</v>
+      </c>
+      <c r="Y40">
+        <v>0.08</v>
+      </c>
+      <c r="Z40">
+        <v>0.15</v>
+      </c>
+      <c r="AA40">
+        <v>180</v>
+      </c>
+      <c r="AB40">
+        <v>3.6</v>
+      </c>
+      <c r="AC40">
+        <v>6.8</v>
+      </c>
+      <c r="AD40">
+        <v>67</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF40">
+        <v>1525</v>
+      </c>
+      <c r="AG40">
+        <v>140</v>
+      </c>
+      <c r="AH40">
+        <v>10.9</v>
+      </c>
+      <c r="AI40">
+        <v>208</v>
+      </c>
+      <c r="AJ40">
+        <v>16</v>
+      </c>
+      <c r="AK40">
+        <v>2500</v>
+      </c>
+      <c r="AL40">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38">
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41">
+        <v>37556430</v>
+      </c>
+      <c r="G41">
+        <v>2551008</v>
+      </c>
+      <c r="H41">
+        <v>818.8</v>
+      </c>
+      <c r="I41">
+        <v>90</v>
+      </c>
+      <c r="J41">
+        <v>111.550643035683</v>
+      </c>
+      <c r="K41">
+        <v>23.057467619895</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>6.01</v>
+      </c>
+      <c r="N41">
+        <v>2.202</v>
+      </c>
+      <c r="O41">
+        <v>159.1</v>
+      </c>
+      <c r="P41">
+        <v>7532.19</v>
+      </c>
+      <c r="Q41">
+        <v>7363.4</v>
+      </c>
+      <c r="R41">
+        <v>0.34</v>
+      </c>
+      <c r="S41">
+        <v>5.33</v>
+      </c>
+      <c r="T41">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="U41">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="V41">
+        <v>5.28</v>
+      </c>
+      <c r="W41">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="X41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y41">
+        <v>0.06</v>
+      </c>
+      <c r="Z41">
+        <v>0.1</v>
+      </c>
+      <c r="AA41">
+        <v>135</v>
+      </c>
+      <c r="AB41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC41">
+        <v>4.8</v>
+      </c>
+      <c r="AD41">
+        <v>337</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF41">
+        <v>1640</v>
+      </c>
+      <c r="AG41">
+        <v>145</v>
+      </c>
+      <c r="AH41">
+        <v>11.3</v>
+      </c>
+      <c r="AI41">
+        <v>112</v>
+      </c>
+      <c r="AJ41">
+        <v>16</v>
+      </c>
+      <c r="AK41" s="24">
+        <v>2500</v>
+      </c>
+      <c r="AL41" s="24">
+        <v>0.7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4157,7 +5993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E35"/>
     </sheetView>
   </sheetViews>
@@ -4169,10 +6005,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E1" t="str">
         <f>CONCATENATE(B1,".append(re.",A1,")")</f>
@@ -4180,48 +6016,48 @@
       </c>
       <c r="N1" s="12"/>
       <c r="Q1" s="18" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="AB1" s="15" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="21.75" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E35" si="0">CONCATENATE(B2,".append(re.",A2,")")</f>
@@ -4246,7 +6082,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -4268,10 +6104,10 @@
     </row>
     <row r="4" spans="1:28" ht="21.75" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -4284,7 +6120,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -4297,7 +6133,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -4310,7 +6146,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -4318,10 +6154,10 @@
       </c>
       <c r="N7" s="14"/>
       <c r="R7" s="12" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="X7" t="str">
         <f>CONCATENATE(R7,":",S7,",")</f>
@@ -4333,7 +6169,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -4341,10 +6177,10 @@
       </c>
       <c r="N8" s="14"/>
       <c r="R8" s="13" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" ref="X8:X13" si="1">CONCATENATE(R8,":",S8,",")</f>
@@ -4353,10 +6189,10 @@
     </row>
     <row r="9" spans="1:28" ht="21.75" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -4364,10 +6200,10 @@
       </c>
       <c r="N9" s="14"/>
       <c r="R9" s="13" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="1"/>
@@ -4379,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -4387,10 +6223,10 @@
       </c>
       <c r="N10" s="14"/>
       <c r="R10" s="13" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
@@ -4402,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -4410,10 +6246,10 @@
       </c>
       <c r="N11" s="9"/>
       <c r="R11" s="9" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="1"/>
@@ -4422,10 +6258,10 @@
     </row>
     <row r="12" spans="1:28" ht="27.75" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -4433,10 +6269,10 @@
       </c>
       <c r="N12" s="14"/>
       <c r="R12" s="14" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="1"/>
@@ -4445,20 +6281,20 @@
     </row>
     <row r="13" spans="1:28" ht="41.25" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>WeibullK_dict.append(re.WeibullK)</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="1"/>
@@ -4470,14 +6306,14 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>EnergyDensity_dict.append(re.EnergyDensity)</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="27.75" thickBot="1">
@@ -4485,14 +6321,14 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>PowerGeneration_dict.append(re.PowerGeneration)</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="27.75" thickBot="1">
@@ -4500,29 +6336,29 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>PowerGeneration_Weak_dict.append(re.PowerGeneration_Weak)</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="54.75" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>CapacityCoe_dict.append(re.CapacityCoe)</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21">
@@ -4530,7 +6366,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -4543,7 +6379,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -4555,7 +6391,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -4567,7 +6403,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -4579,7 +6415,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -4591,7 +6427,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -4603,7 +6439,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -4615,7 +6451,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -4627,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -4639,7 +6475,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -4651,7 +6487,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -4663,7 +6499,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -4675,7 +6511,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -4687,7 +6523,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -4699,7 +6535,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -4711,7 +6547,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -4723,7 +6559,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -4735,7 +6571,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -954,18 +954,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1311,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="AB31" workbookViewId="0">
+      <selection activeCell="AD46" sqref="AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1572,7 +1561,7 @@
         <v>2500</v>
       </c>
       <c r="AL2" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -1682,10 +1671,10 @@
         <v>16</v>
       </c>
       <c r="AK3" s="24">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="AL3" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1798,7 +1787,7 @@
         <v>2500</v>
       </c>
       <c r="AL4" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1911,7 +1900,7 @@
         <v>2500</v>
       </c>
       <c r="AL5" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -2024,7 +2013,7 @@
         <v>2500</v>
       </c>
       <c r="AL6" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -2137,7 +2126,7 @@
         <v>2500</v>
       </c>
       <c r="AL7" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -2250,7 +2239,7 @@
         <v>2500</v>
       </c>
       <c r="AL8" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -2363,7 +2352,7 @@
         <v>2500</v>
       </c>
       <c r="AL9" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -2476,7 +2465,7 @@
         <v>2500</v>
       </c>
       <c r="AL10" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -2589,7 +2578,7 @@
         <v>2500</v>
       </c>
       <c r="AL11" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -2702,7 +2691,7 @@
         <v>2500</v>
       </c>
       <c r="AL12" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -2815,7 +2804,7 @@
         <v>2500</v>
       </c>
       <c r="AL13" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -2928,7 +2917,7 @@
         <v>2500</v>
       </c>
       <c r="AL14" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -3041,7 +3030,7 @@
         <v>2500</v>
       </c>
       <c r="AL15" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -3154,7 +3143,7 @@
         <v>2500</v>
       </c>
       <c r="AL16" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="2:38">
@@ -3267,7 +3256,7 @@
         <v>2500</v>
       </c>
       <c r="AL17" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="18" spans="2:38">
@@ -3380,7 +3369,7 @@
         <v>2500</v>
       </c>
       <c r="AL18" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="2:38">
@@ -3493,7 +3482,7 @@
         <v>2500</v>
       </c>
       <c r="AL19" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="2:38">
@@ -3606,7 +3595,7 @@
         <v>2500</v>
       </c>
       <c r="AL20" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="21" spans="2:38">
@@ -3719,7 +3708,7 @@
         <v>2500</v>
       </c>
       <c r="AL21" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="22" spans="2:38">
@@ -3832,7 +3821,7 @@
         <v>2500</v>
       </c>
       <c r="AL22" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="23" spans="2:38" ht="15" thickBot="1">
@@ -3945,7 +3934,7 @@
         <v>2500</v>
       </c>
       <c r="AL23" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="24" spans="2:38">
@@ -4058,7 +4047,7 @@
         <v>2500</v>
       </c>
       <c r="AL24" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="25" spans="2:38">
@@ -4171,7 +4160,7 @@
         <v>2500</v>
       </c>
       <c r="AL25" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="26" spans="2:38">
@@ -4284,7 +4273,7 @@
         <v>2500</v>
       </c>
       <c r="AL26" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27" spans="2:38">
@@ -4397,7 +4386,7 @@
         <v>2500</v>
       </c>
       <c r="AL27" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="28" spans="2:38">
@@ -4510,7 +4499,7 @@
         <v>2500</v>
       </c>
       <c r="AL28" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1">
@@ -4623,7 +4612,7 @@
         <v>2500</v>
       </c>
       <c r="AL29" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="30" spans="2:38">
@@ -4736,7 +4725,7 @@
         <v>2500</v>
       </c>
       <c r="AL30" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="31" spans="2:38">
@@ -4849,7 +4838,7 @@
         <v>2500</v>
       </c>
       <c r="AL31" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="32" spans="2:38">
@@ -4962,7 +4951,7 @@
         <v>2500</v>
       </c>
       <c r="AL32" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="33" spans="2:38">
@@ -5075,7 +5064,7 @@
         <v>2500</v>
       </c>
       <c r="AL33" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="34" spans="2:38">
@@ -5188,7 +5177,7 @@
         <v>2500</v>
       </c>
       <c r="AL34" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="35" spans="2:38">
@@ -5301,7 +5290,7 @@
         <v>2500</v>
       </c>
       <c r="AL35" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="36" spans="2:38">
@@ -5414,7 +5403,7 @@
         <v>2500</v>
       </c>
       <c r="AL36" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="37" spans="2:38">
@@ -5527,7 +5516,7 @@
         <v>2500</v>
       </c>
       <c r="AL37" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="38" spans="2:38">
@@ -5640,7 +5629,7 @@
         <v>2500</v>
       </c>
       <c r="AL38" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="39" spans="2:38">
@@ -5753,7 +5742,7 @@
         <v>2500</v>
       </c>
       <c r="AL39" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="40" spans="2:38">
@@ -5865,7 +5854,7 @@
       <c r="AK40">
         <v>2500</v>
       </c>
-      <c r="AL40">
+      <c r="AL40" s="24">
         <v>0.69</v>
       </c>
     </row>
@@ -5979,7 +5968,7 @@
         <v>2500</v>
       </c>
       <c r="AL41" s="24">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75B62D-9F38-4A7C-90FF-373D3F046E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="5730" windowWidth="28170" windowHeight="11370"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="代码" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="171">
   <si>
     <t>X</t>
   </si>
@@ -572,21 +573,6 @@
     <t>tTurE-N-37</t>
   </si>
   <si>
-    <t>方案2</t>
-  </si>
-  <si>
-    <t>方案2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,13 +706,20 @@
   </si>
   <si>
     <t>tur_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案1</t>
+  </si>
+  <si>
+    <t>方案1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1297,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB31" workbookViewId="0">
-      <selection activeCell="AD46" sqref="AD46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1343,7 +1336,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -1456,13 +1449,13 @@
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2">
         <v>37567435</v>
@@ -1569,13 +1562,13 @@
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F3" s="4">
         <v>37567103</v>
@@ -1682,13 +1675,13 @@
         <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F4" s="4">
         <v>37566634</v>
@@ -1795,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4">
         <v>37566539</v>
@@ -1908,13 +1901,13 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F6" s="4">
         <v>37566428</v>
@@ -2021,13 +2014,13 @@
         <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F7" s="4">
         <v>37566051</v>
@@ -2134,13 +2127,13 @@
         <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4">
         <v>37566271</v>
@@ -2247,13 +2240,13 @@
         <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F9" s="4">
         <v>37564324</v>
@@ -2360,13 +2353,13 @@
         <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F10" s="4">
         <v>37564100</v>
@@ -2473,13 +2466,13 @@
         <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F11" s="4">
         <v>37564004</v>
@@ -2586,13 +2579,13 @@
         <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F12" s="4">
         <v>37563771</v>
@@ -2699,13 +2692,13 @@
         <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="4">
         <v>37563234</v>
@@ -2812,13 +2805,13 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F14" s="4">
         <v>37561099</v>
@@ -2925,13 +2918,13 @@
         <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F15" s="4">
         <v>37560633</v>
@@ -3038,13 +3031,13 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F16" s="4">
         <v>37559832</v>
@@ -3151,13 +3144,13 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F17" s="4">
         <v>37559344</v>
@@ -3264,13 +3257,13 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F18" s="4">
         <v>37558756</v>
@@ -3377,13 +3370,13 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F19" s="4">
         <v>37558409</v>
@@ -3490,13 +3483,13 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F20" s="4">
         <v>37558014</v>
@@ -3603,13 +3596,13 @@
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F21" s="4">
         <v>37557858</v>
@@ -3716,13 +3709,13 @@
         <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F22" s="4">
         <v>37557668</v>
@@ -3829,13 +3822,13 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F23" s="6">
         <v>37557362</v>
@@ -3942,13 +3935,13 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F24">
         <v>37556912</v>
@@ -4055,13 +4048,13 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F25">
         <v>37556598</v>
@@ -4168,13 +4161,13 @@
         <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F26">
         <v>37556315</v>
@@ -4281,13 +4274,13 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F27">
         <v>37555632</v>
@@ -4394,13 +4387,13 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F28">
         <v>37554642</v>
@@ -4507,13 +4500,13 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F29">
         <v>37554313</v>
@@ -4620,13 +4613,13 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F30">
         <v>37553910</v>
@@ -4733,13 +4726,13 @@
         <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F31">
         <v>37552485</v>
@@ -4846,13 +4839,13 @@
         <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F32">
         <v>37551303</v>
@@ -4959,13 +4952,13 @@
         <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F33">
         <v>37550869</v>
@@ -5072,13 +5065,13 @@
         <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F34">
         <v>37550569</v>
@@ -5185,13 +5178,13 @@
         <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F35">
         <v>37557952</v>
@@ -5298,13 +5291,13 @@
         <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F36">
         <v>37558400</v>
@@ -5411,13 +5404,13 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F37">
         <v>37559723</v>
@@ -5524,13 +5517,13 @@
         <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F38">
         <v>37559474</v>
@@ -5637,13 +5630,13 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F39">
         <v>37558707</v>
@@ -5750,13 +5743,13 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F40">
         <v>37559315</v>
@@ -5777,7 +5770,7 @@
         <v>23.081177301957901</v>
       </c>
       <c r="L40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M40">
         <v>6.31</v>
@@ -5834,7 +5827,7 @@
         <v>67</v>
       </c>
       <c r="AE40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AF40">
         <v>1525</v>
@@ -5863,13 +5856,13 @@
         <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F41">
         <v>37556430</v>
@@ -5979,7 +5972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75B62D-9F38-4A7C-90FF-373D3F046E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="代码" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -719,7 +718,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1290,11 +1289,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1444,7 +1443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="15" thickBot="1">
       <c r="B2" t="s">
         <v>99</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>777.3</v>
       </c>
       <c r="I2" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2">
         <v>111.65778251389099</v>
@@ -1557,7 +1556,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="15" thickBot="1">
       <c r="B3" t="s">
         <v>99</v>
       </c>
@@ -1579,8 +1578,8 @@
       <c r="H3" s="4">
         <v>762.7</v>
       </c>
-      <c r="I3" s="4">
-        <v>90</v>
+      <c r="I3" s="2">
+        <v>100</v>
       </c>
       <c r="J3" s="4">
         <v>111.65457016127699</v>
@@ -1670,7 +1669,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="15" thickBot="1">
       <c r="B4" t="s">
         <v>99</v>
       </c>
@@ -1692,8 +1691,8 @@
       <c r="H4" s="4">
         <v>763.5</v>
       </c>
-      <c r="I4" s="4">
-        <v>90</v>
+      <c r="I4" s="2">
+        <v>100</v>
       </c>
       <c r="J4" s="4">
         <v>111.65001503102199</v>
@@ -1783,7 +1782,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="15" thickBot="1">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -1805,8 +1804,8 @@
       <c r="H5" s="4">
         <v>813.4</v>
       </c>
-      <c r="I5" s="4">
-        <v>90</v>
+      <c r="I5" s="2">
+        <v>100</v>
       </c>
       <c r="J5" s="4">
         <v>111.649118862953</v>
@@ -1896,7 +1895,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" ht="15" thickBot="1">
       <c r="B6" t="s">
         <v>99</v>
       </c>
@@ -1918,8 +1917,8 @@
       <c r="H6" s="4">
         <v>872.9</v>
       </c>
-      <c r="I6" s="4">
-        <v>90</v>
+      <c r="I6" s="2">
+        <v>100</v>
       </c>
       <c r="J6" s="4">
         <v>111.648056775846</v>
@@ -2009,7 +2008,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" ht="15" thickBot="1">
       <c r="B7" t="s">
         <v>99</v>
       </c>
@@ -2031,8 +2030,8 @@
       <c r="H7" s="4">
         <v>830.4</v>
       </c>
-      <c r="I7" s="4">
-        <v>90</v>
+      <c r="I7" s="2">
+        <v>100</v>
       </c>
       <c r="J7" s="4">
         <v>111.644390831278</v>
@@ -2122,7 +2121,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" ht="15" thickBot="1">
       <c r="B8" t="s">
         <v>99</v>
       </c>
@@ -2144,8 +2143,8 @@
       <c r="H8" s="4">
         <v>827</v>
       </c>
-      <c r="I8" s="4">
-        <v>90</v>
+      <c r="I8" s="2">
+        <v>100</v>
       </c>
       <c r="J8" s="4">
         <v>111.646557539464</v>
@@ -2235,7 +2234,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" ht="15" thickBot="1">
       <c r="B9" t="s">
         <v>99</v>
       </c>
@@ -2257,8 +2256,8 @@
       <c r="H9" s="4">
         <v>801.8</v>
       </c>
-      <c r="I9" s="4">
-        <v>90</v>
+      <c r="I9" s="2">
+        <v>100</v>
       </c>
       <c r="J9" s="4">
         <v>111.62749715293999</v>
@@ -2348,7 +2347,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" ht="15" thickBot="1">
       <c r="B10" t="s">
         <v>99</v>
       </c>
@@ -2370,8 +2369,8 @@
       <c r="H10" s="4">
         <v>809</v>
       </c>
-      <c r="I10" s="4">
-        <v>90</v>
+      <c r="I10" s="2">
+        <v>100</v>
       </c>
       <c r="J10" s="4">
         <v>111.625296506407</v>
@@ -2461,7 +2460,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" ht="15" thickBot="1">
       <c r="B11" t="s">
         <v>99</v>
       </c>
@@ -2483,8 +2482,8 @@
       <c r="H11" s="4">
         <v>731.8</v>
       </c>
-      <c r="I11" s="4">
-        <v>90</v>
+      <c r="I11" s="2">
+        <v>100</v>
       </c>
       <c r="J11" s="4">
         <v>111.624316852989</v>
@@ -2574,7 +2573,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" ht="15" thickBot="1">
       <c r="B12" t="s">
         <v>99</v>
       </c>
@@ -2596,8 +2595,8 @@
       <c r="H12" s="4">
         <v>788</v>
       </c>
-      <c r="I12" s="4">
-        <v>90</v>
+      <c r="I12" s="2">
+        <v>100</v>
       </c>
       <c r="J12" s="4">
         <v>111.622087459683</v>
@@ -2687,7 +2686,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" ht="15" thickBot="1">
       <c r="B13" t="s">
         <v>99</v>
       </c>
@@ -2709,8 +2708,8 @@
       <c r="H13" s="4">
         <v>742.6</v>
       </c>
-      <c r="I13" s="4">
-        <v>90</v>
+      <c r="I13" s="2">
+        <v>100</v>
       </c>
       <c r="J13" s="4">
         <v>111.616845183368</v>
@@ -2800,7 +2799,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" ht="15" thickBot="1">
       <c r="B14" t="s">
         <v>99</v>
       </c>
@@ -2822,8 +2821,8 @@
       <c r="H14" s="4">
         <v>708.3</v>
       </c>
-      <c r="I14" s="4">
-        <v>90</v>
+      <c r="I14" s="2">
+        <v>100</v>
       </c>
       <c r="J14" s="4">
         <v>111.596032003828</v>
@@ -2913,7 +2912,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" ht="15" thickBot="1">
       <c r="B15" t="s">
         <v>99</v>
       </c>
@@ -2935,8 +2934,8 @@
       <c r="H15" s="4">
         <v>717.8</v>
       </c>
-      <c r="I15" s="4">
-        <v>90</v>
+      <c r="I15" s="2">
+        <v>100</v>
       </c>
       <c r="J15" s="4">
         <v>111.59145493586</v>
@@ -3026,7 +3025,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" ht="15" thickBot="1">
       <c r="B16" t="s">
         <v>99</v>
       </c>
@@ -3048,8 +3047,8 @@
       <c r="H16" s="4">
         <v>764.6</v>
       </c>
-      <c r="I16" s="4">
-        <v>90</v>
+      <c r="I16" s="2">
+        <v>100</v>
       </c>
       <c r="J16" s="4">
         <v>111.58364844116799</v>
@@ -3139,7 +3138,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="17" spans="2:38">
+    <row r="17" spans="2:38" ht="15" thickBot="1">
       <c r="B17" t="s">
         <v>99</v>
       </c>
@@ -3161,8 +3160,8 @@
       <c r="H17" s="4">
         <v>756.8</v>
       </c>
-      <c r="I17" s="4">
-        <v>90</v>
+      <c r="I17" s="2">
+        <v>100</v>
       </c>
       <c r="J17" s="4">
         <v>111.578891337153</v>
@@ -3252,7 +3251,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="18" spans="2:38">
+    <row r="18" spans="2:38" ht="15" thickBot="1">
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -3274,8 +3273,8 @@
       <c r="H18" s="4">
         <v>942.1</v>
       </c>
-      <c r="I18" s="4">
-        <v>90</v>
+      <c r="I18" s="2">
+        <v>100</v>
       </c>
       <c r="J18" s="4">
         <v>111.57315475897801</v>
@@ -3365,7 +3364,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="19" spans="2:38">
+    <row r="19" spans="2:38" ht="15" thickBot="1">
       <c r="B19" t="s">
         <v>99</v>
       </c>
@@ -3387,8 +3386,8 @@
       <c r="H19" s="4">
         <v>919.2</v>
       </c>
-      <c r="I19" s="4">
-        <v>90</v>
+      <c r="I19" s="2">
+        <v>100</v>
       </c>
       <c r="J19" s="4">
         <v>111.569766132449</v>
@@ -3478,7 +3477,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="20" spans="2:38">
+    <row r="20" spans="2:38" ht="15" thickBot="1">
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -3500,8 +3499,8 @@
       <c r="H20" s="4">
         <v>898.1</v>
       </c>
-      <c r="I20" s="4">
-        <v>90</v>
+      <c r="I20" s="2">
+        <v>100</v>
       </c>
       <c r="J20" s="4">
         <v>111.56591777846199</v>
@@ -3591,7 +3590,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="21" spans="2:38">
+    <row r="21" spans="2:38" ht="15" thickBot="1">
       <c r="B21" t="s">
         <v>99</v>
       </c>
@@ -3613,8 +3612,8 @@
       <c r="H21" s="4">
         <v>858.7</v>
       </c>
-      <c r="I21" s="4">
-        <v>90</v>
+      <c r="I21" s="2">
+        <v>100</v>
       </c>
       <c r="J21" s="4">
         <v>111.564378424705</v>
@@ -3704,7 +3703,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="2:38">
+    <row r="22" spans="2:38" ht="15" thickBot="1">
       <c r="B22" t="s">
         <v>99</v>
       </c>
@@ -3726,8 +3725,8 @@
       <c r="H22" s="4">
         <v>780.6</v>
       </c>
-      <c r="I22" s="4">
-        <v>90</v>
+      <c r="I22" s="2">
+        <v>100</v>
       </c>
       <c r="J22" s="4">
         <v>111.56250772514601</v>
@@ -3839,8 +3838,8 @@
       <c r="H23" s="6">
         <v>800</v>
       </c>
-      <c r="I23" s="6">
-        <v>90</v>
+      <c r="I23" s="2">
+        <v>100</v>
       </c>
       <c r="J23" s="6">
         <v>111.559504611355</v>
@@ -3930,7 +3929,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="24" spans="2:38">
+    <row r="24" spans="2:38" ht="15" thickBot="1">
       <c r="B24" t="s">
         <v>99</v>
       </c>
@@ -3952,8 +3951,8 @@
       <c r="H24">
         <v>811.1</v>
       </c>
-      <c r="I24">
-        <v>90</v>
+      <c r="I24" s="2">
+        <v>100</v>
       </c>
       <c r="J24">
         <v>111.555113141729</v>
@@ -4043,7 +4042,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="25" spans="2:38">
+    <row r="25" spans="2:38" ht="15" thickBot="1">
       <c r="B25" t="s">
         <v>99</v>
       </c>
@@ -4065,8 +4064,8 @@
       <c r="H25">
         <v>832</v>
       </c>
-      <c r="I25">
-        <v>90</v>
+      <c r="I25" s="2">
+        <v>100</v>
       </c>
       <c r="J25">
         <v>111.552039809756</v>
@@ -4156,7 +4155,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="2:38">
+    <row r="26" spans="2:38" ht="15" thickBot="1">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -4178,8 +4177,8 @@
       <c r="H26">
         <v>808.4</v>
       </c>
-      <c r="I26">
-        <v>90</v>
+      <c r="I26" s="2">
+        <v>100</v>
       </c>
       <c r="J26">
         <v>111.54926532849601</v>
@@ -4269,7 +4268,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="27" spans="2:38">
+    <row r="27" spans="2:38" ht="15" thickBot="1">
       <c r="B27" t="s">
         <v>99</v>
       </c>
@@ -4291,8 +4290,8 @@
       <c r="H27">
         <v>754.2</v>
       </c>
-      <c r="I27">
-        <v>90</v>
+      <c r="I27" s="2">
+        <v>100</v>
       </c>
       <c r="J27">
         <v>111.54261326645</v>
@@ -4382,7 +4381,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="28" spans="2:38">
+    <row r="28" spans="2:38" ht="15" thickBot="1">
       <c r="B28" t="s">
         <v>99</v>
       </c>
@@ -4404,8 +4403,8 @@
       <c r="H28">
         <v>729.1</v>
       </c>
-      <c r="I28">
-        <v>90</v>
+      <c r="I28" s="2">
+        <v>100</v>
       </c>
       <c r="J28">
         <v>111.532818596911</v>
@@ -4495,7 +4494,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="29" spans="2:38" ht="14.25" customHeight="1">
+    <row r="29" spans="2:38" ht="14.25" customHeight="1" thickBot="1">
       <c r="B29" t="s">
         <v>99</v>
       </c>
@@ -4517,8 +4516,8 @@
       <c r="H29">
         <v>720.3</v>
       </c>
-      <c r="I29">
-        <v>90</v>
+      <c r="I29" s="2">
+        <v>100</v>
       </c>
       <c r="J29">
         <v>111.529600787635</v>
@@ -4608,7 +4607,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="30" spans="2:38">
+    <row r="30" spans="2:38" ht="15" thickBot="1">
       <c r="B30" t="s">
         <v>99</v>
       </c>
@@ -4630,8 +4629,8 @@
       <c r="H30">
         <v>753.3</v>
       </c>
-      <c r="I30">
-        <v>90</v>
+      <c r="I30" s="2">
+        <v>100</v>
       </c>
       <c r="J30">
         <v>111.525667637824</v>
@@ -4721,7 +4720,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="31" spans="2:38">
+    <row r="31" spans="2:38" ht="15" thickBot="1">
       <c r="B31" t="s">
         <v>99</v>
       </c>
@@ -4743,8 +4742,8 @@
       <c r="H31">
         <v>702.8</v>
       </c>
-      <c r="I31">
-        <v>90</v>
+      <c r="I31" s="2">
+        <v>100</v>
       </c>
       <c r="J31">
         <v>111.511786956096</v>
@@ -4834,7 +4833,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="32" spans="2:38">
+    <row r="32" spans="2:38" ht="15" thickBot="1">
       <c r="B32" t="s">
         <v>99</v>
       </c>
@@ -4856,8 +4855,8 @@
       <c r="H32">
         <v>684.7</v>
       </c>
-      <c r="I32">
-        <v>90</v>
+      <c r="I32" s="2">
+        <v>100</v>
       </c>
       <c r="J32">
         <v>111.500259030252</v>
@@ -4947,7 +4946,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="33" spans="2:38">
+    <row r="33" spans="2:38" ht="15" thickBot="1">
       <c r="B33" t="s">
         <v>99</v>
       </c>
@@ -4969,8 +4968,8 @@
       <c r="H33">
         <v>736.2</v>
       </c>
-      <c r="I33">
-        <v>90</v>
+      <c r="I33" s="2">
+        <v>100</v>
       </c>
       <c r="J33">
         <v>111.496027947122</v>
@@ -5060,7 +5059,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="34" spans="2:38">
+    <row r="34" spans="2:38" ht="15" thickBot="1">
       <c r="B34" t="s">
         <v>99</v>
       </c>
@@ -5082,8 +5081,8 @@
       <c r="H34">
         <v>725.2</v>
       </c>
-      <c r="I34">
-        <v>90</v>
+      <c r="I34" s="2">
+        <v>100</v>
       </c>
       <c r="J34">
         <v>111.49309448870601</v>
@@ -5173,7 +5172,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="35" spans="2:38">
+    <row r="35" spans="2:38" ht="15" thickBot="1">
       <c r="B35" t="s">
         <v>99</v>
       </c>
@@ -5195,8 +5194,8 @@
       <c r="H35">
         <v>884.9</v>
       </c>
-      <c r="I35">
-        <v>90</v>
+      <c r="I35" s="2">
+        <v>100</v>
       </c>
       <c r="J35">
         <v>111.565471130772</v>
@@ -5286,7 +5285,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="2:38">
+    <row r="36" spans="2:38" ht="15" thickBot="1">
       <c r="B36" t="s">
         <v>99</v>
       </c>
@@ -5308,8 +5307,8 @@
       <c r="H36">
         <v>825</v>
       </c>
-      <c r="I36">
-        <v>90</v>
+      <c r="I36" s="2">
+        <v>100</v>
       </c>
       <c r="J36">
         <v>111.569846653241</v>
@@ -5399,7 +5398,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="37" spans="2:38">
+    <row r="37" spans="2:38" ht="15" thickBot="1">
       <c r="B37" t="s">
         <v>99</v>
       </c>
@@ -5421,8 +5420,8 @@
       <c r="H37">
         <v>748.5</v>
       </c>
-      <c r="I37">
-        <v>90</v>
+      <c r="I37" s="2">
+        <v>100</v>
       </c>
       <c r="J37">
         <v>111.582811688212</v>
@@ -5512,7 +5511,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="38" spans="2:38">
+    <row r="38" spans="2:38" ht="15" thickBot="1">
       <c r="B38" t="s">
         <v>99</v>
       </c>
@@ -5534,8 +5533,8 @@
       <c r="H38">
         <v>728.4</v>
       </c>
-      <c r="I38">
-        <v>90</v>
+      <c r="I38" s="2">
+        <v>100</v>
       </c>
       <c r="J38">
         <v>111.580401690936</v>
@@ -5625,7 +5624,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="39" spans="2:38">
+    <row r="39" spans="2:38" ht="15" thickBot="1">
       <c r="B39" t="s">
         <v>99</v>
       </c>
@@ -5647,8 +5646,8 @@
       <c r="H39">
         <v>724.7</v>
       </c>
-      <c r="I39">
-        <v>90</v>
+      <c r="I39" s="2">
+        <v>100</v>
       </c>
       <c r="J39">
         <v>111.572912879283</v>
@@ -5738,7 +5737,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="40" spans="2:38">
+    <row r="40" spans="2:38" ht="15" thickBot="1">
       <c r="B40" t="s">
         <v>99</v>
       </c>
@@ -5760,8 +5759,8 @@
       <c r="H40">
         <v>753.4</v>
       </c>
-      <c r="I40">
-        <v>90</v>
+      <c r="I40" s="2">
+        <v>100</v>
       </c>
       <c r="J40">
         <v>111.578895610006</v>
@@ -5873,8 +5872,8 @@
       <c r="H41">
         <v>818.8</v>
       </c>
-      <c r="I41">
-        <v>90</v>
+      <c r="I41" s="2">
+        <v>100</v>
       </c>
       <c r="J41">
         <v>111.550643035683</v>
@@ -5972,7 +5971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+    <sheetView tabSelected="1" topLeftCell="U7" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4672,7 +4672,7 @@
         <v>5.69</v>
       </c>
       <c r="W30">
-        <v>-2.8</v>
+        <v>-28</v>
       </c>
       <c r="X30">
         <v>1.1080000000000001</v>

--- a/demo/导表/windres.xlsx
+++ b/demo/导表/windres.xlsx
@@ -480,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turbine_capacity_each</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ongrid_power</t>
   </si>
   <si>
@@ -712,6 +708,10 @@
   </si>
   <si>
     <t>方案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurbineCapacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U7" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1335,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -1431,30 +1431,30 @@
         <v>23</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AN1" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="15" thickBot="1">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2">
         <v>37567435</v>
@@ -1532,7 +1532,7 @@
         <v>67</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF2" s="2">
         <v>681</v>
@@ -1558,16 +1558,16 @@
     </row>
     <row r="3" spans="1:40" ht="15" thickBot="1">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="4">
         <v>37567103</v>
@@ -1645,7 +1645,7 @@
         <v>225</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="4">
         <v>652</v>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="4" spans="1:40" ht="15" thickBot="1">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="4">
         <v>37566634</v>
@@ -1758,7 +1758,7 @@
         <v>202</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF4" s="4">
         <v>652</v>
@@ -1784,16 +1784,16 @@
     </row>
     <row r="5" spans="1:40" ht="15" thickBot="1">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="4">
         <v>37566539</v>
@@ -1871,7 +1871,7 @@
         <v>90</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" s="4">
         <v>493</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="6" spans="1:40" ht="15" thickBot="1">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="4">
         <v>37566428</v>
@@ -1984,7 +1984,7 @@
         <v>90</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF6" s="4">
         <v>467</v>
@@ -2010,16 +2010,16 @@
     </row>
     <row r="7" spans="1:40" ht="15" thickBot="1">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="4">
         <v>37566051</v>
@@ -2097,7 +2097,7 @@
         <v>270</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF7" s="4">
         <v>467</v>
@@ -2123,16 +2123,16 @@
     </row>
     <row r="8" spans="1:40" ht="15" thickBot="1">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="4">
         <v>37566271</v>
@@ -2210,7 +2210,7 @@
         <v>90</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF8" s="4">
         <v>524</v>
@@ -2236,16 +2236,16 @@
     </row>
     <row r="9" spans="1:40" ht="15" thickBot="1">
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4">
         <v>37564324</v>
@@ -2323,7 +2323,7 @@
         <v>135</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF9" s="4">
         <v>436</v>
@@ -2349,16 +2349,16 @@
     </row>
     <row r="10" spans="1:40" ht="15" thickBot="1">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="4">
         <v>37564100</v>
@@ -2436,7 +2436,7 @@
         <v>135</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF10" s="4">
         <v>329</v>
@@ -2462,16 +2462,16 @@
     </row>
     <row r="11" spans="1:40" ht="15" thickBot="1">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="4">
         <v>37564004</v>
@@ -2549,7 +2549,7 @@
         <v>157</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF11" s="4">
         <v>1044</v>
@@ -2575,16 +2575,16 @@
     </row>
     <row r="12" spans="1:40" ht="15" thickBot="1">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="4">
         <v>37563771</v>
@@ -2662,7 +2662,7 @@
         <v>315</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF12" s="4">
         <v>329</v>
@@ -2688,16 +2688,16 @@
     </row>
     <row r="13" spans="1:40" ht="15" thickBot="1">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="4">
         <v>37563234</v>
@@ -2775,7 +2775,7 @@
         <v>315</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF13" s="4">
         <v>546</v>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="14" spans="1:40" ht="15" thickBot="1">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="4">
         <v>37561099</v>
@@ -2888,7 +2888,7 @@
         <v>22</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF14" s="4">
         <v>922</v>
@@ -2914,16 +2914,16 @@
     </row>
     <row r="15" spans="1:40" ht="15" thickBot="1">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="4">
         <v>37560633</v>
@@ -3001,7 +3001,7 @@
         <v>180</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF15" s="4">
         <v>819</v>
@@ -3027,16 +3027,16 @@
     </row>
     <row r="16" spans="1:40" ht="15" thickBot="1">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="4">
         <v>37559832</v>
@@ -3114,7 +3114,7 @@
         <v>135</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF16" s="4">
         <v>494</v>
@@ -3140,16 +3140,16 @@
     </row>
     <row r="17" spans="2:38" ht="15" thickBot="1">
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="4">
         <v>37559344</v>
@@ -3227,7 +3227,7 @@
         <v>180</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF17" s="4">
         <v>494</v>
@@ -3253,16 +3253,16 @@
     </row>
     <row r="18" spans="2:38" ht="15" thickBot="1">
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="4">
         <v>37558756</v>
@@ -3340,7 +3340,7 @@
         <v>135</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF18" s="4">
         <v>361</v>
@@ -3366,16 +3366,16 @@
     </row>
     <row r="19" spans="2:38" ht="15" thickBot="1">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="4">
         <v>37558409</v>
@@ -3453,7 +3453,7 @@
         <v>157</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF19" s="4">
         <v>361</v>
@@ -3479,16 +3479,16 @@
     </row>
     <row r="20" spans="2:38" ht="15" thickBot="1">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="4">
         <v>37558014</v>
@@ -3566,7 +3566,7 @@
         <v>270</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF20" s="4">
         <v>414</v>
@@ -3592,16 +3592,16 @@
     </row>
     <row r="21" spans="2:38" ht="15" thickBot="1">
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="4">
         <v>37557858</v>
@@ -3679,7 +3679,7 @@
         <v>157</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF21" s="4">
         <v>495</v>
@@ -3705,16 +3705,16 @@
     </row>
     <row r="22" spans="2:38" ht="15" thickBot="1">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="4">
         <v>37557668</v>
@@ -3792,7 +3792,7 @@
         <v>135</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF22" s="4">
         <v>502</v>
@@ -3818,16 +3818,16 @@
     </row>
     <row r="23" spans="2:38" ht="15" thickBot="1">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F23" s="6">
         <v>37557362</v>
@@ -3905,7 +3905,7 @@
         <v>135</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF23" s="6">
         <v>455</v>
@@ -3931,16 +3931,16 @@
     </row>
     <row r="24" spans="2:38" ht="15" thickBot="1">
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24">
         <v>37556912</v>
@@ -4018,7 +4018,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF24">
         <v>429</v>
@@ -4044,16 +4044,16 @@
     </row>
     <row r="25" spans="2:38" ht="15" thickBot="1">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25">
         <v>37556598</v>
@@ -4131,7 +4131,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF25">
         <v>429</v>
@@ -4157,16 +4157,16 @@
     </row>
     <row r="26" spans="2:38" ht="15" thickBot="1">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26">
         <v>37556315</v>
@@ -4244,7 +4244,7 @@
         <v>180</v>
       </c>
       <c r="AE26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF26">
         <v>483</v>
@@ -4270,16 +4270,16 @@
     </row>
     <row r="27" spans="2:38" ht="15" thickBot="1">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F27">
         <v>37555632</v>
@@ -4357,7 +4357,7 @@
         <v>247</v>
       </c>
       <c r="AE27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF27">
         <v>730</v>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="28" spans="2:38" ht="15" thickBot="1">
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28">
         <v>37554642</v>
@@ -4470,7 +4470,7 @@
         <v>337</v>
       </c>
       <c r="AE28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF28">
         <v>431</v>
@@ -4496,16 +4496,16 @@
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1" thickBot="1">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29">
         <v>37554313</v>
@@ -4583,7 +4583,7 @@
         <v>180</v>
       </c>
       <c r="AE29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF29">
         <v>416</v>
@@ -4609,16 +4609,16 @@
     </row>
     <row r="30" spans="2:38" ht="15" thickBot="1">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F30">
         <v>37553910</v>
@@ -4696,7 +4696,7 @@
         <v>157</v>
       </c>
       <c r="AE30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF30">
         <v>416</v>
@@ -4722,16 +4722,16 @@
     </row>
     <row r="31" spans="2:38" ht="15" thickBot="1">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31">
         <v>37552485</v>
@@ -4809,7 +4809,7 @@
         <v>270</v>
       </c>
       <c r="AE31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF31">
         <v>1184</v>
@@ -4835,16 +4835,16 @@
     </row>
     <row r="32" spans="2:38" ht="15" thickBot="1">
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F32">
         <v>37551303</v>
@@ -4922,7 +4922,7 @@
         <v>180</v>
       </c>
       <c r="AE32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF32">
         <v>435</v>
@@ -4948,16 +4948,16 @@
     </row>
     <row r="33" spans="2:38" ht="15" thickBot="1">
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33">
         <v>37550869</v>
@@ -5035,7 +5035,7 @@
         <v>157</v>
       </c>
       <c r="AE33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF33">
         <v>391</v>
@@ -5061,16 +5061,16 @@
     </row>
     <row r="34" spans="2:38" ht="15" thickBot="1">
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34">
         <v>37550569</v>
@@ -5148,7 +5148,7 @@
         <v>247</v>
       </c>
       <c r="AE34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF34">
         <v>391</v>
@@ -5174,16 +5174,16 @@
     </row>
     <row r="35" spans="2:38" ht="15" thickBot="1">
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35">
         <v>37557952</v>
@@ -5261,7 +5261,7 @@
         <v>337</v>
       </c>
       <c r="AE35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF35">
         <v>462</v>
@@ -5287,16 +5287,16 @@
     </row>
     <row r="36" spans="2:38" ht="15" thickBot="1">
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F36">
         <v>37558400</v>
@@ -5374,7 +5374,7 @@
         <v>67</v>
       </c>
       <c r="AE36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF36">
         <v>462</v>
@@ -5400,16 +5400,16 @@
     </row>
     <row r="37" spans="2:38" ht="15" thickBot="1">
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37">
         <v>37559723</v>
@@ -5487,7 +5487,7 @@
         <v>67</v>
       </c>
       <c r="AE37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF37">
         <v>568</v>
@@ -5513,16 +5513,16 @@
     </row>
     <row r="38" spans="2:38" ht="15" thickBot="1">
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38">
         <v>37559474</v>
@@ -5600,7 +5600,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF38">
         <v>568</v>
@@ -5626,16 +5626,16 @@
     </row>
     <row r="39" spans="2:38" ht="15" thickBot="1">
       <c r="B39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F39">
         <v>37558707</v>
@@ -5713,7 +5713,7 @@
         <v>337</v>
       </c>
       <c r="AE39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF39">
         <v>774</v>
@@ -5739,16 +5739,16 @@
     </row>
     <row r="40" spans="2:38" ht="15" thickBot="1">
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40">
         <v>37559315</v>
@@ -5769,7 +5769,7 @@
         <v>23.081177301957901</v>
       </c>
       <c r="L40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M40">
         <v>6.31</v>
@@ -5826,7 +5826,7 @@
         <v>67</v>
       </c>
       <c r="AE40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF40">
         <v>1525</v>
@@ -5852,16 +5852,16 @@
     </row>
     <row r="41" spans="2:38">
       <c r="B41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F41">
         <v>37556430</v>
@@ -5939,7 +5939,7 @@
         <v>337</v>
       </c>
       <c r="AE41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF41">
         <v>1640</v>
